--- a/JAZZ.xlsx
+++ b/JAZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F230F3-9DC2-46F6-8099-024525885F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E319B-0D27-4818-9369-F71CE73CAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="1020" windowWidth="27645" windowHeight="18960" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
+    <workbookView xWindow="22665" yWindow="225" windowWidth="28410" windowHeight="20415" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>Price</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>Maturity</t>
+  </si>
+  <si>
+    <t>Oxybate</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -530,7 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -542,16 +547,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,16 +579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27878</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>37171</xdr:rowOff>
+      <xdr:rowOff>78842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27878</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162622</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>43559</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -601,8 +603,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7666463" y="37171"/>
-          <a:ext cx="0" cy="5166731"/>
+          <a:off x="9457628" y="78842"/>
+          <a:ext cx="0" cy="5268951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -627,16 +629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34557</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28605</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34557</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125451</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12342</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -651,8 +653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13113573" y="0"/>
-          <a:ext cx="0" cy="5108217"/>
+          <a:off x="13714839" y="47625"/>
+          <a:ext cx="0" cy="5268951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -977,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CF0EA-6190-476D-832E-2260D789DF8A}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -995,16 +995,16 @@
       <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="12"/>
@@ -1013,129 +1013,123 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>156.38</v>
+        <v>128.06</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22">
         <v>44033</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>62.784999999999997</v>
+        <v>64.004790999999997</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22">
         <v>37454</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>9818.318299999999</v>
+        <v>8196.4535354599993</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="H5" s="15"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>839.358+60</f>
-        <v>899.35799999999995</v>
+        <v>1167.9110000000001</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="H6" s="15"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>5695.814+31</f>
-        <v>5726.8140000000003</v>
+        <f>5689.662+31</f>
+        <v>5720.6620000000003</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="22">
         <v>43371</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>14645.774299999999</v>
+        <v>12749.20453546</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="12"/>
@@ -1146,85 +1140,80 @@
       <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="23"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1234,13 +1223,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF25E3F-0D5A-4F1A-A75A-A8CE578AC72F}">
-  <dimension ref="A1:CT29"/>
+  <dimension ref="A1:CT33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1401,76 +1390,82 @@
         <v>256.03899999999999</v>
       </c>
       <c r="N3" s="4">
-        <f>+J3*0.8</f>
-        <v>231.012</v>
+        <v>247.49600000000001</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:R3" si="1">+K3*0.8</f>
-        <v>197.99760000000003</v>
+        <v>178.13</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" si="1"/>
-        <v>215.5368</v>
+        <f>+L3*0.7</f>
+        <v>188.59469999999999</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" si="1"/>
-        <v>204.8312</v>
+        <f>+M3*0.7</f>
+        <v>179.22729999999999</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" si="1"/>
-        <v>184.80960000000002</v>
+        <f>+N3*0.7</f>
+        <v>173.24719999999999</v>
+      </c>
+      <c r="U3" s="3">
+        <f>SUM(G3:J3)</f>
+        <v>1265.83</v>
+      </c>
+      <c r="V3" s="3">
+        <f>SUM(K3:N3)</f>
+        <v>1020.453</v>
       </c>
       <c r="W3" s="3">
         <f>SUM(O3:R3)</f>
-        <v>803.17520000000002</v>
+        <v>719.19920000000002</v>
       </c>
       <c r="X3" s="3">
         <f>+W3*0.5</f>
-        <v>401.58760000000001</v>
+        <v>359.59960000000001</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:AH3" si="2">+X3*0.5</f>
-        <v>200.7938</v>
+        <f t="shared" ref="Y3:AH3" si="1">+X3*0.5</f>
+        <v>179.7998</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" si="2"/>
-        <v>100.3969</v>
+        <f t="shared" si="1"/>
+        <v>89.899900000000002</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" si="2"/>
-        <v>50.198450000000001</v>
+        <f t="shared" si="1"/>
+        <v>44.949950000000001</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" si="2"/>
-        <v>25.099225000000001</v>
+        <f t="shared" si="1"/>
+        <v>22.474975000000001</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" si="2"/>
-        <v>12.5496125</v>
+        <f t="shared" si="1"/>
+        <v>11.2374875</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2748062500000001</v>
+        <f t="shared" si="1"/>
+        <v>5.6187437500000001</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" si="2"/>
-        <v>3.1374031250000001</v>
+        <f t="shared" si="1"/>
+        <v>2.8093718750000001</v>
       </c>
       <c r="AF3" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5687015625</v>
+        <f t="shared" si="1"/>
+        <v>1.4046859375</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.78435078125000002</v>
+        <f t="shared" si="1"/>
+        <v>0.70234296875000002</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.39217539062500001</v>
+        <f t="shared" si="1"/>
+        <v>0.35117148437500001</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" ref="AI3" si="3">+AH3*0.5</f>
-        <v>0.1960876953125</v>
+        <f t="shared" ref="AI3" si="2">+AH3*0.5</f>
+        <v>0.1755857421875</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1505,12 +1500,10 @@
         <v>255.93600000000001</v>
       </c>
       <c r="N4" s="4">
-        <f>+J4*1.4</f>
-        <v>255.71559999999997</v>
+        <v>281.38400000000001</v>
       </c>
       <c r="O4" s="4">
-        <f>+K4*1.3</f>
-        <v>241.90400000000002</v>
+        <v>277.76100000000002</v>
       </c>
       <c r="P4" s="4">
         <f>+L4*1.2</f>
@@ -1522,59 +1515,67 @@
       </c>
       <c r="R4" s="4">
         <f>+N4*1.2</f>
-        <v>306.85871999999995</v>
+        <v>337.66079999999999</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4:U17" si="3">SUM(G4:J4)</f>
+        <v>535.29700000000003</v>
+      </c>
+      <c r="V4" s="3">
+        <f>SUM(K4:N4)</f>
+        <v>958.42500000000007</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" ref="W4:W16" si="4">SUM(O4:R4)</f>
-        <v>1137.9159199999999</v>
+        <v>1204.5749999999998</v>
       </c>
       <c r="X4" s="3">
         <f>+W4*1.1</f>
-        <v>1251.707512</v>
+        <v>1325.0324999999998</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ref="Y4:Z4" si="5">+X4*1.1</f>
-        <v>1376.8782632</v>
+        <v>1457.53575</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="5"/>
-        <v>1514.5660895200001</v>
+        <v>1603.2893250000002</v>
       </c>
       <c r="AA4" s="3">
         <f>+Z4*1.05</f>
-        <v>1590.2943939960003</v>
+        <v>1683.4537912500002</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ref="AB4:AF4" si="6">+AA4*1.05</f>
-        <v>1669.8091136958003</v>
+        <v>1767.6264808125004</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="6"/>
-        <v>1753.2995693805904</v>
+        <v>1856.0078048531254</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" si="6"/>
-        <v>1840.96454784962</v>
+        <v>1948.8081950957817</v>
       </c>
       <c r="AE4" s="3">
         <f t="shared" si="6"/>
-        <v>1933.012775242101</v>
+        <v>2046.2486048505709</v>
       </c>
       <c r="AF4" s="3">
         <f t="shared" si="6"/>
-        <v>2029.6634140042063</v>
+        <v>2148.5610350930997</v>
       </c>
       <c r="AG4" s="3">
         <f>+AF4*0.5</f>
-        <v>1014.8317070021031</v>
+        <v>1074.2805175465498</v>
       </c>
       <c r="AH4" s="3">
         <f>+AG4*0.2</f>
-        <v>202.96634140042065</v>
+        <v>214.85610350930997</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" ref="AI4" si="7">+AH4*0.2</f>
-        <v>40.593268280084132</v>
+        <v>42.971220701861995</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1609,15 +1610,13 @@
         <v>196.21799999999999</v>
       </c>
       <c r="N5" s="4">
-        <f>+J5*1.1</f>
-        <v>213.16460000000001</v>
+        <v>206.99799999999999</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:R5" si="8">+K5*1.1</f>
-        <v>173.68230000000003</v>
+        <v>188.90899999999999</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="P5:R5" si="8">+L5*1.1</f>
         <v>192.81790000000001</v>
       </c>
       <c r="Q5" s="4">
@@ -1626,59 +1625,67 @@
       </c>
       <c r="R5" s="4">
         <f t="shared" si="8"/>
-        <v>234.48106000000001</v>
+        <v>227.6978</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="3"/>
+        <v>463.64499999999998</v>
+      </c>
+      <c r="V5" s="3">
+        <f>SUM(K5:N5)</f>
+        <v>736.39799999999991</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="4"/>
-        <v>816.82105999999999</v>
+        <v>825.2645</v>
       </c>
       <c r="X5" s="3">
         <f>+W5*1.1</f>
-        <v>898.50316600000008</v>
+        <v>907.79095000000007</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ref="Y5:Z5" si="9">+X5*1.1</f>
-        <v>988.35348260000012</v>
+        <v>998.57004500000016</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" si="9"/>
-        <v>1087.1888308600003</v>
+        <v>1098.4270495000003</v>
       </c>
       <c r="AA5" s="3">
         <f>+Z5*1.03</f>
-        <v>1119.8044957858003</v>
+        <v>1131.3798609850003</v>
       </c>
       <c r="AB5" s="3">
         <f>+AA5*0.7</f>
-        <v>783.86314705006021</v>
+        <v>791.96590268950013</v>
       </c>
       <c r="AC5" s="3">
         <f>+AB5*0.7</f>
-        <v>548.70420293504208</v>
+        <v>554.37613188265004</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ref="AD5:AI5" si="10">+AC5*0.7</f>
-        <v>384.09294205452943</v>
+        <v>388.06329231785503</v>
       </c>
       <c r="AE5" s="3">
         <f t="shared" si="10"/>
-        <v>268.86505943817059</v>
+        <v>271.64430462249851</v>
       </c>
       <c r="AF5" s="3">
         <f t="shared" si="10"/>
-        <v>188.20554160671941</v>
+        <v>190.15101323574893</v>
       </c>
       <c r="AG5" s="3">
         <f t="shared" si="10"/>
-        <v>131.74387912470357</v>
+        <v>133.10570926502425</v>
       </c>
       <c r="AH5" s="3">
         <f t="shared" si="10"/>
-        <v>92.220715387292486</v>
+        <v>93.173996485516966</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="10"/>
-        <v>64.554500771104742</v>
+        <v>65.221797539861868</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1713,76 +1720,82 @@
         <v>3.22</v>
       </c>
       <c r="N6" s="4">
-        <f>+M6*0.9</f>
-        <v>2.8980000000000001</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:R6" si="11">+N6*0.9</f>
-        <v>2.6082000000000001</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="11"/>
-        <v>2.3473800000000002</v>
+        <f t="shared" ref="P6:R6" si="11">+O6*0.9</f>
+        <v>6.3882000000000003</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="11"/>
-        <v>2.1126420000000001</v>
+        <v>5.7493800000000004</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="11"/>
-        <v>1.9013778000000001</v>
+        <v>5.1744420000000009</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="3"/>
+        <v>12.707000000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM(K6:N6)</f>
+        <v>16.825000000000003</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" si="4"/>
-        <v>8.969599800000001</v>
+        <v>24.410021999999998</v>
       </c>
       <c r="X6" s="3">
         <f>+W6*0.9</f>
-        <v>8.0726398200000009</v>
+        <v>21.969019799999998</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ref="Y6:AI6" si="12">+X6*0.9</f>
-        <v>7.2653758380000006</v>
+        <v>19.772117819999998</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" si="12"/>
-        <v>6.5388382542000008</v>
+        <v>17.794906038000001</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="12"/>
-        <v>5.8849544287800004</v>
+        <v>16.015415434200001</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="12"/>
-        <v>5.2964589859020004</v>
+        <v>14.413873890780001</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="12"/>
-        <v>4.7668130873118004</v>
+        <v>12.972486501702001</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="12"/>
-        <v>4.2901317785806201</v>
+        <v>11.675237851531801</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="12"/>
-        <v>3.8611186007225582</v>
+        <v>10.507714066378622</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="12"/>
-        <v>3.4750067406503025</v>
+        <v>9.4569426597407595</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="12"/>
-        <v>3.1275060665852723</v>
+        <v>8.5112483937666834</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="12"/>
-        <v>2.814755459926745</v>
+        <v>7.6601235543900152</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="12"/>
-        <v>2.5332799139340705</v>
+        <v>6.8941111989510135</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1821,7 +1834,6 @@
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P7" s="4">
@@ -1835,6 +1847,14 @@
       <c r="R7" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="3"/>
+        <v>57.914000000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f>SUM(K7:N7)</f>
+        <v>28.844000000000001</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" si="4"/>
@@ -1921,28 +1941,34 @@
         <v>70.319999999999993</v>
       </c>
       <c r="N8" s="4">
-        <f>+M8+1</f>
-        <v>71.319999999999993</v>
+        <v>71.968999999999994</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" ref="O8:R8" si="15">+N8+1</f>
-        <v>72.319999999999993</v>
+        <v>67.180999999999997</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="15"/>
-        <v>73.319999999999993</v>
+        <f t="shared" ref="P8:R8" si="15">+O8+1</f>
+        <v>68.180999999999997</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="15"/>
-        <v>74.319999999999993</v>
+        <v>69.180999999999997</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="15"/>
-        <v>75.319999999999993</v>
+        <v>70.180999999999997</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="3"/>
+        <v>246.80799999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <f>SUM(K8:N8)</f>
+        <v>269.91199999999998</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" si="4"/>
-        <v>295.27999999999997</v>
+        <v>274.72399999999999</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1977,28 +2003,34 @@
         <v>73.513000000000005</v>
       </c>
       <c r="N9" s="4">
-        <f>+M9+1</f>
-        <v>74.513000000000005</v>
+        <v>80.971999999999994</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" ref="O9:R9" si="16">+N9+1</f>
-        <v>75.513000000000005</v>
+        <v>85.927000000000007</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="16"/>
-        <v>76.513000000000005</v>
+        <f t="shared" ref="P9:R9" si="16">+O9+1</f>
+        <v>86.927000000000007</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="16"/>
-        <v>77.513000000000005</v>
+        <v>87.927000000000007</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="16"/>
-        <v>78.513000000000005</v>
+        <v>88.927000000000007</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="3"/>
+        <v>85.628999999999991</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ref="V9:V17" si="17">SUM(K9:N9)</f>
+        <v>281.65899999999999</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" si="4"/>
-        <v>308.05200000000002</v>
+        <v>349.70800000000003</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2033,76 +2065,82 @@
         <v>30.067</v>
       </c>
       <c r="N10" s="4">
-        <f>+AVERAGE(J10:M10)</f>
-        <v>33.119500000000002</v>
+        <v>30.265999999999998</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10:R10" si="17">+AVERAGE(K10:N10)</f>
-        <v>32.708375000000004</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" ref="P10:R10" si="18">+AVERAGE(L10:O10)</f>
+        <v>32.73075</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="18"/>
+        <v>32.440937500000004</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="18"/>
+        <v>33.034421875000007</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="3"/>
+        <v>134.06</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="17"/>
-        <v>32.44621875</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="17"/>
-        <v>32.085273437500007</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="17"/>
-        <v>32.589841796875007</v>
+        <v>127.97999999999999</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" si="4"/>
-        <v>129.82970898437503</v>
+        <v>134.90610937500003</v>
       </c>
       <c r="X10" s="3">
         <f>+W10*0.99</f>
-        <v>128.53141189453129</v>
+        <v>133.55704828125002</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" ref="Y10:AI10" si="18">+X10*0.99</f>
-        <v>127.24609777558598</v>
+        <f t="shared" ref="Y10:AI10" si="19">+X10*0.99</f>
+        <v>132.22147779843752</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="18"/>
-        <v>125.97363679783012</v>
+        <f t="shared" si="19"/>
+        <v>130.89926302045313</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="18"/>
-        <v>124.71390042985182</v>
+        <f t="shared" si="19"/>
+        <v>129.59027039024861</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="18"/>
-        <v>123.4667614255533</v>
+        <f t="shared" si="19"/>
+        <v>128.29436768634611</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="18"/>
-        <v>122.23209381129777</v>
+        <f t="shared" si="19"/>
+        <v>127.01142400948264</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="18"/>
-        <v>121.0097728731848</v>
+        <f t="shared" si="19"/>
+        <v>125.74130976938781</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="18"/>
-        <v>119.79967514445295</v>
+        <f t="shared" si="19"/>
+        <v>124.48389667169393</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="18"/>
-        <v>118.60167839300841</v>
+        <f t="shared" si="19"/>
+        <v>123.23905770497699</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="18"/>
-        <v>117.41566160907833</v>
+        <f t="shared" si="19"/>
+        <v>122.00666712792722</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="18"/>
-        <v>116.24150499298754</v>
+        <f t="shared" si="19"/>
+        <v>120.78660045664795</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="18"/>
-        <v>115.07908994305767</v>
+        <f t="shared" si="19"/>
+        <v>119.57873445208146</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2137,76 +2175,82 @@
         <v>49.451999999999998</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" ref="N11:N12" si="19">+AVERAGE(J11:M11)</f>
-        <v>49.036999999999999</v>
+        <v>40.652999999999999</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11:O12" si="20">+AVERAGE(K11:N11)</f>
-        <v>50.668500000000002</v>
+        <v>39.079000000000001</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11:P12" si="21">+AVERAGE(L11:O11)</f>
-        <v>50.963374999999999</v>
+        <f t="shared" ref="P11:P12" si="20">+AVERAGE(L11:O11)</f>
+        <v>45.97</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11:Q12" si="22">+AVERAGE(M11:P11)</f>
-        <v>50.030218750000003</v>
+        <f t="shared" ref="Q11:Q12" si="21">+AVERAGE(M11:P11)</f>
+        <v>43.788499999999999</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" ref="R11:R12" si="23">+AVERAGE(N11:Q11)</f>
-        <v>50.174773437500008</v>
+        <f t="shared" ref="R11:R12" si="22">+AVERAGE(N11:Q11)</f>
+        <v>42.372624999999999</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="3"/>
+        <v>197.93100000000001</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="17"/>
+        <v>194.29</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" si="4"/>
-        <v>201.83686718749999</v>
+        <v>171.21012500000001</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" ref="X11:AI11" si="24">+W11*0.99</f>
-        <v>199.81849851562498</v>
+        <f t="shared" ref="X11:AI11" si="23">+W11*0.99</f>
+        <v>169.49802375000002</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="24"/>
-        <v>197.82031353046872</v>
+        <f t="shared" si="23"/>
+        <v>167.80304351250001</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="24"/>
-        <v>195.84211039516404</v>
+        <f t="shared" si="23"/>
+        <v>166.125013077375</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="24"/>
-        <v>193.88368929121239</v>
+        <f t="shared" si="23"/>
+        <v>164.46376294660126</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="24"/>
-        <v>191.94485239830027</v>
+        <f t="shared" si="23"/>
+        <v>162.81912531713525</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="24"/>
-        <v>190.02540387431728</v>
+        <f t="shared" si="23"/>
+        <v>161.19093406396388</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="24"/>
-        <v>188.12514983557409</v>
+        <f t="shared" si="23"/>
+        <v>159.57902472332424</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="24"/>
-        <v>186.24389833721835</v>
+        <f t="shared" si="23"/>
+        <v>157.98323447609098</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="24"/>
-        <v>184.38145935384617</v>
+        <f t="shared" si="23"/>
+        <v>156.40340213133007</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="24"/>
-        <v>182.5376447603077</v>
+        <f t="shared" si="23"/>
+        <v>154.83936811001678</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="24"/>
-        <v>180.71226831270462</v>
+        <f t="shared" si="23"/>
+        <v>153.2909744289166</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="24"/>
-        <v>178.90514562957759</v>
+        <f t="shared" si="23"/>
+        <v>151.75806468462744</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2249,76 +2293,84 @@
         <v>5.8870000000000005</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="19"/>
-        <v>5.4504999999999999</v>
+        <f>3.067+4.597</f>
+        <v>7.6640000000000006</v>
       </c>
       <c r="O12" s="4">
+        <f>2.096+6.497+3.434</f>
+        <v>12.027000000000001</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="20"/>
-        <v>5.5936249999999994</v>
-      </c>
-      <c r="P12" s="4">
+        <v>7.947000000000001</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="21"/>
-        <v>5.7852812499999997</v>
-      </c>
-      <c r="Q12" s="4">
+        <v>8.3812500000000014</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="22"/>
-        <v>5.6791015625000005</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="23"/>
-        <v>5.6271269531249999</v>
+        <v>9.0048125000000017</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="3"/>
+        <v>94.417000000000002</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="17"/>
+        <v>24.588000000000001</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" si="4"/>
-        <v>22.685134765625001</v>
+        <v>37.360062500000005</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" ref="X12:AI12" si="25">+W12*0.99</f>
-        <v>22.458283417968751</v>
+        <f t="shared" ref="X12:AI12" si="24">+W12*0.99</f>
+        <v>36.986461875000003</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="25"/>
-        <v>22.233700583789062</v>
+        <f t="shared" si="24"/>
+        <v>36.616597256250003</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="25"/>
-        <v>22.011363577951172</v>
+        <f t="shared" si="24"/>
+        <v>36.250431283687504</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="25"/>
-        <v>21.79124994217166</v>
+        <f t="shared" si="24"/>
+        <v>35.887926970850629</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="25"/>
-        <v>21.573337442749942</v>
+        <f t="shared" si="24"/>
+        <v>35.529047701142119</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="25"/>
-        <v>21.357604068322441</v>
+        <f t="shared" si="24"/>
+        <v>35.173757224130696</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="25"/>
-        <v>21.144028027639216</v>
+        <f t="shared" si="24"/>
+        <v>34.822019651889391</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="25"/>
-        <v>20.932587747362824</v>
+        <f t="shared" si="24"/>
+        <v>34.473799455370497</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="25"/>
-        <v>20.723261869889196</v>
+        <f t="shared" si="24"/>
+        <v>34.129061460816793</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="25"/>
-        <v>20.516029251190304</v>
+        <f t="shared" si="24"/>
+        <v>33.787770846208623</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="25"/>
-        <v>20.310868958678402</v>
+        <f t="shared" si="24"/>
+        <v>33.449893137746535</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="25"/>
-        <v>20.107760269091617</v>
+        <f t="shared" si="24"/>
+        <v>33.115394206369068</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2329,15 +2381,15 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:G13" si="26">SUM(F3:F12)</f>
+        <f t="shared" ref="F13:G13" si="25">SUM(F3:F12)</f>
         <v>665.51699999999994</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>607.58100000000002</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13" si="27">SUM(H3:H12)</f>
+        <f t="shared" ref="H13" si="26">SUM(H3:H12)</f>
         <v>751.81100000000004</v>
       </c>
       <c r="I13" s="6">
@@ -2349,7 +2401,7 @@
         <v>896.73099999999999</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13" si="28">SUM(K3:K12)</f>
+        <f t="shared" ref="K13" si="27">SUM(K3:K12)</f>
         <v>813.721</v>
       </c>
       <c r="L13" s="6">
@@ -2361,76 +2413,84 @@
         <v>940.65200000000004</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" ref="N13:R13" si="29">SUM(N3:N12)</f>
-        <v>936.2302000000002</v>
+        <f t="shared" ref="N13:R13" si="28">SUM(N3:N12)</f>
+        <v>972.12299999999993</v>
       </c>
       <c r="O13" s="6">
+        <f t="shared" si="28"/>
+        <v>892.81200000000001</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="28"/>
+        <v>911.5865500000001</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="28"/>
+        <v>949.65836750000005</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="28"/>
+        <v>987.30010137500005</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" ref="U13:W13" si="29">SUM(U3:U12)</f>
+        <v>3094.2379999999998</v>
+      </c>
+      <c r="V13" s="6">
         <f t="shared" si="29"/>
-        <v>852.99560000000019</v>
-      </c>
-      <c r="P13" s="6">
+        <v>3659.3739999999998</v>
+      </c>
+      <c r="W13" s="6">
         <f t="shared" si="29"/>
-        <v>931.75995499999999</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="29"/>
-        <v>969.53443575000006</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="shared" si="29"/>
-        <v>970.2754999875001</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" ref="W13" si="30">SUM(W3:W12)</f>
-        <v>3724.565490737501</v>
+        <v>3741.3570188750004</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" ref="X13" si="31">SUM(X3:X12)</f>
-        <v>2910.6791116481249</v>
+        <f t="shared" ref="X13" si="30">SUM(X3:X12)</f>
+        <v>2954.4336037062494</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" ref="Y13" si="32">SUM(Y3:Y12)</f>
-        <v>2920.591033527844</v>
+        <f t="shared" ref="Y13" si="31">SUM(Y3:Y12)</f>
+        <v>2992.3188313871879</v>
       </c>
       <c r="Z13" s="6">
-        <f t="shared" ref="Z13" si="33">SUM(Z3:Z12)</f>
-        <v>3052.5177694051463</v>
+        <f t="shared" ref="Z13" si="32">SUM(Z3:Z12)</f>
+        <v>3142.6858879195161</v>
       </c>
       <c r="AA13" s="6">
-        <f t="shared" ref="AA13" si="34">SUM(AA3:AA12)</f>
-        <v>3106.5711338738165</v>
+        <f t="shared" ref="AA13" si="33">SUM(AA3:AA12)</f>
+        <v>3205.7409779769005</v>
       </c>
       <c r="AB13" s="6">
-        <f t="shared" ref="AB13" si="35">SUM(AB3:AB12)</f>
-        <v>2821.0528959983658</v>
+        <f t="shared" ref="AB13" si="34">SUM(AB3:AB12)</f>
+        <v>2923.123773097404</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" ref="AC13" si="36">SUM(AC3:AC12)</f>
-        <v>2652.9352996568814</v>
+        <f t="shared" ref="AC13" si="35">SUM(AC3:AC12)</f>
+        <v>2757.9700260350551</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" ref="AD13" si="37">SUM(AD3:AD12)</f>
-        <v>2565.901378669128</v>
+        <f t="shared" ref="AD13" si="36">SUM(AD3:AD12)</f>
+        <v>2674.3078231597706</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" ref="AE13" si="38">SUM(AE3:AE12)</f>
-        <v>2535.8525176350286</v>
+        <f t="shared" ref="AE13" si="37">SUM(AE3:AE12)</f>
+        <v>2648.1509260176035</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" ref="AF13" si="39">SUM(AF3:AF12)</f>
-        <v>2546.6190635308199</v>
+        <f t="shared" ref="AF13" si="38">SUM(AF3:AF12)</f>
+        <v>2663.3451982232132</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" ref="AG13" si="40">SUM(AG3:AG12)</f>
-        <v>1470.9567785952186</v>
+        <f t="shared" ref="AG13" si="39">SUM(AG3:AG12)</f>
+        <v>1527.233624258243</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" ref="AH13" si="41">SUM(AH3:AH12)</f>
-        <v>615.65862990263543</v>
+        <f t="shared" ref="AH13" si="40">SUM(AH3:AH12)</f>
+        <v>623.56886305690307</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" ref="AI13" si="42">SUM(AI3:AI12)</f>
-        <v>421.96913250216232</v>
+        <f t="shared" ref="AI13" si="41">SUM(AI3:AI12)</f>
+        <v>419.71490852594036</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2465,76 +2525,82 @@
         <v>57.103000000000002</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14:Q14" si="43">+N13*0.06</f>
-        <v>56.173812000000012</v>
+        <v>93.385999999999996</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="43"/>
-        <v>51.179736000000013</v>
+        <v>64.727999999999994</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="43"/>
-        <v>55.905597299999997</v>
+        <f t="shared" ref="N14:Q14" si="42">+P13*0.06</f>
+        <v>54.695193000000003</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="43"/>
-        <v>58.172066145000002</v>
+        <f t="shared" si="42"/>
+        <v>56.979502050000001</v>
       </c>
       <c r="R14" s="3">
         <f>+R13*0.06</f>
-        <v>58.216529999250007</v>
+        <v>59.2380060825</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="3"/>
+        <v>205.40100000000001</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="17"/>
+        <v>251.94</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="4"/>
-        <v>223.47392944425002</v>
+        <v>235.6407011325</v>
       </c>
       <c r="X14" s="3">
         <f>+X13*0.06</f>
-        <v>174.64074669888748</v>
+        <v>177.26601622237496</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" ref="Y14:AI14" si="44">+Y13*0.06</f>
-        <v>175.23546201167065</v>
+        <f t="shared" ref="Y14:AI14" si="43">+Y13*0.06</f>
+        <v>179.53912988323125</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="44"/>
-        <v>183.15106616430876</v>
+        <f t="shared" si="43"/>
+        <v>188.56115327517097</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="44"/>
-        <v>186.39426803242898</v>
+        <f t="shared" si="43"/>
+        <v>192.34445867861402</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="44"/>
-        <v>169.26317375990195</v>
+        <f t="shared" si="43"/>
+        <v>175.38742638584424</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="44"/>
-        <v>159.17611797941288</v>
+        <f t="shared" si="43"/>
+        <v>165.47820156210329</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="44"/>
-        <v>153.95408272014768</v>
+        <f t="shared" si="43"/>
+        <v>160.45846938958624</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="44"/>
-        <v>152.1511510581017</v>
+        <f t="shared" si="43"/>
+        <v>158.88905556105621</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="44"/>
-        <v>152.7971438118492</v>
+        <f t="shared" si="43"/>
+        <v>159.80071189339279</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="44"/>
-        <v>88.257406715713117</v>
+        <f t="shared" si="43"/>
+        <v>91.634017455494572</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="44"/>
-        <v>36.939517794158121</v>
+        <f t="shared" si="43"/>
+        <v>37.414131783414184</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="44"/>
-        <v>25.318147950129738</v>
+        <f t="shared" si="43"/>
+        <v>25.18289451155642</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2545,108 +2611,116 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>+F13-F14</f>
+        <f t="shared" ref="F15:M15" si="44">+F13-F14</f>
         <v>617.21899999999994</v>
       </c>
       <c r="G15" s="4">
-        <f>+G13-G14</f>
+        <f t="shared" si="44"/>
         <v>569.38800000000003</v>
       </c>
       <c r="H15" s="4">
-        <f>+H13-H14</f>
+        <f t="shared" si="44"/>
         <v>701.58500000000004</v>
       </c>
       <c r="I15" s="4">
-        <f>+I13-I14</f>
+        <f t="shared" si="44"/>
         <v>779.24300000000005</v>
       </c>
       <c r="J15" s="4">
-        <f>+J13-J14</f>
+        <f t="shared" si="44"/>
         <v>838.62099999999998</v>
       </c>
       <c r="K15" s="4">
-        <f>+K13-K14</f>
+        <f t="shared" si="44"/>
         <v>765.51499999999999</v>
       </c>
       <c r="L15" s="4">
-        <f>+L13-L14</f>
+        <f t="shared" si="44"/>
         <v>879.63300000000004</v>
       </c>
       <c r="M15" s="4">
-        <f>+M13-M14</f>
+        <f t="shared" si="44"/>
         <v>883.54900000000009</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ref="N15:R15" si="45">+N13-N14</f>
-        <v>880.0563880000002</v>
+        <v>878.73699999999997</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="45"/>
-        <v>801.81586400000015</v>
+        <f>+O13-O14</f>
+        <v>828.08400000000006</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="45"/>
-        <v>875.85435770000004</v>
+        <v>856.89135700000008</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="45"/>
-        <v>911.36236960500003</v>
+        <v>892.6788654500001</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="45"/>
-        <v>912.05896998825006</v>
+        <v>928.06209529250009</v>
+      </c>
+      <c r="U15" s="3">
+        <f>+U13-U14</f>
+        <v>2888.837</v>
+      </c>
+      <c r="V15" s="3">
+        <f>+V13-V14</f>
+        <v>3407.4339999999997</v>
       </c>
       <c r="W15" s="3">
         <f>+W13-W14</f>
-        <v>3501.0915612932508</v>
+        <v>3505.7163177425005</v>
       </c>
       <c r="X15" s="3">
         <f>+X13-X14</f>
-        <v>2736.0383649492373</v>
+        <v>2777.1675874838743</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ref="Y15:AI15" si="46">+Y13-Y14</f>
-        <v>2745.3555715161733</v>
+        <v>2812.7797015039564</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="46"/>
-        <v>2869.3667032408375</v>
+        <v>2954.1247346443452</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" si="46"/>
-        <v>2920.1768658413876</v>
+        <v>3013.3965192982864</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" si="46"/>
-        <v>2651.789722238464</v>
+        <v>2747.7363467115597</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" si="46"/>
-        <v>2493.7591816774684</v>
+        <v>2592.491824472952</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" si="46"/>
-        <v>2411.9472959489804</v>
+        <v>2513.8493537701843</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="46"/>
-        <v>2383.7013665769268</v>
+        <v>2489.2618704565475</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" si="46"/>
-        <v>2393.8219197189705</v>
+        <v>2503.5444863298203</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" si="46"/>
-        <v>1382.6993718795054</v>
+        <v>1435.5996068027484</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="46"/>
-        <v>578.71911210847725</v>
+        <v>586.15473127348889</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="46"/>
-        <v>396.65098455203258</v>
+        <v>394.53201401438395</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,76 +2755,82 @@
         <v>274.74700000000001</v>
       </c>
       <c r="N16" s="4">
-        <f>+N13*0.25</f>
-        <v>234.05755000000005</v>
+        <v>319.76299999999998</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16:R16" si="47">+O13*0.25</f>
-        <v>213.24890000000005</v>
+        <v>260.51499999999999</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="47"/>
-        <v>232.93998875</v>
+        <f t="shared" ref="P16:R16" si="47">+P13*0.25</f>
+        <v>227.89663750000003</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="47"/>
-        <v>242.38360893750001</v>
+        <v>237.41459187500001</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="47"/>
-        <v>242.56887499687502</v>
+        <v>246.82502534375001</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="3"/>
+        <v>1105.048</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="17"/>
+        <v>1134.704</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="4"/>
-        <v>931.14137268437514</v>
+        <v>972.65125471875001</v>
       </c>
       <c r="X16" s="3">
         <f>+X13*0.25</f>
-        <v>727.66977791203124</v>
+        <v>738.60840092656235</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ref="Y16:AI16" si="48">+Y13*0.25</f>
-        <v>730.14775838196101</v>
+        <v>748.07970784679696</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="48"/>
-        <v>763.12944235128657</v>
+        <v>785.67147197987902</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="48"/>
-        <v>776.64278346845413</v>
+        <v>801.43524449422512</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="48"/>
-        <v>705.26322399959145</v>
+        <v>730.78094327435099</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="48"/>
-        <v>663.23382491422035</v>
+        <v>689.49250650876377</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="48"/>
-        <v>641.475344667282</v>
+        <v>668.57695578994264</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="48"/>
-        <v>633.96312940875714</v>
+        <v>662.03773150440088</v>
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="48"/>
-        <v>636.65476588270496</v>
+        <v>665.83629955580329</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="48"/>
-        <v>367.73919464880464</v>
+        <v>381.80840606456076</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="48"/>
-        <v>153.91465747565886</v>
+        <v>155.89221576422577</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="48"/>
-        <v>105.49228312554058</v>
+        <v>104.92872713148509</v>
       </c>
     </row>
     <row r="17" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2784,9 +2864,21 @@
       <c r="M17" s="4">
         <v>120.80200000000001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="4">
+        <v>160.10499999999999</v>
+      </c>
+      <c r="O17" s="4">
+        <v>173.91800000000001</v>
+      </c>
       <c r="P17" s="4"/>
+      <c r="U17" s="3">
+        <f t="shared" si="3"/>
+        <v>451.02600000000001</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="17"/>
+        <v>521.08500000000004</v>
+      </c>
     </row>
     <row r="18" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -2829,75 +2921,83 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" ref="N18" si="50">+N16+N17</f>
-        <v>234.05755000000005</v>
+        <v>479.86799999999994</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" ref="O18" si="51">+O16+O17</f>
-        <v>213.24890000000005</v>
+        <v>434.43299999999999</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" ref="P18" si="52">+P16+P17</f>
-        <v>232.93998875</v>
+        <v>227.89663750000003</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" ref="Q18" si="53">+Q16+Q17</f>
-        <v>242.38360893750001</v>
+        <v>237.41459187500001</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ref="R18" si="54">+R16+R17</f>
-        <v>242.56887499687502</v>
+        <v>246.82502534375001</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" ref="U18:V18" si="55">+U16+U17</f>
+        <v>1556.0740000000001</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" ref="V18:W18" si="56">+V16+V17</f>
+        <v>1655.789</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" ref="W18" si="55">+W16+W17</f>
-        <v>931.14137268437514</v>
+        <f t="shared" si="56"/>
+        <v>972.65125471875001</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" ref="X18" si="56">+X16+X17</f>
-        <v>727.66977791203124</v>
+        <f t="shared" ref="X18" si="57">+X16+X17</f>
+        <v>738.60840092656235</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="57">+Y16+Y17</f>
-        <v>730.14775838196101</v>
+        <f t="shared" ref="Y18" si="58">+Y16+Y17</f>
+        <v>748.07970784679696</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" ref="Z18" si="58">+Z16+Z17</f>
-        <v>763.12944235128657</v>
+        <f t="shared" ref="Z18" si="59">+Z16+Z17</f>
+        <v>785.67147197987902</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18" si="59">+AA16+AA17</f>
-        <v>776.64278346845413</v>
+        <f t="shared" ref="AA18" si="60">+AA16+AA17</f>
+        <v>801.43524449422512</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18" si="60">+AB16+AB17</f>
-        <v>705.26322399959145</v>
+        <f t="shared" ref="AB18" si="61">+AB16+AB17</f>
+        <v>730.78094327435099</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" ref="AC18" si="61">+AC16+AC17</f>
-        <v>663.23382491422035</v>
+        <f t="shared" ref="AC18" si="62">+AC16+AC17</f>
+        <v>689.49250650876377</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" ref="AD18" si="62">+AD16+AD17</f>
-        <v>641.475344667282</v>
+        <f t="shared" ref="AD18" si="63">+AD16+AD17</f>
+        <v>668.57695578994264</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18" si="63">+AE16+AE17</f>
-        <v>633.96312940875714</v>
+        <f t="shared" ref="AE18" si="64">+AE16+AE17</f>
+        <v>662.03773150440088</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" ref="AF18" si="64">+AF16+AF17</f>
-        <v>636.65476588270496</v>
+        <f t="shared" ref="AF18" si="65">+AF16+AF17</f>
+        <v>665.83629955580329</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" ref="AG18" si="65">+AG16+AG17</f>
-        <v>367.73919464880464</v>
+        <f t="shared" ref="AG18" si="66">+AG16+AG17</f>
+        <v>381.80840606456076</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" ref="AH18" si="66">+AH16+AH17</f>
-        <v>153.91465747565886</v>
+        <f t="shared" ref="AH18" si="67">+AH16+AH17</f>
+        <v>155.89221576422577</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" ref="AI18" si="67">+AI16+AI17</f>
-        <v>105.49228312554058</v>
+        <f t="shared" ref="AI18" si="68">+AI16+AI17</f>
+        <v>104.92872713148509</v>
       </c>
     </row>
     <row r="19" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2924,92 +3024,100 @@
         <v>376.221</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" ref="J19:M19" si="68">+J15-J18</f>
+        <f t="shared" ref="J19:M19" si="69">+J15-J18</f>
         <v>369.86399999999998</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>390.35499999999996</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>474.42100000000005</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>488.00000000000006</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" ref="N19" si="69">+N15-N18</f>
-        <v>645.99883800000021</v>
+        <f t="shared" ref="N19" si="70">+N15-N18</f>
+        <v>398.86900000000003</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" ref="O19" si="70">+O15-O18</f>
-        <v>588.5669640000001</v>
+        <f t="shared" ref="O19" si="71">+O15-O18</f>
+        <v>393.65100000000007</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19" si="71">+P15-P18</f>
-        <v>642.91436895000004</v>
+        <f t="shared" ref="P19" si="72">+P15-P18</f>
+        <v>628.99471950000009</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" ref="Q19" si="72">+Q15-Q18</f>
-        <v>668.97876066749996</v>
+        <f t="shared" ref="Q19" si="73">+Q15-Q18</f>
+        <v>655.26427357500006</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" ref="R19" si="73">+R15-R18</f>
-        <v>669.49009499137503</v>
+        <f t="shared" ref="R19" si="74">+R15-R18</f>
+        <v>681.2370699487501</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19:V19" si="75">+U15-U18</f>
+        <v>1332.7629999999999</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19:W19" si="76">+V15-V18</f>
+        <v>1751.6449999999998</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" ref="W19" si="74">+W15-W18</f>
-        <v>2569.9501886088756</v>
+        <f t="shared" si="76"/>
+        <v>2533.0650630237506</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" ref="X19" si="75">+X15-X18</f>
-        <v>2008.368587037206</v>
+        <f t="shared" ref="X19" si="77">+X15-X18</f>
+        <v>2038.5591865573119</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" ref="Y19" si="76">+Y15-Y18</f>
-        <v>2015.2078131342123</v>
+        <f t="shared" ref="Y19" si="78">+Y15-Y18</f>
+        <v>2064.6999936571592</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="77">+Z15-Z18</f>
-        <v>2106.2372608895512</v>
+        <f t="shared" ref="Z19" si="79">+Z15-Z18</f>
+        <v>2168.4532626644659</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" ref="AA19" si="78">+AA15-AA18</f>
-        <v>2143.5340823729334</v>
+        <f t="shared" ref="AA19" si="80">+AA15-AA18</f>
+        <v>2211.9612748040613</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" ref="AB19" si="79">+AB15-AB18</f>
-        <v>1946.5264982388726</v>
+        <f t="shared" ref="AB19" si="81">+AB15-AB18</f>
+        <v>2016.9554034372086</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" ref="AC19" si="80">+AC15-AC18</f>
-        <v>1830.5253567632481</v>
+        <f t="shared" ref="AC19" si="82">+AC15-AC18</f>
+        <v>1902.9993179641883</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" ref="AD19" si="81">+AD15-AD18</f>
-        <v>1770.4719512816982</v>
+        <f t="shared" ref="AD19" si="83">+AD15-AD18</f>
+        <v>1845.2723979802417</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" ref="AE19" si="82">+AE15-AE18</f>
-        <v>1749.7382371681697</v>
+        <f t="shared" ref="AE19" si="84">+AE15-AE18</f>
+        <v>1827.2241389521466</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" ref="AF19" si="83">+AF15-AF18</f>
-        <v>1757.1671538362657</v>
+        <f t="shared" ref="AF19" si="85">+AF15-AF18</f>
+        <v>1837.7081867740171</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" ref="AG19" si="84">+AG15-AG18</f>
-        <v>1014.9601772307008</v>
+        <f t="shared" ref="AG19" si="86">+AG15-AG18</f>
+        <v>1053.7912007381876</v>
       </c>
       <c r="AH19" s="4">
-        <f t="shared" ref="AH19" si="85">+AH15-AH18</f>
-        <v>424.80445463281842</v>
+        <f t="shared" ref="AH19" si="87">+AH15-AH18</f>
+        <v>430.26251550926315</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" ref="AI19" si="86">+AI15-AI18</f>
-        <v>291.15870142649203</v>
+        <f t="shared" ref="AI19" si="88">+AI15-AI18</f>
+        <v>289.60328688289883</v>
       </c>
     </row>
     <row r="20" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3044,76 +3152,82 @@
         <v>-65.981999999999999</v>
       </c>
       <c r="N20" s="4">
-        <f>+M20</f>
-        <v>-65.981999999999999</v>
+        <v>-74.125</v>
       </c>
       <c r="O20" s="4">
-        <f>+N20</f>
-        <v>-65.981999999999999</v>
+        <v>-74.147000000000006</v>
       </c>
       <c r="P20" s="4">
         <f>+O20</f>
-        <v>-65.981999999999999</v>
+        <v>-74.147000000000006</v>
       </c>
       <c r="Q20" s="3">
         <f>+P20</f>
-        <v>-65.981999999999999</v>
+        <v>-74.147000000000006</v>
       </c>
       <c r="R20" s="3">
         <f>+Q20</f>
-        <v>-65.981999999999999</v>
+        <v>-74.147000000000006</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" ref="U20:U22" si="89">SUM(G20:J20)</f>
+        <v>-186.11099999999999</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ref="V20:V22" si="90">SUM(K20:N20)</f>
+        <v>-256.24</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" ref="W20:W22" si="87">SUM(O20:R20)</f>
-        <v>-263.928</v>
+        <f t="shared" ref="W20:W22" si="91">SUM(O20:R20)</f>
+        <v>-296.58800000000002</v>
       </c>
       <c r="X20" s="3">
-        <f>+W27*0.05</f>
-        <v>-118.7433413691228</v>
+        <f>+W33*0.05</f>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" ref="Y20" si="88">+X27*0.05</f>
-        <v>-33.71020531405906</v>
+        <f>+X33*0.05</f>
+        <v>91.735163395079041</v>
       </c>
       <c r="Z20" s="3">
-        <f>+Y27*$AL$26</f>
-        <v>22.182874815139137</v>
+        <f>+Y33*$AL$26</f>
+        <v>75.509898184971902</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ref="AA20:AI20" si="89">+Z27*$AL$26</f>
-        <v>60.494437257823556</v>
+        <f>+Z33*$AL$26</f>
+        <v>115.90123508026178</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="89"/>
-        <v>100.16695061117719</v>
+        <f>+AA33*$AL$26</f>
+        <v>157.8027602581796</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="89"/>
-        <v>137.00743269047808</v>
+        <f>+AB33*$AL$26</f>
+        <v>196.94840720469657</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="89"/>
-        <v>172.42302290064515</v>
+        <f>+AC33*$AL$26</f>
+        <v>234.74746625773651</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="89"/>
-        <v>207.39513243592734</v>
+        <f>+AD33*$AL$26</f>
+        <v>272.18782381402008</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="89"/>
-        <v>242.62353308880108</v>
+        <f>+AE33*$AL$26</f>
+        <v>309.97723914381112</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="89"/>
-        <v>278.61976545345226</v>
+        <f>+AF33*$AL$26</f>
+        <v>348.635576810332</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="89"/>
-        <v>301.90420442176702</v>
+        <f>+AG33*$AL$26</f>
+        <v>373.87925880620531</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="89"/>
-        <v>314.9849602847496</v>
+        <f>+AH33*$AL$26</f>
+        <v>388.35381074388374</v>
       </c>
     </row>
     <row r="21" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3124,31 +3238,31 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f t="shared" ref="F21:L21" si="90">+F19+F20</f>
+        <f t="shared" ref="F21:L21" si="92">+F19+F20</f>
         <v>296.34599999999995</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>261.37</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>266.52199999999999</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>310.89400000000001</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>307.86599999999999</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>331.83899999999994</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>416.80400000000003</v>
       </c>
       <c r="M21" s="4">
@@ -3156,76 +3270,84 @@
         <v>422.01800000000003</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:R21" si="91">+N19+N20</f>
-        <v>580.01683800000023</v>
+        <f t="shared" ref="N21:R21" si="93">+N19+N20</f>
+        <v>324.74400000000003</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="91"/>
-        <v>522.58496400000013</v>
+        <f t="shared" si="93"/>
+        <v>319.50400000000008</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="91"/>
-        <v>576.93236895000007</v>
+        <f t="shared" si="93"/>
+        <v>554.84771950000004</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="91"/>
-        <v>602.99676066749998</v>
+        <f t="shared" si="93"/>
+        <v>581.11727357500001</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="91"/>
-        <v>603.50809499137506</v>
+        <f t="shared" si="93"/>
+        <v>607.09006994875006</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" ref="U21:W21" si="94">+U19+U20</f>
+        <v>1146.652</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="94"/>
+        <v>1495.4049999999997</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" ref="W21" si="92">+W19+W20</f>
-        <v>2306.0221886088757</v>
+        <f t="shared" si="94"/>
+        <v>2236.4770630237504</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" ref="X21" si="93">+X19+X20</f>
-        <v>1889.6252456680832</v>
+        <f t="shared" ref="X21" si="95">+X19+X20</f>
+        <v>2038.5591865573119</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" ref="Y21" si="94">+Y19+Y20</f>
-        <v>1981.4976078201532</v>
+        <f t="shared" ref="Y21" si="96">+Y19+Y20</f>
+        <v>2156.4351570522381</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" ref="Z21" si="95">+Z19+Z20</f>
-        <v>2128.4201357046904</v>
+        <f t="shared" ref="Z21" si="97">+Z19+Z20</f>
+        <v>2243.9631608494378</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" ref="AA21" si="96">+AA19+AA20</f>
-        <v>2204.0285196307568</v>
+        <f t="shared" ref="AA21" si="98">+AA19+AA20</f>
+        <v>2327.8625098843231</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" ref="AB21" si="97">+AB19+AB20</f>
-        <v>2046.6934488500497</v>
+        <f t="shared" ref="AB21" si="99">+AB19+AB20</f>
+        <v>2174.7581636953882</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" ref="AC21" si="98">+AC19+AC20</f>
-        <v>1967.5327894537261</v>
+        <f t="shared" ref="AC21" si="100">+AC19+AC20</f>
+        <v>2099.947725168885</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" ref="AD21" si="99">+AD19+AD20</f>
-        <v>1942.8949741823435</v>
+        <f t="shared" ref="AD21" si="101">+AD19+AD20</f>
+        <v>2080.0198642379783</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" ref="AE21" si="100">+AE19+AE20</f>
-        <v>1957.133369604097</v>
+        <f t="shared" ref="AE21" si="102">+AE19+AE20</f>
+        <v>2099.4119627661667</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" ref="AF21" si="101">+AF19+AF20</f>
-        <v>1999.7906869250669</v>
+        <f t="shared" ref="AF21" si="103">+AF19+AF20</f>
+        <v>2147.6854259178281</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21" si="102">+AG19+AG20</f>
-        <v>1293.5799426841531</v>
+        <f t="shared" ref="AG21" si="104">+AG19+AG20</f>
+        <v>1402.4267775485196</v>
       </c>
       <c r="AH21" s="4">
-        <f t="shared" ref="AH21" si="103">+AH19+AH20</f>
-        <v>726.7086590545855</v>
+        <f t="shared" ref="AH21" si="105">+AH19+AH20</f>
+        <v>804.14177431546841</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" ref="AI21" si="104">+AI19+AI20</f>
-        <v>606.14366171124163</v>
+        <f t="shared" ref="AI21" si="106">+AI19+AI20</f>
+        <v>677.95709762678257</v>
       </c>
     </row>
     <row r="22" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3260,76 +3382,82 @@
         <v>44.386000000000003</v>
       </c>
       <c r="N22" s="4">
-        <f>+N21*0.15</f>
-        <v>87.002525700000035</v>
+        <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:R22" si="105">+O21*0.15</f>
-        <v>78.387744600000019</v>
+        <v>40.197000000000003</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="105"/>
-        <v>86.539855342500005</v>
+        <f t="shared" ref="P22:R22" si="107">+P21*0.15</f>
+        <v>83.227157925</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="105"/>
-        <v>90.449514100125</v>
+        <f t="shared" si="107"/>
+        <v>87.167591036250002</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="105"/>
-        <v>90.526214248706253</v>
+        <f t="shared" si="107"/>
+        <v>91.063510492312503</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="89"/>
+        <v>148.76399999999998</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="90"/>
+        <v>137.99600000000001</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="87"/>
-        <v>345.90332829133126</v>
+        <f t="shared" si="91"/>
+        <v>301.65525945356251</v>
       </c>
       <c r="X22" s="3">
         <f>+X21*0.1</f>
-        <v>188.96252456680833</v>
+        <v>203.85591865573122</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" ref="Y22:AI22" si="106">+Y21*0.1</f>
-        <v>198.14976078201533</v>
+        <f t="shared" ref="Y22:AI22" si="108">+Y21*0.1</f>
+        <v>215.64351570522382</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="106"/>
-        <v>212.84201357046905</v>
+        <f t="shared" si="108"/>
+        <v>224.39631608494381</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="106"/>
-        <v>220.4028519630757</v>
+        <f t="shared" si="108"/>
+        <v>232.78625098843233</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="106"/>
-        <v>204.66934488500499</v>
+        <f t="shared" si="108"/>
+        <v>217.47581636953885</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="106"/>
-        <v>196.75327894537261</v>
+        <f t="shared" si="108"/>
+        <v>209.9947725168885</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="106"/>
-        <v>194.28949741823436</v>
+        <f t="shared" si="108"/>
+        <v>208.00198642379783</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="106"/>
-        <v>195.71333696040972</v>
+        <f t="shared" si="108"/>
+        <v>209.94119627661667</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="106"/>
-        <v>199.9790686925067</v>
+        <f t="shared" si="108"/>
+        <v>214.76854259178282</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="106"/>
-        <v>129.35799426841533</v>
+        <f t="shared" si="108"/>
+        <v>140.24267775485197</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="106"/>
-        <v>72.670865905458555</v>
+        <f t="shared" si="108"/>
+        <v>80.414177431546847</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="106"/>
-        <v>60.614366171124168</v>
+        <f t="shared" si="108"/>
+        <v>67.795709762678257</v>
       </c>
     </row>
     <row r="23" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3340,31 +3468,31 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:L23" si="107">+F21-F22</f>
+        <f t="shared" ref="F23:L23" si="109">+F21-F22</f>
         <v>266.37799999999993</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>223.71100000000001</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>236.26</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>267.30500000000001</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>270.61199999999997</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>276.61599999999993</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>378.41700000000003</v>
       </c>
       <c r="M23" s="4">
@@ -3373,327 +3501,335 @@
       </c>
       <c r="N23" s="4">
         <f>+N21-N22</f>
-        <v>493.0143123000002</v>
+        <v>324.74400000000003</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23:R23" si="108">+O21-O22</f>
-        <v>444.19721940000011</v>
+        <f t="shared" ref="O23:R23" si="110">+O21-O22</f>
+        <v>279.30700000000007</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="108"/>
-        <v>490.39251360750006</v>
+        <f t="shared" si="110"/>
+        <v>471.62056157500001</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="108"/>
-        <v>512.54724656737494</v>
+        <f t="shared" si="110"/>
+        <v>493.94968253875004</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="108"/>
-        <v>512.98188074266886</v>
+        <f t="shared" si="110"/>
+        <v>516.02655945643755</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:X23" si="111">+U21-U22</f>
+        <v>997.88800000000003</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="111"/>
+        <v>1357.4089999999997</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" ref="W23:X23" si="109">+W21-W22</f>
-        <v>1960.1188603175444</v>
+        <f t="shared" si="111"/>
+        <v>1934.821803570188</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="109"/>
-        <v>1700.6627211012749</v>
+        <f t="shared" si="111"/>
+        <v>1834.7032679015806</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" ref="Y23" si="110">+Y21-Y22</f>
-        <v>1783.3478470381378</v>
+        <f t="shared" ref="Y23" si="112">+Y21-Y22</f>
+        <v>1940.7916413470143</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" ref="Z23" si="111">+Z21-Z22</f>
-        <v>1915.5781221342213</v>
+        <f t="shared" ref="Z23" si="113">+Z21-Z22</f>
+        <v>2019.5668447644939</v>
       </c>
       <c r="AA23" s="4">
-        <f t="shared" ref="AA23" si="112">+AA21-AA22</f>
-        <v>1983.6256676676812</v>
+        <f t="shared" ref="AA23" si="114">+AA21-AA22</f>
+        <v>2095.076258895891</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" ref="AB23" si="113">+AB21-AB22</f>
-        <v>1842.0241039650446</v>
+        <f t="shared" ref="AB23" si="115">+AB21-AB22</f>
+        <v>1957.2823473258495</v>
       </c>
       <c r="AC23" s="4">
-        <f t="shared" ref="AC23" si="114">+AC21-AC22</f>
-        <v>1770.7795105083535</v>
+        <f t="shared" ref="AC23" si="116">+AC21-AC22</f>
+        <v>1889.9529526519964</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" ref="AD23" si="115">+AD21-AD22</f>
-        <v>1748.6054767641092</v>
+        <f t="shared" ref="AD23" si="117">+AD21-AD22</f>
+        <v>1872.0178778141803</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" ref="AE23" si="116">+AE21-AE22</f>
-        <v>1761.4200326436871</v>
+        <f t="shared" ref="AE23" si="118">+AE21-AE22</f>
+        <v>1889.47076648955</v>
       </c>
       <c r="AF23" s="4">
-        <f t="shared" ref="AF23" si="117">+AF21-AF22</f>
-        <v>1799.8116182325602</v>
+        <f t="shared" ref="AF23" si="119">+AF21-AF22</f>
+        <v>1932.9168833260453</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" ref="AG23" si="118">+AG21-AG22</f>
-        <v>1164.2219484157379</v>
+        <f t="shared" ref="AG23" si="120">+AG21-AG22</f>
+        <v>1262.1840997936677</v>
       </c>
       <c r="AH23" s="4">
-        <f t="shared" ref="AH23" si="119">+AH21-AH22</f>
-        <v>654.03779314912697</v>
+        <f t="shared" ref="AH23" si="121">+AH21-AH22</f>
+        <v>723.72759688392159</v>
       </c>
       <c r="AI23" s="4">
-        <f t="shared" ref="AI23" si="120">+AI21-AI22</f>
-        <v>545.52929554011746</v>
+        <f t="shared" ref="AI23" si="122">+AI21-AI22</f>
+        <v>610.16138786410431</v>
       </c>
       <c r="AJ23" s="3">
         <f>+AI23*(1+$AL$25)</f>
-        <v>518.25283076311155</v>
+        <v>579.65331847089908</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" ref="AK23:CT23" si="121">+AJ23*(1+$AL$25)</f>
-        <v>492.34018922495596</v>
+        <f t="shared" ref="AK23:CT23" si="123">+AJ23*(1+$AL$25)</f>
+        <v>550.67065254735405</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" si="121"/>
-        <v>467.72317976370812</v>
+        <f t="shared" si="123"/>
+        <v>523.13711991998628</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" si="121"/>
-        <v>444.33702077552272</v>
+        <f t="shared" si="123"/>
+        <v>496.98026392398691</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="121"/>
-        <v>422.12016973674656</v>
+        <f t="shared" si="123"/>
+        <v>472.13125072778752</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="121"/>
-        <v>401.01416124990919</v>
+        <f t="shared" si="123"/>
+        <v>448.52468819139813</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" si="121"/>
-        <v>380.96345318741373</v>
+        <f t="shared" si="123"/>
+        <v>426.0984537818282</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="121"/>
-        <v>361.91528052804301</v>
+        <f t="shared" si="123"/>
+        <v>404.79353109273677</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="121"/>
-        <v>343.81951650164086</v>
+        <f t="shared" si="123"/>
+        <v>384.55385453809993</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="121"/>
-        <v>326.62854067655883</v>
+        <f t="shared" si="123"/>
+        <v>365.32616181119494</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="121"/>
-        <v>310.29711364273089</v>
+        <f t="shared" si="123"/>
+        <v>347.05985372063515</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="121"/>
-        <v>294.78225796059434</v>
+        <f t="shared" si="123"/>
+        <v>329.70686103460338</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="121"/>
-        <v>280.04314506256463</v>
+        <f t="shared" si="123"/>
+        <v>313.22151798287319</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="121"/>
-        <v>266.04098780943639</v>
+        <f t="shared" si="123"/>
+        <v>297.56044208372953</v>
       </c>
       <c r="AX23" s="3">
-        <f t="shared" si="121"/>
-        <v>252.73893841896455</v>
+        <f t="shared" si="123"/>
+        <v>282.68241997954306</v>
       </c>
       <c r="AY23" s="3">
-        <f t="shared" si="121"/>
-        <v>240.1019914980163</v>
+        <f t="shared" si="123"/>
+        <v>268.5482989805659</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="121"/>
-        <v>228.09689192311546</v>
+        <f t="shared" si="123"/>
+        <v>255.1208840315376</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="121"/>
-        <v>216.69204732695968</v>
+        <f t="shared" si="123"/>
+        <v>242.36483982996072</v>
       </c>
       <c r="BB23" s="3">
-        <f t="shared" si="121"/>
-        <v>205.8574449606117</v>
+        <f t="shared" si="123"/>
+        <v>230.24659783846266</v>
       </c>
       <c r="BC23" s="3">
-        <f t="shared" si="121"/>
-        <v>195.56457271258111</v>
+        <f t="shared" si="123"/>
+        <v>218.73426794653952</v>
       </c>
       <c r="BD23" s="3">
-        <f t="shared" si="121"/>
-        <v>185.78634407695205</v>
+        <f t="shared" si="123"/>
+        <v>207.79755454921252</v>
       </c>
       <c r="BE23" s="3">
-        <f t="shared" si="121"/>
-        <v>176.49702687310443</v>
+        <f t="shared" si="123"/>
+        <v>197.40767682175189</v>
       </c>
       <c r="BF23" s="3">
-        <f t="shared" si="121"/>
-        <v>167.67217552944919</v>
+        <f t="shared" si="123"/>
+        <v>187.53729298066429</v>
       </c>
       <c r="BG23" s="3">
-        <f t="shared" si="121"/>
-        <v>159.28856675297672</v>
+        <f t="shared" si="123"/>
+        <v>178.16042833163107</v>
       </c>
       <c r="BH23" s="3">
-        <f t="shared" si="121"/>
-        <v>151.32413841532787</v>
+        <f t="shared" si="123"/>
+        <v>169.25240691504951</v>
       </c>
       <c r="BI23" s="3">
-        <f t="shared" si="121"/>
-        <v>143.75793149456146</v>
+        <f t="shared" si="123"/>
+        <v>160.78978656929704</v>
       </c>
       <c r="BJ23" s="3">
-        <f t="shared" si="121"/>
-        <v>136.57003491983338</v>
+        <f t="shared" si="123"/>
+        <v>152.75029724083217</v>
       </c>
       <c r="BK23" s="3">
-        <f t="shared" si="121"/>
-        <v>129.7415331738417</v>
+        <f t="shared" si="123"/>
+        <v>145.11278237879054</v>
       </c>
       <c r="BL23" s="3">
-        <f t="shared" si="121"/>
-        <v>123.25445651514961</v>
+        <f t="shared" si="123"/>
+        <v>137.857143259851</v>
       </c>
       <c r="BM23" s="3">
-        <f t="shared" si="121"/>
-        <v>117.09173368939213</v>
+        <f t="shared" si="123"/>
+        <v>130.96428609685844</v>
       </c>
       <c r="BN23" s="3">
-        <f t="shared" si="121"/>
-        <v>111.23714700492252</v>
+        <f t="shared" si="123"/>
+        <v>124.41607179201552</v>
       </c>
       <c r="BO23" s="3">
-        <f t="shared" si="121"/>
-        <v>105.67528965467639</v>
+        <f t="shared" si="123"/>
+        <v>118.19526820241474</v>
       </c>
       <c r="BP23" s="3">
-        <f t="shared" si="121"/>
-        <v>100.39152517194256</v>
+        <f t="shared" si="123"/>
+        <v>112.28550479229399</v>
       </c>
       <c r="BQ23" s="3">
-        <f t="shared" si="121"/>
-        <v>95.371948913345435</v>
+        <f t="shared" si="123"/>
+        <v>106.67122955267929</v>
       </c>
       <c r="BR23" s="3">
-        <f t="shared" si="121"/>
-        <v>90.603351467678152</v>
+        <f t="shared" si="123"/>
+        <v>101.33766807504533</v>
       </c>
       <c r="BS23" s="3">
-        <f t="shared" si="121"/>
-        <v>86.073183894294246</v>
+        <f t="shared" si="123"/>
+        <v>96.270784671293057</v>
       </c>
       <c r="BT23" s="3">
-        <f t="shared" si="121"/>
-        <v>81.769524699579534</v>
+        <f t="shared" si="123"/>
+        <v>91.457245437728403</v>
       </c>
       <c r="BU23" s="3">
-        <f t="shared" si="121"/>
-        <v>77.681048464600551</v>
+        <f t="shared" si="123"/>
+        <v>86.884383165841982</v>
       </c>
       <c r="BV23" s="3">
-        <f t="shared" si="121"/>
-        <v>73.796996041370519</v>
+        <f t="shared" si="123"/>
+        <v>82.540164007549876</v>
       </c>
       <c r="BW23" s="3">
-        <f t="shared" si="121"/>
-        <v>70.107146239301997</v>
+        <f t="shared" si="123"/>
+        <v>78.413155807172373</v>
       </c>
       <c r="BX23" s="3">
-        <f t="shared" si="121"/>
-        <v>66.601788927336898</v>
+        <f t="shared" si="123"/>
+        <v>74.492498016813755</v>
       </c>
       <c r="BY23" s="3">
-        <f t="shared" si="121"/>
-        <v>63.271699480970049</v>
+        <f t="shared" si="123"/>
+        <v>70.76787311597306</v>
       </c>
       <c r="BZ23" s="3">
-        <f t="shared" si="121"/>
-        <v>60.108114506921545</v>
+        <f t="shared" si="123"/>
+        <v>67.229479460174403</v>
       </c>
       <c r="CA23" s="3">
-        <f t="shared" si="121"/>
-        <v>57.102708781575465</v>
+        <f t="shared" si="123"/>
+        <v>63.868005487165682</v>
       </c>
       <c r="CB23" s="3">
-        <f t="shared" si="121"/>
-        <v>54.247573342496686</v>
+        <f t="shared" si="123"/>
+        <v>60.674605212807393</v>
       </c>
       <c r="CC23" s="3">
-        <f t="shared" si="121"/>
-        <v>51.535194675371848</v>
+        <f t="shared" si="123"/>
+        <v>57.640874952167017</v>
       </c>
       <c r="CD23" s="3">
-        <f t="shared" si="121"/>
-        <v>48.958434941603251</v>
+        <f t="shared" si="123"/>
+        <v>54.75883120455866</v>
       </c>
       <c r="CE23" s="3">
-        <f t="shared" si="121"/>
-        <v>46.510513194523085</v>
+        <f t="shared" si="123"/>
+        <v>52.020889644330722</v>
       </c>
       <c r="CF23" s="3">
-        <f t="shared" si="121"/>
-        <v>44.184987534796932</v>
+        <f t="shared" si="123"/>
+        <v>49.419845162114186</v>
       </c>
       <c r="CG23" s="3">
-        <f t="shared" si="121"/>
-        <v>41.975738158057084</v>
+        <f t="shared" si="123"/>
+        <v>46.948852904008476</v>
       </c>
       <c r="CH23" s="3">
-        <f t="shared" si="121"/>
-        <v>39.876951250154228</v>
+        <f t="shared" si="123"/>
+        <v>44.601410258808052</v>
       </c>
       <c r="CI23" s="3">
-        <f t="shared" si="121"/>
-        <v>37.883103687646518</v>
+        <f t="shared" si="123"/>
+        <v>42.371339745867644</v>
       </c>
       <c r="CJ23" s="3">
-        <f t="shared" si="121"/>
-        <v>35.98894850326419</v>
+        <f t="shared" si="123"/>
+        <v>40.25277275857426</v>
       </c>
       <c r="CK23" s="3">
-        <f t="shared" si="121"/>
-        <v>34.189501078100982</v>
+        <f t="shared" si="123"/>
+        <v>38.240134120645543</v>
       </c>
       <c r="CL23" s="3">
-        <f t="shared" si="121"/>
-        <v>32.480026024195929</v>
+        <f t="shared" si="123"/>
+        <v>36.328127414613263</v>
       </c>
       <c r="CM23" s="3">
-        <f t="shared" si="121"/>
-        <v>30.856024722986131</v>
+        <f t="shared" si="123"/>
+        <v>34.511721043882595</v>
       </c>
       <c r="CN23" s="3">
-        <f t="shared" si="121"/>
-        <v>29.313223486836822</v>
+        <f t="shared" si="123"/>
+        <v>32.786134991688463</v>
       </c>
       <c r="CO23" s="3">
-        <f t="shared" si="121"/>
-        <v>27.847562312494979</v>
+        <f t="shared" si="123"/>
+        <v>31.146828242104039</v>
       </c>
       <c r="CP23" s="3">
-        <f t="shared" si="121"/>
-        <v>26.455184196870228</v>
+        <f t="shared" si="123"/>
+        <v>29.589486829998837</v>
       </c>
       <c r="CQ23" s="3">
-        <f t="shared" si="121"/>
-        <v>25.132424987026717</v>
+        <f t="shared" si="123"/>
+        <v>28.110012488498892</v>
       </c>
       <c r="CR23" s="3">
-        <f t="shared" si="121"/>
-        <v>23.87580373767538</v>
+        <f t="shared" si="123"/>
+        <v>26.704511864073947</v>
       </c>
       <c r="CS23" s="3">
-        <f t="shared" si="121"/>
-        <v>22.682013550791609</v>
+        <f t="shared" si="123"/>
+        <v>25.369286270870248</v>
       </c>
       <c r="CT23" s="3">
-        <f t="shared" si="121"/>
-        <v>21.547912873252027</v>
+        <f t="shared" si="123"/>
+        <v>24.100821957326733</v>
       </c>
     </row>
     <row r="24" spans="2:98" x14ac:dyDescent="0.2">
@@ -3701,108 +3837,116 @@
         <v>40</v>
       </c>
       <c r="F24" s="9">
-        <f>+F23/F25</f>
+        <f t="shared" ref="F24:M24" si="124">+F23/F25</f>
         <v>4.6590758036869895</v>
       </c>
       <c r="G24" s="9">
-        <f>+G23/G25</f>
+        <f t="shared" si="124"/>
         <v>3.8311270186494957</v>
       </c>
       <c r="H24" s="9">
-        <f>+H23/H25</f>
+        <f t="shared" si="124"/>
         <v>3.9742295787915487</v>
       </c>
       <c r="I24" s="9">
-        <f>+I23/I25</f>
+        <f t="shared" si="124"/>
         <v>4.3617420533907714</v>
       </c>
       <c r="J24" s="9">
-        <f>+J23/J25</f>
+        <f t="shared" si="124"/>
         <v>4.3999804887566452</v>
       </c>
       <c r="K24" s="9">
-        <f>+K23/K25</f>
+        <f t="shared" si="124"/>
         <v>4.3972212949274319</v>
       </c>
       <c r="L24" s="9">
-        <f>+L23/L25</f>
+        <f t="shared" si="124"/>
         <v>5.9658053633081627</v>
       </c>
       <c r="M24" s="9">
-        <f>+M23/M25</f>
+        <f t="shared" si="124"/>
         <v>6.0146850362347699</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" ref="N24:R24" si="122">+N23/N25</f>
-        <v>7.8524219526957113</v>
+        <f t="shared" ref="N24:R24" si="125">+N23/N25</f>
+        <v>5.1504155300386989</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="122"/>
-        <v>7.0748939937883275</v>
+        <f t="shared" si="125"/>
+        <v>4.3989510819920001</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="122"/>
-        <v>7.8106635917416591</v>
+        <f t="shared" si="125"/>
+        <v>7.4277972969886923</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="122"/>
-        <v>8.163530247150991</v>
+        <f t="shared" si="125"/>
+        <v>7.7794702261434159</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="122"/>
-        <v>8.170452826991621</v>
-      </c>
-      <c r="W24" s="21">
+        <f t="shared" si="125"/>
+        <v>8.1271704327406926</v>
+      </c>
+      <c r="U24" s="20">
+        <f>+U23/U25</f>
+        <v>16.588061239755973</v>
+      </c>
+      <c r="V24" s="20">
+        <f>+V23/V25</f>
+        <v>21.531222365420835</v>
+      </c>
+      <c r="W24" s="20">
         <f>+W23/W25</f>
-        <v>31.219540659672607</v>
-      </c>
-      <c r="X24" s="21">
-        <f t="shared" ref="X24:AI24" si="123">+X23/X25</f>
-        <v>27.087086423529108</v>
-      </c>
-      <c r="Y24" s="21">
-        <f t="shared" si="123"/>
-        <v>28.40404311600124</v>
-      </c>
-      <c r="Z24" s="21">
-        <f t="shared" si="123"/>
-        <v>30.510123789666661</v>
-      </c>
-      <c r="AA24" s="21">
-        <f t="shared" si="123"/>
-        <v>31.593942305768596</v>
-      </c>
-      <c r="AB24" s="21">
-        <f t="shared" si="123"/>
-        <v>29.338601639962487</v>
-      </c>
-      <c r="AC24" s="21">
-        <f t="shared" si="123"/>
-        <v>28.20386255488339</v>
-      </c>
-      <c r="AD24" s="21">
-        <f t="shared" si="123"/>
-        <v>27.8506884887172</v>
-      </c>
-      <c r="AE24" s="21">
-        <f t="shared" si="123"/>
-        <v>28.054790676812729</v>
-      </c>
-      <c r="AF24" s="21">
-        <f t="shared" si="123"/>
-        <v>28.666267710958994</v>
-      </c>
-      <c r="AG24" s="21">
-        <f t="shared" si="123"/>
-        <v>18.542995116918657</v>
-      </c>
-      <c r="AH24" s="21">
-        <f t="shared" si="123"/>
-        <v>10.417102702064618</v>
-      </c>
-      <c r="AI24" s="21">
-        <f t="shared" si="123"/>
-        <v>8.6888475836603885</v>
+        <v>30.472513994553626</v>
+      </c>
+      <c r="X24" s="20">
+        <f t="shared" ref="X24:AI24" si="126">+X23/X25</f>
+        <v>28.895695150747798</v>
+      </c>
+      <c r="Y24" s="20">
+        <f t="shared" si="126"/>
+        <v>30.566536071865283</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="126"/>
+        <v>31.807207685206379</v>
+      </c>
+      <c r="AA24" s="20">
+        <f t="shared" si="126"/>
+        <v>32.996444686047361</v>
+      </c>
+      <c r="AB24" s="20">
+        <f t="shared" si="126"/>
+        <v>30.82625676955066</v>
+      </c>
+      <c r="AC24" s="20">
+        <f t="shared" si="126"/>
+        <v>29.765851145808995</v>
+      </c>
+      <c r="AD24" s="20">
+        <f t="shared" si="126"/>
+        <v>29.483382332412202</v>
+      </c>
+      <c r="AE24" s="20">
+        <f t="shared" si="126"/>
+        <v>29.758256945373578</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="126"/>
+        <v>30.442512415756532</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="126"/>
+        <v>19.878793268555576</v>
+      </c>
+      <c r="AH24" s="20">
+        <f t="shared" si="126"/>
+        <v>11.398362000880738</v>
+      </c>
+      <c r="AI24" s="20">
+        <f t="shared" si="126"/>
+        <v>9.6097487615224164</v>
       </c>
     </row>
     <row r="25" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3837,81 +3981,87 @@
         <v>62.784999999999997</v>
       </c>
       <c r="N25" s="4">
-        <f>+M25</f>
-        <v>62.784999999999997</v>
+        <v>63.052</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" ref="O25:R25" si="124">+N25</f>
-        <v>62.784999999999997</v>
+        <v>63.494</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="124"/>
-        <v>62.784999999999997</v>
+        <f t="shared" ref="O25:R25" si="127">+O25</f>
+        <v>63.494</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="124"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="127"/>
+        <v>63.494</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="124"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="127"/>
+        <v>63.494</v>
+      </c>
+      <c r="U25" s="3">
+        <f>AVERAGE(G25:J25)</f>
+        <v>60.156999999999996</v>
+      </c>
+      <c r="V25" s="3">
+        <f>AVERAGE(K25:N25)</f>
+        <v>63.043749999999996</v>
       </c>
       <c r="W25" s="3">
         <f>AVERAGE(O25:R25)</f>
-        <v>62.784999999999997</v>
+        <v>63.494</v>
       </c>
       <c r="X25" s="3">
         <f>+W25</f>
-        <v>62.784999999999997</v>
+        <v>63.494</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" ref="Y25:AI25" si="125">+X25</f>
-        <v>62.784999999999997</v>
+        <f t="shared" ref="Y25:AI25" si="128">+X25</f>
+        <v>63.494</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="125"/>
-        <v>62.784999999999997</v>
+        <f t="shared" si="128"/>
+        <v>63.494</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL25" s="27">
+      <c r="AL25" s="25">
         <v>-0.05</v>
       </c>
     </row>
@@ -3919,14 +4069,11 @@
       <c r="AK26" t="s">
         <v>107</v>
       </c>
-      <c r="AL26" s="27">
+      <c r="AL26" s="25">
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="2:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3937,86 +4084,16 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="10">
-        <f>899-5727</f>
-        <v>-4828</v>
-      </c>
-      <c r="N27" s="10">
-        <f>+M27+N23</f>
-        <v>-4334.9856877000002</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" ref="O27:R27" si="126">+N27+O23</f>
-        <v>-3890.7884683000002</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="126"/>
-        <v>-3400.3959546925003</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="126"/>
-        <v>-2887.8487081251251</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="126"/>
-        <v>-2374.866827382456</v>
-      </c>
-      <c r="W27" s="1">
-        <f>+R27</f>
-        <v>-2374.866827382456</v>
-      </c>
-      <c r="X27" s="1">
-        <f>+W27+X23</f>
-        <v>-674.20410628118111</v>
-      </c>
-      <c r="Y27" s="1">
-        <f t="shared" ref="Y27:AI27" si="127">+X27+Y23</f>
-        <v>1109.1437407569567</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="127"/>
-        <v>3024.7218628911778</v>
-      </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="127"/>
-        <v>5008.347530558859</v>
-      </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="127"/>
-        <v>6850.3716345239036</v>
-      </c>
-      <c r="AC27" s="1">
-        <f t="shared" si="127"/>
-        <v>8621.1511450322578</v>
-      </c>
-      <c r="AD27" s="1">
-        <f t="shared" si="127"/>
-        <v>10369.756621796367</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="127"/>
-        <v>12131.176654440054</v>
-      </c>
-      <c r="AF27" s="1">
-        <f t="shared" si="127"/>
-        <v>13930.988272672614</v>
-      </c>
-      <c r="AG27" s="1">
-        <f t="shared" si="127"/>
-        <v>15095.210221088351</v>
-      </c>
-      <c r="AH27" s="1">
-        <f t="shared" si="127"/>
-        <v>15749.248014237479</v>
-      </c>
-      <c r="AI27" s="1">
-        <f t="shared" si="127"/>
-        <v>16294.777309777597</v>
-      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
       <c r="AK27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AL27" s="27">
+      <c r="AL27" s="25">
         <v>0.08</v>
       </c>
     </row>
@@ -4024,70 +4101,286 @@
       <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="20">
-        <f t="shared" ref="F28:M28" si="128">+F15/F13</f>
+      <c r="F28" s="19">
+        <f t="shared" ref="F28:L28" si="129">+F15/F13</f>
         <v>0.92742784932616296</v>
       </c>
-      <c r="G28" s="20">
-        <f t="shared" si="128"/>
+      <c r="G28" s="19">
+        <f t="shared" si="129"/>
         <v>0.93713924563144668</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" si="128"/>
+      <c r="H28" s="19">
+        <f t="shared" si="129"/>
         <v>0.93319331587327137</v>
       </c>
-      <c r="I28" s="20">
-        <f t="shared" si="128"/>
+      <c r="I28" s="19">
+        <f t="shared" si="129"/>
         <v>0.92975665630611559</v>
       </c>
-      <c r="J28" s="20">
-        <f t="shared" si="128"/>
+      <c r="J28" s="19">
+        <f t="shared" si="129"/>
         <v>0.93519795791603055</v>
       </c>
-      <c r="K28" s="20">
-        <f t="shared" si="128"/>
+      <c r="K28" s="19">
+        <f t="shared" si="129"/>
         <v>0.94075856466774233</v>
       </c>
-      <c r="L28" s="20">
-        <f t="shared" si="128"/>
+      <c r="L28" s="19">
+        <f t="shared" si="129"/>
         <v>0.94292394075109498</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <f>+M15/M13</f>
         <v>0.93929423421201474</v>
       </c>
-      <c r="N28" s="20">
-        <f t="shared" ref="N28:Q28" si="129">+N15/N13</f>
+      <c r="N28" s="19">
+        <f t="shared" ref="N28:Q28" si="130">+N15/N13</f>
+        <v>0.9039360245565633</v>
+      </c>
+      <c r="O28" s="19">
+        <f t="shared" si="130"/>
+        <v>0.92750097444926816</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" si="130"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="O28" s="20">
-        <f t="shared" si="129"/>
+      <c r="R28" s="19">
+        <f>+R15/R13</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" ref="U28:AI28" si="131">+U15/U13</f>
+        <v>0.9336182284620641</v>
+      </c>
+      <c r="V28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.93115215881186231</v>
+      </c>
+      <c r="W28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.93701731752845241</v>
+      </c>
+      <c r="X28" s="19">
+        <f t="shared" si="131"/>
         <v>0.94</v>
       </c>
-      <c r="P28" s="20">
-        <f t="shared" si="129"/>
+      <c r="Y28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94</v>
+      </c>
+      <c r="Z28" s="19">
+        <f t="shared" si="131"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="Q28" s="20">
-        <f t="shared" si="129"/>
+      <c r="AA28" s="19">
+        <f t="shared" si="131"/>
         <v>0.94</v>
       </c>
-      <c r="R28" s="20">
-        <f>+R15/R13</f>
+      <c r="AB28" s="19">
+        <f t="shared" si="131"/>
         <v>0.94</v>
+      </c>
+      <c r="AC28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AD28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94</v>
+      </c>
+      <c r="AE28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AF28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94</v>
+      </c>
+      <c r="AG28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94</v>
+      </c>
+      <c r="AH28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AI28" s="19">
+        <f t="shared" si="131"/>
+        <v>0.94000000000000006</v>
       </c>
       <c r="AK28" t="s">
         <v>106</v>
       </c>
       <c r="AL28" s="1">
         <f>NPV(AL27,W23:CT23)+Main!K5-Main!K6</f>
-        <v>9897.79688505169</v>
+        <v>11142.890759308255</v>
       </c>
     </row>
     <row r="29" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="AL29" s="21">
+      <c r="AL29" s="20">
         <f>+AL28/Main!K3</f>
-        <v>157.64588492556646</v>
+        <v>174.09463549858722</v>
+      </c>
+    </row>
+    <row r="30" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19">
+        <f t="shared" ref="J30:M30" si="132">SUM(J3:J4)/SUM(F3:F4)-1</f>
+        <v>3.7157063340153451E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="132"/>
+        <v>5.5019150002676653E-2</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.10057903854293482</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.11203181608875834</v>
+      </c>
+      <c r="N30" s="19">
+        <f>SUM(N3:N4)/SUM(J3:J4)-1</f>
+        <v>0.12188944442205352</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" ref="O30:R30" si="133">SUM(O3:O4)/SUM(K3:K4)-1</f>
+        <v>5.1464907040733365E-2</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="133"/>
+        <v>-6.7046423204862537E-2</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="133"/>
+        <v>-5.0050295424581281E-2</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="133"/>
+        <v>-3.3981243382241733E-2</v>
+      </c>
+      <c r="V30" s="25">
+        <f>SUM(V3:V4)/SUM(U3:U4)-1</f>
+        <v>9.8688765422982438E-2</v>
+      </c>
+      <c r="W30" s="25">
+        <f t="shared" ref="W30:AI30" si="134">SUM(W3:W4)/SUM(V3:V4)-1</f>
+        <v>-2.7845981409667653E-2</v>
+      </c>
+      <c r="X30" s="25">
+        <f t="shared" si="134"/>
+        <v>-0.12430881961095019</v>
+      </c>
+      <c r="Y30" s="25">
+        <f t="shared" si="134"/>
+        <v>-2.8075299051941283E-2</v>
+      </c>
+      <c r="Z30" s="25">
+        <f t="shared" si="134"/>
+        <v>3.411254034031086E-2</v>
+      </c>
+      <c r="AA30" s="25">
+        <f t="shared" si="134"/>
+        <v>2.0797744121009432E-2</v>
+      </c>
+      <c r="AB30" s="25">
+        <f t="shared" si="134"/>
+        <v>3.56963555968004E-2</v>
+      </c>
+      <c r="AC30" s="25">
+        <f t="shared" si="134"/>
+        <v>4.3094672813173363E-2</v>
+      </c>
+      <c r="AD30" s="25">
+        <f t="shared" si="134"/>
+        <v>4.6689980609236903E-2</v>
+      </c>
+      <c r="AE30" s="25">
+        <f t="shared" si="134"/>
+        <v>4.8418815765850498E-2</v>
+      </c>
+      <c r="AF30" s="25">
+        <f t="shared" si="134"/>
+        <v>4.9245919564599561E-2</v>
+      </c>
+      <c r="AG30" s="25">
+        <f t="shared" si="134"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AH30" s="25">
+        <f t="shared" si="134"/>
+        <v>-0.79980399418598735</v>
+      </c>
+      <c r="AI30" s="25">
+        <f t="shared" si="134"/>
+        <v>-0.79951046522328029</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="W33" s="1">
+        <f>+R27</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <f>+W33+X23</f>
+        <v>1834.7032679015806</v>
+      </c>
+      <c r="Y33" s="1">
+        <f>+X33+Y23</f>
+        <v>3775.4949092485949</v>
+      </c>
+      <c r="Z33" s="1">
+        <f>+Y33+Z23</f>
+        <v>5795.0617540130888</v>
+      </c>
+      <c r="AA33" s="1">
+        <f>+Z33+AA23</f>
+        <v>7890.1380129089794</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>+AA33+AB23</f>
+        <v>9847.420360234828</v>
+      </c>
+      <c r="AC33" s="1">
+        <f>+AB33+AC23</f>
+        <v>11737.373312886824</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>+AC33+AD23</f>
+        <v>13609.391190701004</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>+AD33+AE23</f>
+        <v>15498.861957190555</v>
+      </c>
+      <c r="AF33" s="1">
+        <f>+AE33+AF23</f>
+        <v>17431.778840516599</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>+AF33+AG23</f>
+        <v>18693.962940310266</v>
+      </c>
+      <c r="AH33" s="1">
+        <f>+AG33+AH23</f>
+        <v>19417.690537194187</v>
+      </c>
+      <c r="AI33" s="1">
+        <f>+AH33+AI23</f>
+        <v>20027.85192505829</v>
       </c>
     </row>
   </sheetData>

--- a/JAZZ.xlsx
+++ b/JAZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E319B-0D27-4818-9369-F71CE73CAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60F68F-0236-4FCA-B417-90F54E75F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22665" yWindow="225" windowWidth="28410" windowHeight="20415" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
+    <workbookView xWindow="-27390" yWindow="750" windowWidth="26865" windowHeight="20025" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>Price</t>
   </si>
@@ -371,12 +371,24 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -563,7 +575,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9872AF5D-F0BD-4294-B65A-15CA86B4AD29}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,16 +593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>21925</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>78842</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>21925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>43559</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4065</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -603,8 +617,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9457628" y="78842"/>
-          <a:ext cx="0" cy="5268951"/>
+          <a:off x="12475862" y="0"/>
+          <a:ext cx="0" cy="6780609"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -629,15 +643,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28605</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28605</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>12342</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -681,9 +695,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -721,7 +735,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -827,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,7 +983,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,7 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CF0EA-6190-476D-832E-2260D789DF8A}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1012,8 +1028,8 @@
       <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>128.06</v>
+      <c r="K2" s="20">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1033,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>64.004790999999997</v>
+        <v>61.753509999999999</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1057,7 +1073,7 @@
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>8196.4535354599993</v>
+        <v>7101.6536500000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1075,10 +1091,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>1167.9110000000001</v>
+        <f>1355.802+625</f>
+        <v>1980.8019999999999</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1096,11 +1113,11 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>5689.662+31</f>
-        <v>5720.6620000000003</v>
+        <f>5100.983+605.798</f>
+        <v>5706.7809999999999</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1121,7 +1138,7 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>12749.20453546</v>
+        <v>10827.63265</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1223,13 +1240,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF25E3F-0D5A-4F1A-A75A-A8CE578AC72F}">
-  <dimension ref="A1:CT33"/>
+  <dimension ref="A1:CX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1237,15 +1254,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="9.140625" style="2"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1294,71 +1311,83 @@
       <c r="R2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2">
         <v>2020</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="Y2">
+        <f>+X2+1</f>
         <v>2021</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:AI2" si="0">+U2+1</f>
+      <c r="Z2">
+        <f t="shared" ref="Z2:AM2" si="0">+Y2+1</f>
         <v>2022</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1396,79 +1425,90 @@
         <v>178.13</v>
       </c>
       <c r="P3" s="4">
-        <f>+L3*0.7</f>
-        <v>188.59469999999999</v>
+        <v>159.76900000000001</v>
       </c>
       <c r="Q3" s="4">
-        <f>+M3*0.7</f>
-        <v>179.22729999999999</v>
+        <v>125.11</v>
       </c>
       <c r="R3" s="4">
-        <f>+N3*0.7</f>
-        <v>173.24719999999999</v>
-      </c>
-      <c r="U3" s="3">
+        <v>106.721</v>
+      </c>
+      <c r="S3" s="4">
+        <v>64.231999999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>62.18</v>
+      </c>
+      <c r="U3" s="4">
+        <f>+T3-1</f>
+        <v>61.18</v>
+      </c>
+      <c r="V3" s="4">
+        <f>+U3-1</f>
+        <v>60.18</v>
+      </c>
+      <c r="Y3" s="3">
         <f>SUM(G3:J3)</f>
         <v>1265.83</v>
       </c>
-      <c r="V3" s="3">
-        <f>SUM(K3:N3)</f>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="1">SUM(K3:N3)</f>
         <v>1020.453</v>
       </c>
-      <c r="W3" s="3">
+      <c r="AA3" s="3">
         <f>SUM(O3:R3)</f>
-        <v>719.19920000000002</v>
-      </c>
-      <c r="X3" s="3">
-        <f>+W3*0.5</f>
-        <v>359.59960000000001</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:AH3" si="1">+X3*0.5</f>
-        <v>179.7998</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" si="1"/>
-        <v>89.899900000000002</v>
-      </c>
-      <c r="AA3" s="3">
-        <f t="shared" si="1"/>
-        <v>44.949950000000001</v>
+        <v>569.73</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" si="1"/>
-        <v>22.474975000000001</v>
+        <f>+AA3*0.5</f>
+        <v>284.86500000000001</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" si="1"/>
-        <v>11.2374875</v>
+        <f t="shared" ref="AC3:AL3" si="2">+AB3*0.5</f>
+        <v>142.4325</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" si="1"/>
-        <v>5.6187437500000001</v>
+        <f t="shared" si="2"/>
+        <v>71.216250000000002</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8093718750000001</v>
+        <f t="shared" si="2"/>
+        <v>35.608125000000001</v>
       </c>
       <c r="AF3" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4046859375</v>
+        <f t="shared" si="2"/>
+        <v>17.804062500000001</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.70234296875000002</v>
+        <f t="shared" si="2"/>
+        <v>8.9020312500000003</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35117148437500001</v>
+        <f t="shared" si="2"/>
+        <v>4.4510156250000001</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" ref="AI3" si="2">+AH3*0.5</f>
-        <v>0.1755857421875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.2255078125000001</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f t="shared" si="2"/>
+        <v>1.11275390625</v>
+      </c>
+      <c r="AK3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55637695312500002</v>
+      </c>
+      <c r="AL3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27818847656250001</v>
+      </c>
+      <c r="AM3" s="3">
+        <f t="shared" ref="AM3" si="3">+AL3*0.5</f>
+        <v>0.13909423828125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1506,79 +1546,90 @@
         <v>277.76100000000002</v>
       </c>
       <c r="P4" s="4">
-        <f>+L4*1.2</f>
-        <v>282.02999999999997</v>
+        <v>326.56400000000002</v>
       </c>
       <c r="Q4" s="4">
-        <f>+M4*1.2</f>
-        <v>307.1232</v>
+        <v>331.63299999999998</v>
       </c>
       <c r="R4" s="4">
-        <f>+N4*1.2</f>
-        <v>337.66079999999999</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4:U17" si="3">SUM(G4:J4)</f>
+        <v>337.01900000000001</v>
+      </c>
+      <c r="S4" s="4">
+        <v>315.3</v>
+      </c>
+      <c r="T4" s="4">
+        <v>368.47199999999998</v>
+      </c>
+      <c r="U4" s="4">
+        <f>+Q4*1.1</f>
+        <v>364.79630000000003</v>
+      </c>
+      <c r="V4" s="4">
+        <f>+R4*1.1</f>
+        <v>370.72090000000003</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4:Y17" si="4">SUM(G4:J4)</f>
         <v>535.29700000000003</v>
       </c>
-      <c r="V4" s="3">
-        <f>SUM(K4:N4)</f>
+      <c r="Z4" s="3">
+        <f t="shared" si="1"/>
         <v>958.42500000000007</v>
       </c>
-      <c r="W4" s="3">
-        <f t="shared" ref="W4:W16" si="4">SUM(O4:R4)</f>
-        <v>1204.5749999999998</v>
-      </c>
-      <c r="X4" s="3">
-        <f>+W4*1.1</f>
-        <v>1325.0324999999998</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Z4" si="5">+X4*1.1</f>
-        <v>1457.53575</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="5"/>
-        <v>1603.2893250000002</v>
-      </c>
       <c r="AA4" s="3">
-        <f>+Z4*1.05</f>
-        <v>1683.4537912500002</v>
+        <f t="shared" ref="AA4:AA16" si="5">SUM(O4:R4)</f>
+        <v>1272.9770000000001</v>
       </c>
       <c r="AB4" s="3">
-        <f t="shared" ref="AB4:AF4" si="6">+AA4*1.05</f>
-        <v>1767.6264808125004</v>
+        <f>+AA4*1.1</f>
+        <v>1400.2747000000002</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" si="6"/>
-        <v>1856.0078048531254</v>
+        <f t="shared" ref="AC4:AD4" si="6">+AB4*1.1</f>
+        <v>1540.3021700000004</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" si="6"/>
-        <v>1948.8081950957817</v>
+        <v>1694.3323870000006</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" si="6"/>
-        <v>2046.2486048505709</v>
+        <f>+AD4*1.05</f>
+        <v>1779.0490063500008</v>
       </c>
       <c r="AF4" s="3">
-        <f t="shared" si="6"/>
-        <v>2148.5610350930997</v>
+        <f t="shared" ref="AF4:AJ4" si="7">+AE4*1.05</f>
+        <v>1868.0014566675009</v>
       </c>
       <c r="AG4" s="3">
-        <f>+AF4*0.5</f>
-        <v>1074.2805175465498</v>
+        <f t="shared" si="7"/>
+        <v>1961.401529500876</v>
       </c>
       <c r="AH4" s="3">
-        <f>+AG4*0.2</f>
-        <v>214.85610350930997</v>
+        <f t="shared" si="7"/>
+        <v>2059.4716059759198</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4" si="7">+AH4*0.2</f>
-        <v>42.971220701861995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>2162.445186274716</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f t="shared" si="7"/>
+        <v>2270.5674455884518</v>
+      </c>
+      <c r="AK4" s="3">
+        <f>+AJ4*0.5</f>
+        <v>1135.2837227942259</v>
+      </c>
+      <c r="AL4" s="3">
+        <f>+AK4*0.2</f>
+        <v>227.0567445588452</v>
+      </c>
+      <c r="AM4" s="3">
+        <f t="shared" ref="AM4" si="8">+AL4*0.2</f>
+        <v>45.411348911769039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1616,79 +1667,90 @@
         <v>188.90899999999999</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:R5" si="8">+L5*1.1</f>
-        <v>192.81790000000001</v>
+        <v>202.226</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="8"/>
-        <v>215.8398</v>
+        <v>213.71100000000001</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="8"/>
-        <v>227.6978</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="3"/>
+        <v>240.62200000000001</v>
+      </c>
+      <c r="S5" s="4">
+        <v>198.71600000000001</v>
+      </c>
+      <c r="T5" s="4">
+        <v>247.102</v>
+      </c>
+      <c r="U5" s="4">
+        <f>+Q5*1.1</f>
+        <v>235.08210000000003</v>
+      </c>
+      <c r="V5" s="4">
+        <f>+R5*1.1</f>
+        <v>264.68420000000003</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="4"/>
         <v>463.64499999999998</v>
       </c>
-      <c r="V5" s="3">
-        <f>SUM(K5:N5)</f>
+      <c r="Z5" s="3">
+        <f t="shared" si="1"/>
         <v>736.39799999999991</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" si="4"/>
-        <v>825.2645</v>
-      </c>
-      <c r="X5" s="3">
-        <f>+W5*1.1</f>
-        <v>907.79095000000007</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" ref="Y5:Z5" si="9">+X5*1.1</f>
-        <v>998.57004500000016</v>
-      </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
+        <f t="shared" si="5"/>
+        <v>845.46800000000007</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>+AA5*1.1</f>
+        <v>930.01480000000015</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" ref="AC5:AD5" si="9">+AB5*1.1</f>
+        <v>1023.0162800000003</v>
+      </c>
+      <c r="AD5" s="3">
         <f t="shared" si="9"/>
-        <v>1098.4270495000003</v>
-      </c>
-      <c r="AA5" s="3">
-        <f>+Z5*1.03</f>
-        <v>1131.3798609850003</v>
-      </c>
-      <c r="AB5" s="3">
-        <f>+AA5*0.7</f>
-        <v>791.96590268950013</v>
-      </c>
-      <c r="AC5" s="3">
-        <f>+AB5*0.7</f>
-        <v>554.37613188265004</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AI5" si="10">+AC5*0.7</f>
-        <v>388.06329231785503</v>
+        <v>1125.3179080000004</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="10"/>
-        <v>271.64430462249851</v>
+        <f>+AD5*1.03</f>
+        <v>1159.0774452400005</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="10"/>
-        <v>190.15101323574893</v>
+        <f>+AE5*0.7</f>
+        <v>811.35421166800029</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="10"/>
-        <v>133.10570926502425</v>
+        <f>+AF5*0.7</f>
+        <v>567.9479481676002</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="10"/>
-        <v>93.173996485516966</v>
+        <f t="shared" ref="AH5:AM5" si="10">+AG5*0.7</f>
+        <v>397.56356371732011</v>
       </c>
       <c r="AI5" s="3">
         <f t="shared" si="10"/>
-        <v>65.221797539861868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>278.29449460212408</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="10"/>
+        <v>194.80614622148684</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="10"/>
+        <v>136.36430235504079</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" si="10"/>
+        <v>95.455011648528554</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="10"/>
+        <v>66.818508153969987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1726,79 +1788,90 @@
         <v>7.0979999999999999</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:R6" si="11">+O6*0.9</f>
-        <v>6.3882000000000003</v>
+        <v>2.806</v>
       </c>
       <c r="Q6" s="4">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="R6" s="4">
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="T6" s="4">
+        <v>6.383</v>
+      </c>
+      <c r="U6" s="4">
+        <f>+T6</f>
+        <v>6.383</v>
+      </c>
+      <c r="V6" s="4">
+        <f>+U6</f>
+        <v>6.383</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="4"/>
+        <v>12.707000000000001</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>16.825000000000003</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="5"/>
+        <v>19.667999999999999</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>+AA6*0.9</f>
+        <v>17.7012</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" ref="AC6:AM6" si="11">+AB6*0.9</f>
+        <v>15.93108</v>
+      </c>
+      <c r="AD6" s="3">
         <f t="shared" si="11"/>
-        <v>5.7493800000000004</v>
-      </c>
-      <c r="R6" s="4">
+        <v>14.337972000000001</v>
+      </c>
+      <c r="AE6" s="3">
         <f t="shared" si="11"/>
-        <v>5.1744420000000009</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="3"/>
-        <v>12.707000000000001</v>
-      </c>
-      <c r="V6" s="3">
-        <f>SUM(K6:N6)</f>
-        <v>16.825000000000003</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="4"/>
-        <v>24.410021999999998</v>
-      </c>
-      <c r="X6" s="3">
-        <f>+W6*0.9</f>
-        <v>21.969019799999998</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" ref="Y6:AI6" si="12">+X6*0.9</f>
-        <v>19.772117819999998</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="12"/>
-        <v>17.794906038000001</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="12"/>
-        <v>16.015415434200001</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="12"/>
-        <v>14.413873890780001</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="12"/>
-        <v>12.972486501702001</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="12"/>
-        <v>11.675237851531801</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="12"/>
-        <v>10.507714066378622</v>
+        <v>12.904174800000002</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="12"/>
-        <v>9.4569426597407595</v>
+        <f t="shared" si="11"/>
+        <v>11.613757320000001</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="12"/>
-        <v>8.5112483937666834</v>
+        <f t="shared" si="11"/>
+        <v>10.452381588000001</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="12"/>
-        <v>7.6601235543900152</v>
+        <f t="shared" si="11"/>
+        <v>9.4071434292000013</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="12"/>
-        <v>6.8941111989510135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>8.4664290862800016</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="11"/>
+        <v>7.6197861776520019</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="11"/>
+        <v>6.857807559886802</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="11"/>
+        <v>6.1720268038981221</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="11"/>
+        <v>5.5548241235083102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1830,86 +1903,79 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:R7" si="13">+M7*0.9</f>
+        <f t="shared" ref="N7" si="12">+M7*0.9</f>
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="Y7" s="3">
+        <f t="shared" si="4"/>
+        <v>57.914000000000001</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>28.844000000000001</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="4">
+      <c r="AB7" s="3">
+        <f t="shared" ref="AB7:AM7" si="13">+AA7*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="AD7" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R7" s="4">
+      <c r="AE7" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="3"/>
-        <v>57.914000000000001</v>
-      </c>
-      <c r="V7" s="3">
-        <f>SUM(K7:N7)</f>
-        <v>28.844000000000001</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="4"/>
+      <c r="AF7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" ref="X7:AI7" si="14">+W7*0.9</f>
+      <c r="AG7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AH7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AI7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AJ7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AK7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AL7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="14"/>
+      <c r="AM7" s="3">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1947,31 +2013,42 @@
         <v>67.180999999999997</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8:R8" si="15">+O8+1</f>
-        <v>68.180999999999997</v>
+        <v>70.347999999999999</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="15"/>
-        <v>69.180999999999997</v>
+        <v>77.994</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="15"/>
-        <v>70.180999999999997</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="3"/>
+        <v>74.010000000000005</v>
+      </c>
+      <c r="S8" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="T8" s="4">
+        <v>81.046999999999997</v>
+      </c>
+      <c r="U8" s="4">
+        <f>+Q8*1.1</f>
+        <v>85.793400000000005</v>
+      </c>
+      <c r="V8" s="4">
+        <f>+R8*1.1</f>
+        <v>81.411000000000016</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="4"/>
         <v>246.80799999999999</v>
       </c>
-      <c r="V8" s="3">
-        <f>SUM(K8:N8)</f>
+      <c r="Z8" s="3">
+        <f t="shared" si="1"/>
         <v>269.91199999999998</v>
       </c>
-      <c r="W8" s="3">
-        <f t="shared" si="4"/>
-        <v>274.72399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <f t="shared" si="5"/>
+        <v>289.53300000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2009,31 +2086,42 @@
         <v>85.927000000000007</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" ref="P9:R9" si="16">+O9+1</f>
-        <v>86.927000000000007</v>
+        <v>101.693</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="16"/>
-        <v>87.927000000000007</v>
+        <v>104.85899999999999</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="16"/>
-        <v>88.927000000000007</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="3"/>
+        <v>101.747</v>
+      </c>
+      <c r="S9" s="4">
+        <v>102.75</v>
+      </c>
+      <c r="T9" s="4">
+        <v>107.82899999999999</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" ref="U9:U12" si="14">+Q9*1.1</f>
+        <v>115.34490000000001</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" ref="V9:V12" si="15">+R9*1.1</f>
+        <v>111.92170000000002</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="4"/>
         <v>85.628999999999991</v>
       </c>
-      <c r="V9" s="3">
-        <f t="shared" ref="V9:V17" si="17">SUM(K9:N9)</f>
+      <c r="Z9" s="3">
+        <f t="shared" ref="Z9:Z17" si="16">SUM(K9:N9)</f>
         <v>281.65899999999999</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" si="4"/>
-        <v>349.70800000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <f t="shared" si="5"/>
+        <v>394.226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -2071,79 +2159,90 @@
         <v>36.700000000000003</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10:R10" si="18">+AVERAGE(L10:O10)</f>
-        <v>32.73075</v>
+        <v>34.055999999999997</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="18"/>
-        <v>32.440937500000004</v>
+        <v>29.827000000000002</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="18"/>
-        <v>33.034421875000007</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="3"/>
+        <v>46.911999999999999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>32.023000000000003</v>
+      </c>
+      <c r="T10" s="4">
+        <v>43.012</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="14"/>
+        <v>32.809700000000007</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="15"/>
+        <v>51.603200000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="4"/>
         <v>134.06</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Z10" s="3">
+        <f t="shared" si="16"/>
+        <v>127.97999999999999</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="5"/>
+        <v>147.495</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>+AA10*0.99</f>
+        <v>146.02005</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" ref="AC10:AM10" si="17">+AB10*0.99</f>
+        <v>144.55984949999998</v>
+      </c>
+      <c r="AD10" s="3">
         <f t="shared" si="17"/>
-        <v>127.97999999999999</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="4"/>
-        <v>134.90610937500003</v>
-      </c>
-      <c r="X10" s="3">
-        <f>+W10*0.99</f>
-        <v>133.55704828125002</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" ref="Y10:AI10" si="19">+X10*0.99</f>
-        <v>132.22147779843752</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="19"/>
-        <v>130.89926302045313</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="19"/>
-        <v>129.59027039024861</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="19"/>
-        <v>128.29436768634611</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="19"/>
-        <v>127.01142400948264</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="19"/>
-        <v>125.74130976938781</v>
+        <v>143.11425100499997</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="19"/>
-        <v>124.48389667169393</v>
+        <f t="shared" si="17"/>
+        <v>141.68310849494998</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="19"/>
-        <v>123.23905770497699</v>
+        <f t="shared" si="17"/>
+        <v>140.26627741000047</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="19"/>
-        <v>122.00666712792722</v>
+        <f t="shared" si="17"/>
+        <v>138.86361463590046</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="19"/>
-        <v>120.78660045664795</v>
+        <f t="shared" si="17"/>
+        <v>137.47497848954146</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="19"/>
-        <v>119.57873445208146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>136.10022870464604</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="17"/>
+        <v>134.73922641759958</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="17"/>
+        <v>133.39183415342359</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="17"/>
+        <v>132.05791581188936</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="17"/>
+        <v>130.73733665377046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2181,79 +2280,90 @@
         <v>39.079000000000001</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11:P12" si="20">+AVERAGE(L11:O11)</f>
-        <v>45.97</v>
+        <v>46.107999999999997</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11:Q12" si="21">+AVERAGE(M11:P11)</f>
-        <v>43.788499999999999</v>
+        <v>47.73</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" ref="R11:R12" si="22">+AVERAGE(N11:Q11)</f>
-        <v>42.372624999999999</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="3"/>
+        <v>51.082999999999998</v>
+      </c>
+      <c r="S11" s="4">
+        <v>47.676000000000002</v>
+      </c>
+      <c r="T11" s="4">
+        <v>45.420999999999999</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="14"/>
+        <v>52.503</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="15"/>
+        <v>56.191300000000005</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="4"/>
         <v>197.93100000000001</v>
       </c>
-      <c r="V11" s="3">
-        <f t="shared" si="17"/>
+      <c r="Z11" s="3">
+        <f t="shared" si="16"/>
         <v>194.29</v>
       </c>
-      <c r="W11" s="3">
-        <f t="shared" si="4"/>
-        <v>171.21012500000001</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" ref="X11:AI11" si="23">+W11*0.99</f>
-        <v>169.49802375000002</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="23"/>
-        <v>167.80304351250001</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="23"/>
-        <v>166.125013077375</v>
-      </c>
       <c r="AA11" s="3">
-        <f t="shared" si="23"/>
-        <v>164.46376294660126</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="23"/>
-        <v>162.81912531713525</v>
+        <f t="shared" ref="AB11:AM11" si="18">+AA11*0.99</f>
+        <v>182.16</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="23"/>
-        <v>161.19093406396388</v>
+        <f t="shared" si="18"/>
+        <v>180.33840000000001</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="23"/>
-        <v>159.57902472332424</v>
+        <f t="shared" si="18"/>
+        <v>178.53501600000001</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="23"/>
-        <v>157.98323447609098</v>
+        <f t="shared" si="18"/>
+        <v>176.74966584000001</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="23"/>
-        <v>156.40340213133007</v>
+        <f t="shared" si="18"/>
+        <v>174.9821691816</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="23"/>
-        <v>154.83936811001678</v>
+        <f t="shared" si="18"/>
+        <v>173.23234748978399</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="23"/>
-        <v>153.2909744289166</v>
+        <f t="shared" si="18"/>
+        <v>171.50002401488615</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="23"/>
-        <v>151.75806468462744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>169.78502377473728</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="18"/>
+        <v>168.08717353698992</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="18"/>
+        <v>166.40630180162003</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="18"/>
+        <v>164.74223878360382</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="18"/>
+        <v>163.09481639576779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2301,79 +2411,95 @@
         <v>12.027000000000001</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="20"/>
-        <v>7.947000000000001</v>
+        <f>3.417+10.33</f>
+        <v>13.747</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="21"/>
-        <v>8.3812500000000014</v>
+        <f>2.907+28.921+4.821</f>
+        <v>36.649000000000001</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="22"/>
-        <v>9.0048125000000017</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="3"/>
+        <f>4.088+5.209+39.387</f>
+        <v>48.683999999999997</v>
+      </c>
+      <c r="S12" s="4">
+        <f>3.57+49.947+9.934</f>
+        <v>63.451000000000001</v>
+      </c>
+      <c r="T12" s="4">
+        <f>2.698+59.681</f>
+        <v>62.378999999999998</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="14"/>
+        <v>40.313900000000004</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="15"/>
+        <v>53.552399999999999</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="4"/>
         <v>94.417000000000002</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" si="17"/>
+      <c r="Z12" s="3">
+        <f t="shared" si="16"/>
         <v>24.588000000000001</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" si="4"/>
-        <v>37.360062500000005</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" ref="X12:AI12" si="24">+W12*0.99</f>
-        <v>36.986461875000003</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="24"/>
-        <v>36.616597256250003</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="24"/>
-        <v>36.250431283687504</v>
-      </c>
       <c r="AA12" s="3">
-        <f t="shared" si="24"/>
-        <v>35.887926970850629</v>
+        <f t="shared" si="5"/>
+        <v>111.107</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="24"/>
-        <v>35.529047701142119</v>
+        <f t="shared" ref="AB12:AM12" si="19">+AA12*0.99</f>
+        <v>109.99593</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="24"/>
-        <v>35.173757224130696</v>
+        <f t="shared" si="19"/>
+        <v>108.89597070000001</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="24"/>
-        <v>34.822019651889391</v>
+        <f t="shared" si="19"/>
+        <v>107.80701099300001</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="24"/>
-        <v>34.473799455370497</v>
+        <f t="shared" si="19"/>
+        <v>106.72894088307001</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="24"/>
-        <v>34.129061460816793</v>
+        <f t="shared" si="19"/>
+        <v>105.66165147423931</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="24"/>
-        <v>33.787770846208623</v>
+        <f t="shared" si="19"/>
+        <v>104.60503495949692</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="24"/>
-        <v>33.449893137746535</v>
+        <f t="shared" si="19"/>
+        <v>103.55898460990196</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="24"/>
-        <v>33.115394206369068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>102.52339476380294</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="19"/>
+        <v>101.49816081616491</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="19"/>
+        <v>100.48317920800326</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="19"/>
+        <v>99.478347415923224</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="19"/>
+        <v>98.48356394176399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2381,15 +2507,15 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:G13" si="25">SUM(F3:F12)</f>
+        <f t="shared" ref="F13:G13" si="20">SUM(F3:F12)</f>
         <v>665.51699999999994</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>607.58100000000002</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13" si="26">SUM(H3:H12)</f>
+        <f t="shared" ref="H13" si="21">SUM(H3:H12)</f>
         <v>751.81100000000004</v>
       </c>
       <c r="I13" s="6">
@@ -2401,7 +2527,7 @@
         <v>896.73099999999999</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13" si="27">SUM(K3:K12)</f>
+        <f t="shared" ref="K13" si="22">SUM(K3:K12)</f>
         <v>813.721</v>
       </c>
       <c r="L13" s="6">
@@ -2413,87 +2539,103 @@
         <v>940.65200000000004</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" ref="N13:R13" si="28">SUM(N3:N12)</f>
+        <f t="shared" ref="N13:V13" si="23">SUM(N3:N12)</f>
         <v>972.12299999999993</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>892.81200000000001</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="28"/>
-        <v>911.5865500000001</v>
+        <f t="shared" si="23"/>
+        <v>957.31699999999989</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="28"/>
-        <v>949.65836750000005</v>
+        <f t="shared" si="23"/>
+        <v>972.14</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="28"/>
-        <v>987.30010137500005</v>
+        <f t="shared" si="23"/>
+        <v>1011.9349999999999</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="23"/>
+        <v>901.98300000000017</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="23"/>
+        <v>1023.8250000000002</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" ref="U13:W13" si="29">SUM(U3:U12)</f>
+        <f t="shared" si="23"/>
+        <v>994.20630000000028</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="23"/>
+        <v>1056.6477</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" ref="Y13:AA13" si="24">SUM(Y3:Y12)</f>
         <v>3094.2379999999998</v>
       </c>
-      <c r="V13" s="6">
-        <f t="shared" si="29"/>
+      <c r="Z13" s="6">
+        <f t="shared" si="24"/>
         <v>3659.3739999999998</v>
       </c>
-      <c r="W13" s="6">
-        <f t="shared" si="29"/>
-        <v>3741.3570188750004</v>
-      </c>
-      <c r="X13" s="6">
-        <f t="shared" ref="X13" si="30">SUM(X3:X12)</f>
-        <v>2954.4336037062494</v>
-      </c>
-      <c r="Y13" s="6">
-        <f t="shared" ref="Y13" si="31">SUM(Y3:Y12)</f>
-        <v>2992.3188313871879</v>
-      </c>
-      <c r="Z13" s="6">
-        <f t="shared" ref="Z13" si="32">SUM(Z3:Z12)</f>
-        <v>3142.6858879195161</v>
-      </c>
       <c r="AA13" s="6">
-        <f t="shared" ref="AA13" si="33">SUM(AA3:AA12)</f>
-        <v>3205.7409779769005</v>
+        <f t="shared" si="24"/>
+        <v>3834.2040000000002</v>
       </c>
       <c r="AB13" s="6">
-        <f t="shared" ref="AB13" si="34">SUM(AB3:AB12)</f>
-        <v>2923.123773097404</v>
+        <f t="shared" ref="AB13" si="25">SUM(AB3:AB12)</f>
+        <v>3071.0316800000005</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" ref="AC13" si="35">SUM(AC3:AC12)</f>
-        <v>2757.9700260350551</v>
+        <f t="shared" ref="AC13" si="26">SUM(AC3:AC12)</f>
+        <v>3155.4762502000003</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" ref="AD13" si="36">SUM(AD3:AD12)</f>
-        <v>2674.3078231597706</v>
+        <f t="shared" ref="AD13" si="27">SUM(AD3:AD12)</f>
+        <v>3334.6607949980003</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" ref="AE13" si="37">SUM(AE3:AE12)</f>
-        <v>2648.1509260176035</v>
+        <f t="shared" ref="AE13" si="28">SUM(AE3:AE12)</f>
+        <v>3411.8004666080215</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" ref="AF13" si="38">SUM(AF3:AF12)</f>
-        <v>2663.3451982232132</v>
+        <f t="shared" ref="AF13" si="29">SUM(AF3:AF12)</f>
+        <v>3129.6835862213411</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" ref="AG13" si="39">SUM(AG3:AG12)</f>
-        <v>1527.233624258243</v>
+        <f t="shared" ref="AG13" si="30">SUM(AG3:AG12)</f>
+        <v>2965.4048875916578</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" ref="AH13" si="40">SUM(AH3:AH12)</f>
-        <v>623.56886305690307</v>
+        <f t="shared" ref="AH13" si="31">SUM(AH3:AH12)</f>
+        <v>2883.4273158617693</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" ref="AI13" si="41">SUM(AI3:AI12)</f>
-        <v>419.71490852594036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AI13" si="32">SUM(AI3:AI12)</f>
+        <v>2859.8402650188059</v>
+      </c>
+      <c r="AJ13" s="6">
+        <f t="shared" ref="AJ13" si="33">SUM(AJ3:AJ12)</f>
+        <v>2878.430692664595</v>
+      </c>
+      <c r="AK13" s="6">
+        <f t="shared" ref="AK13" si="34">SUM(AK3:AK12)</f>
+        <v>1679.3435248253254</v>
+      </c>
+      <c r="AL13" s="6">
+        <f t="shared" ref="AL13" si="35">SUM(AL3:AL12)</f>
+        <v>725.24047349925081</v>
+      </c>
+      <c r="AM13" s="6">
+        <f t="shared" ref="AM13" si="36">SUM(AM3:AM12)</f>
+        <v>510.23949241883082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2531,79 +2673,90 @@
         <v>64.727999999999994</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="N14:Q14" si="42">+P13*0.06</f>
-        <v>54.695193000000003</v>
+        <v>97.537000000000006</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="42"/>
-        <v>56.979502050000001</v>
+        <v>102.15300000000001</v>
       </c>
       <c r="R14" s="3">
-        <f>+R13*0.06</f>
-        <v>59.2380060825</v>
+        <v>71.238</v>
+      </c>
+      <c r="S14" s="3">
+        <v>95.486999999999995</v>
+      </c>
+      <c r="T14" s="3">
+        <v>72.412999999999997</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="3"/>
+        <f>+U13-U15</f>
+        <v>69.594440999999961</v>
+      </c>
+      <c r="V14" s="3">
+        <f>+V13-V15</f>
+        <v>73.965338999999972</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="4"/>
         <v>205.40100000000001</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" si="17"/>
+      <c r="Z14" s="3">
+        <f t="shared" si="16"/>
         <v>251.94</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" si="4"/>
-        <v>235.6407011325</v>
-      </c>
-      <c r="X14" s="3">
-        <f>+X13*0.06</f>
-        <v>177.26601622237496</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" ref="Y14:AI14" si="43">+Y13*0.06</f>
-        <v>179.53912988323125</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="43"/>
-        <v>188.56115327517097</v>
-      </c>
       <c r="AA14" s="3">
-        <f t="shared" si="43"/>
-        <v>192.34445867861402</v>
+        <f t="shared" si="5"/>
+        <v>335.65600000000001</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="43"/>
-        <v>175.38742638584424</v>
+        <f>+AB13*0.06</f>
+        <v>184.26190080000003</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="43"/>
-        <v>165.47820156210329</v>
+        <f t="shared" ref="AC14:AM14" si="37">+AC13*0.06</f>
+        <v>189.32857501200002</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="43"/>
-        <v>160.45846938958624</v>
+        <f t="shared" si="37"/>
+        <v>200.07964769988001</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="43"/>
-        <v>158.88905556105621</v>
+        <f t="shared" si="37"/>
+        <v>204.70802799648129</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="43"/>
-        <v>159.80071189339279</v>
+        <f t="shared" si="37"/>
+        <v>187.78101517328045</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="43"/>
-        <v>91.634017455494572</v>
+        <f t="shared" si="37"/>
+        <v>177.92429325549946</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="43"/>
-        <v>37.414131783414184</v>
+        <f t="shared" si="37"/>
+        <v>173.00563895170615</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="43"/>
-        <v>25.18289451155642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="37"/>
+        <v>171.59041590112835</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="37"/>
+        <v>172.70584155987569</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="37"/>
+        <v>100.76061148951952</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="37"/>
+        <v>43.514428409955045</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="37"/>
+        <v>30.614369545129847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
@@ -2611,39 +2764,39 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:M15" si="44">+F13-F14</f>
+        <f t="shared" ref="F15:M15" si="38">+F13-F14</f>
         <v>617.21899999999994</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>569.38800000000003</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>701.58500000000004</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>779.24300000000005</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>838.62099999999998</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>765.51499999999999</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>879.63300000000004</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>883.54900000000009</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" ref="N15:R15" si="45">+N13-N14</f>
+        <f t="shared" ref="N15:R15" si="39">+N13-N14</f>
         <v>878.73699999999997</v>
       </c>
       <c r="O15" s="4">
@@ -2651,79 +2804,95 @@
         <v>828.08400000000006</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="45"/>
-        <v>856.89135700000008</v>
+        <f t="shared" si="39"/>
+        <v>859.77999999999986</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="45"/>
-        <v>892.6788654500001</v>
+        <f t="shared" si="39"/>
+        <v>869.98699999999997</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="45"/>
-        <v>928.06209529250009</v>
-      </c>
-      <c r="U15" s="3">
-        <f>+U13-U14</f>
+        <f t="shared" si="39"/>
+        <v>940.69699999999989</v>
+      </c>
+      <c r="S15" s="4">
+        <f>+S13-S14</f>
+        <v>806.49600000000021</v>
+      </c>
+      <c r="T15" s="4">
+        <f>+T13-T14</f>
+        <v>951.41200000000015</v>
+      </c>
+      <c r="U15" s="4">
+        <f>+U13*0.93</f>
+        <v>924.61185900000032</v>
+      </c>
+      <c r="V15" s="4">
+        <f>+V13*0.93</f>
+        <v>982.68236100000001</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>+Y13-Y14</f>
         <v>2888.837</v>
       </c>
-      <c r="V15" s="3">
-        <f>+V13-V14</f>
+      <c r="Z15" s="3">
+        <f>+Z13-Z14</f>
         <v>3407.4339999999997</v>
       </c>
-      <c r="W15" s="3">
-        <f>+W13-W14</f>
-        <v>3505.7163177425005</v>
-      </c>
-      <c r="X15" s="3">
-        <f>+X13-X14</f>
-        <v>2777.1675874838743</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" ref="Y15:AI15" si="46">+Y13-Y14</f>
-        <v>2812.7797015039564</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="46"/>
-        <v>2954.1247346443452</v>
-      </c>
       <c r="AA15" s="3">
-        <f t="shared" si="46"/>
-        <v>3013.3965192982864</v>
+        <f>+AA13-AA14</f>
+        <v>3498.5480000000002</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="46"/>
-        <v>2747.7363467115597</v>
+        <f>+AB13-AB14</f>
+        <v>2886.7697792000004</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="46"/>
-        <v>2592.491824472952</v>
+        <f t="shared" ref="AC15:AM15" si="40">+AC13-AC14</f>
+        <v>2966.1476751880004</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="46"/>
-        <v>2513.8493537701843</v>
+        <f t="shared" si="40"/>
+        <v>3134.5811472981204</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="46"/>
-        <v>2489.2618704565475</v>
+        <f t="shared" si="40"/>
+        <v>3207.0924386115403</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="46"/>
-        <v>2503.5444863298203</v>
+        <f t="shared" si="40"/>
+        <v>2941.9025710480605</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="46"/>
-        <v>1435.5996068027484</v>
+        <f t="shared" si="40"/>
+        <v>2787.4805943361584</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="46"/>
-        <v>586.15473127348889</v>
+        <f t="shared" si="40"/>
+        <v>2710.4216769100631</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="46"/>
-        <v>394.53201401438395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>2688.2498491176775</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="40"/>
+        <v>2705.7248511047192</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="40"/>
+        <v>1578.5829133358059</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="40"/>
+        <v>681.72604508929578</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="40"/>
+        <v>479.625122873701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2761,79 +2930,90 @@
         <v>260.51499999999999</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:R16" si="47">+P13*0.25</f>
-        <v>227.89663750000003</v>
+        <v>276.87099999999998</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="47"/>
-        <v>237.41459187500001</v>
+        <v>308.3</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="47"/>
-        <v>246.82502534375001</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="3"/>
+        <v>300.52</v>
+      </c>
+      <c r="S16" s="4">
+        <v>351.71199999999999</v>
+      </c>
+      <c r="T16" s="4">
+        <v>303.38600000000002</v>
+      </c>
+      <c r="U16" s="4">
+        <f>+Q16</f>
+        <v>308.3</v>
+      </c>
+      <c r="V16" s="4">
+        <f>+R16</f>
+        <v>300.52</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="4"/>
         <v>1105.048</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" si="17"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="16"/>
         <v>1134.704</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" si="4"/>
-        <v>972.65125471875001</v>
-      </c>
-      <c r="X16" s="3">
-        <f>+X13*0.25</f>
-        <v>738.60840092656235</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" ref="Y16:AI16" si="48">+Y13*0.25</f>
-        <v>748.07970784679696</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="48"/>
-        <v>785.67147197987902</v>
-      </c>
       <c r="AA16" s="3">
-        <f t="shared" si="48"/>
-        <v>801.43524449422512</v>
+        <f t="shared" si="5"/>
+        <v>1146.2059999999999</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="48"/>
-        <v>730.78094327435099</v>
+        <f>+AB13*0.25</f>
+        <v>767.75792000000013</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="48"/>
-        <v>689.49250650876377</v>
+        <f t="shared" ref="AC16:AM16" si="41">+AC13*0.25</f>
+        <v>788.86906255000008</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="48"/>
-        <v>668.57695578994264</v>
+        <f t="shared" si="41"/>
+        <v>833.66519874950006</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="48"/>
-        <v>662.03773150440088</v>
+        <f t="shared" si="41"/>
+        <v>852.95011665200536</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="48"/>
-        <v>665.83629955580329</v>
+        <f t="shared" si="41"/>
+        <v>782.42089655533528</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="48"/>
-        <v>381.80840606456076</v>
+        <f t="shared" si="41"/>
+        <v>741.35122189791446</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="48"/>
-        <v>155.89221576422577</v>
+        <f t="shared" si="41"/>
+        <v>720.85682896544233</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="48"/>
-        <v>104.92872713148509</v>
-      </c>
-    </row>
-    <row r="17" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>714.96006625470147</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="41"/>
+        <v>719.60767316614874</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="41"/>
+        <v>419.83588120633135</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="41"/>
+        <v>181.3101183748127</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="41"/>
+        <v>127.55987310470771</v>
+      </c>
+    </row>
+    <row r="17" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
@@ -2870,17 +3050,39 @@
       <c r="O17" s="4">
         <v>173.91800000000001</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>192.01900000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>234.40199999999999</v>
+      </c>
+      <c r="R17" s="3">
+        <v>201.107</v>
+      </c>
+      <c r="S17" s="3">
+        <v>222.84700000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>203.46299999999999</v>
+      </c>
       <c r="U17" s="3">
-        <f t="shared" si="3"/>
+        <f>+Q17</f>
+        <v>234.40199999999999</v>
+      </c>
+      <c r="V17" s="3">
+        <f>+R17</f>
+        <v>201.107</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="4"/>
         <v>451.02600000000001</v>
       </c>
-      <c r="V17" s="3">
-        <f t="shared" si="17"/>
+      <c r="Z17" s="3">
+        <f t="shared" si="16"/>
         <v>521.08500000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2904,103 +3106,119 @@
         <v>403.02200000000005</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:M18" si="49">+J16+J17</f>
+        <f t="shared" ref="J18:M18" si="42">+J16+J17</f>
         <v>468.75700000000001</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>375.16</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>405.21199999999999</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>395.54900000000004</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18" si="50">+N16+N17</f>
+        <f t="shared" ref="N18" si="43">+N16+N17</f>
         <v>479.86799999999994</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="51">+O16+O17</f>
+        <f t="shared" ref="O18" si="44">+O16+O17</f>
         <v>434.43299999999999</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="52">+P16+P17</f>
-        <v>227.89663750000003</v>
+        <f t="shared" ref="P18" si="45">+P16+P17</f>
+        <v>468.89</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="53">+Q16+Q17</f>
-        <v>237.41459187500001</v>
+        <f t="shared" ref="Q18" si="46">+Q16+Q17</f>
+        <v>542.702</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18" si="54">+R16+R17</f>
-        <v>246.82502534375001</v>
+        <f t="shared" ref="R18:S18" si="47">+R16+R17</f>
+        <v>501.62699999999995</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="47"/>
+        <v>574.55899999999997</v>
+      </c>
+      <c r="T18" s="4">
+        <f>+T16+T17</f>
+        <v>506.84900000000005</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" ref="U18:V18" si="55">+U16+U17</f>
+        <f t="shared" ref="U18:V18" si="48">+U16+U17</f>
+        <v>542.702</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="48"/>
+        <v>501.62699999999995</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" ref="Y18" si="49">+Y16+Y17</f>
         <v>1556.0740000000001</v>
       </c>
-      <c r="V18" s="4">
-        <f t="shared" ref="V18:W18" si="56">+V16+V17</f>
+      <c r="Z18" s="4">
+        <f t="shared" ref="Z18:AA18" si="50">+Z16+Z17</f>
         <v>1655.789</v>
       </c>
-      <c r="W18" s="4">
-        <f t="shared" si="56"/>
-        <v>972.65125471875001</v>
-      </c>
-      <c r="X18" s="4">
-        <f t="shared" ref="X18" si="57">+X16+X17</f>
-        <v>738.60840092656235</v>
-      </c>
-      <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="58">+Y16+Y17</f>
-        <v>748.07970784679696</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" ref="Z18" si="59">+Z16+Z17</f>
-        <v>785.67147197987902</v>
-      </c>
       <c r="AA18" s="4">
-        <f t="shared" ref="AA18" si="60">+AA16+AA17</f>
-        <v>801.43524449422512</v>
+        <f t="shared" si="50"/>
+        <v>1146.2059999999999</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18" si="61">+AB16+AB17</f>
-        <v>730.78094327435099</v>
+        <f t="shared" ref="AB18" si="51">+AB16+AB17</f>
+        <v>767.75792000000013</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" ref="AC18" si="62">+AC16+AC17</f>
-        <v>689.49250650876377</v>
+        <f t="shared" ref="AC18" si="52">+AC16+AC17</f>
+        <v>788.86906255000008</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" ref="AD18" si="63">+AD16+AD17</f>
-        <v>668.57695578994264</v>
+        <f t="shared" ref="AD18" si="53">+AD16+AD17</f>
+        <v>833.66519874950006</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18" si="64">+AE16+AE17</f>
-        <v>662.03773150440088</v>
+        <f t="shared" ref="AE18" si="54">+AE16+AE17</f>
+        <v>852.95011665200536</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" ref="AF18" si="65">+AF16+AF17</f>
-        <v>665.83629955580329</v>
+        <f t="shared" ref="AF18" si="55">+AF16+AF17</f>
+        <v>782.42089655533528</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" ref="AG18" si="66">+AG16+AG17</f>
-        <v>381.80840606456076</v>
+        <f t="shared" ref="AG18" si="56">+AG16+AG17</f>
+        <v>741.35122189791446</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" ref="AH18" si="67">+AH16+AH17</f>
-        <v>155.89221576422577</v>
+        <f t="shared" ref="AH18" si="57">+AH16+AH17</f>
+        <v>720.85682896544233</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" ref="AI18" si="68">+AI16+AI17</f>
-        <v>104.92872713148509</v>
-      </c>
-    </row>
-    <row r="19" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AI18" si="58">+AI16+AI17</f>
+        <v>714.96006625470147</v>
+      </c>
+      <c r="AJ18" s="4">
+        <f t="shared" ref="AJ18" si="59">+AJ16+AJ17</f>
+        <v>719.60767316614874</v>
+      </c>
+      <c r="AK18" s="4">
+        <f t="shared" ref="AK18" si="60">+AK16+AK17</f>
+        <v>419.83588120633135</v>
+      </c>
+      <c r="AL18" s="4">
+        <f t="shared" ref="AL18" si="61">+AL16+AL17</f>
+        <v>181.3101183748127</v>
+      </c>
+      <c r="AM18" s="4">
+        <f t="shared" ref="AM18" si="62">+AM16+AM17</f>
+        <v>127.55987310470771</v>
+      </c>
+    </row>
+    <row r="19" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
@@ -3024,103 +3242,119 @@
         <v>376.221</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" ref="J19:M19" si="69">+J15-J18</f>
+        <f t="shared" ref="J19:M19" si="63">+J15-J18</f>
         <v>369.86399999999998</v>
       </c>
       <c r="K19" s="4">
+        <f t="shared" si="63"/>
+        <v>390.35499999999996</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="63"/>
+        <v>474.42100000000005</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="63"/>
+        <v>488.00000000000006</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19" si="64">+N15-N18</f>
+        <v>398.86900000000003</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" ref="O19" si="65">+O15-O18</f>
+        <v>393.65100000000007</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" ref="P19" si="66">+P15-P18</f>
+        <v>390.88999999999987</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" ref="Q19" si="67">+Q15-Q18</f>
+        <v>327.28499999999997</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" ref="R19:S19" si="68">+R15-R18</f>
+        <v>439.06999999999994</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="68"/>
+        <v>231.93700000000024</v>
+      </c>
+      <c r="T19" s="4">
+        <f>+T15-T18</f>
+        <v>444.5630000000001</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19:V19" si="69">+U15-U18</f>
+        <v>381.90985900000032</v>
+      </c>
+      <c r="V19" s="4">
         <f t="shared" si="69"/>
-        <v>390.35499999999996</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="69"/>
-        <v>474.42100000000005</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="69"/>
-        <v>488.00000000000006</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" ref="N19" si="70">+N15-N18</f>
-        <v>398.86900000000003</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" ref="O19" si="71">+O15-O18</f>
-        <v>393.65100000000007</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" ref="P19" si="72">+P15-P18</f>
-        <v>628.99471950000009</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" ref="Q19" si="73">+Q15-Q18</f>
-        <v>655.26427357500006</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" ref="R19" si="74">+R15-R18</f>
-        <v>681.2370699487501</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" ref="U19:V19" si="75">+U15-U18</f>
+        <v>481.05536100000006</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" ref="Y19" si="70">+Y15-Y18</f>
         <v>1332.7629999999999</v>
       </c>
-      <c r="V19" s="4">
-        <f t="shared" ref="V19:W19" si="76">+V15-V18</f>
+      <c r="Z19" s="4">
+        <f t="shared" ref="Z19:AA19" si="71">+Z15-Z18</f>
         <v>1751.6449999999998</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" si="76"/>
-        <v>2533.0650630237506</v>
-      </c>
-      <c r="X19" s="4">
-        <f t="shared" ref="X19" si="77">+X15-X18</f>
-        <v>2038.5591865573119</v>
-      </c>
-      <c r="Y19" s="4">
-        <f t="shared" ref="Y19" si="78">+Y15-Y18</f>
-        <v>2064.6999936571592</v>
-      </c>
-      <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="79">+Z15-Z18</f>
-        <v>2168.4532626644659</v>
-      </c>
       <c r="AA19" s="4">
-        <f t="shared" ref="AA19" si="80">+AA15-AA18</f>
-        <v>2211.9612748040613</v>
+        <f t="shared" si="71"/>
+        <v>2352.3420000000006</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" ref="AB19" si="81">+AB15-AB18</f>
-        <v>2016.9554034372086</v>
+        <f t="shared" ref="AB19" si="72">+AB15-AB18</f>
+        <v>2119.0118592000003</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" ref="AC19" si="82">+AC15-AC18</f>
-        <v>1902.9993179641883</v>
+        <f t="shared" ref="AC19" si="73">+AC15-AC18</f>
+        <v>2177.2786126380006</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" ref="AD19" si="83">+AD15-AD18</f>
-        <v>1845.2723979802417</v>
+        <f t="shared" ref="AD19" si="74">+AD15-AD18</f>
+        <v>2300.9159485486202</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" ref="AE19" si="84">+AE15-AE18</f>
-        <v>1827.2241389521466</v>
+        <f t="shared" ref="AE19" si="75">+AE15-AE18</f>
+        <v>2354.1423219595349</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" ref="AF19" si="85">+AF15-AF18</f>
-        <v>1837.7081867740171</v>
+        <f t="shared" ref="AF19" si="76">+AF15-AF18</f>
+        <v>2159.4816744927252</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" ref="AG19" si="86">+AG15-AG18</f>
-        <v>1053.7912007381876</v>
+        <f t="shared" ref="AG19" si="77">+AG15-AG18</f>
+        <v>2046.129372438244</v>
       </c>
       <c r="AH19" s="4">
-        <f t="shared" ref="AH19" si="87">+AH15-AH18</f>
-        <v>430.26251550926315</v>
+        <f t="shared" ref="AH19" si="78">+AH15-AH18</f>
+        <v>1989.5648479446209</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" ref="AI19" si="88">+AI15-AI18</f>
-        <v>289.60328688289883</v>
-      </c>
-    </row>
-    <row r="20" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AI19" si="79">+AI15-AI18</f>
+        <v>1973.2897828629762</v>
+      </c>
+      <c r="AJ19" s="4">
+        <f t="shared" ref="AJ19" si="80">+AJ15-AJ18</f>
+        <v>1986.1171779385704</v>
+      </c>
+      <c r="AK19" s="4">
+        <f t="shared" ref="AK19" si="81">+AK15-AK18</f>
+        <v>1158.7470321294745</v>
+      </c>
+      <c r="AL19" s="4">
+        <f t="shared" ref="AL19" si="82">+AL15-AL18</f>
+        <v>500.41592671448308</v>
+      </c>
+      <c r="AM19" s="4">
+        <f t="shared" ref="AM19" si="83">+AM15-AM18</f>
+        <v>352.06524976899328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -3158,79 +3392,90 @@
         <v>-74.147000000000006</v>
       </c>
       <c r="P20" s="4">
-        <f>+O20</f>
-        <v>-74.147000000000006</v>
+        <v>-73.47</v>
       </c>
       <c r="Q20" s="3">
-        <f>+P20</f>
-        <v>-74.147000000000006</v>
+        <v>-71.497</v>
       </c>
       <c r="R20" s="3">
-        <f>+Q20</f>
-        <v>-74.147000000000006</v>
+        <v>-70.323999999999998</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-66.116</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-62.023000000000003</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" ref="U20:U22" si="89">SUM(G20:J20)</f>
+        <f>+T20+2</f>
+        <v>-60.023000000000003</v>
+      </c>
+      <c r="V20" s="3">
+        <f>+U20+2</f>
+        <v>-58.023000000000003</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" ref="Y20:Y22" si="84">SUM(G20:J20)</f>
         <v>-186.11099999999999</v>
       </c>
-      <c r="V20" s="3">
-        <f t="shared" ref="V20:V22" si="90">SUM(K20:N20)</f>
+      <c r="Z20" s="3">
+        <f t="shared" ref="Z20:Z22" si="85">SUM(K20:N20)</f>
         <v>-256.24</v>
       </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20:W22" si="91">SUM(O20:R20)</f>
-        <v>-296.58800000000002</v>
-      </c>
-      <c r="X20" s="3">
-        <f>+W33*0.05</f>
+      <c r="AA20" s="3">
+        <f t="shared" ref="AA20:AA22" si="86">SUM(O20:R20)</f>
+        <v>-289.43800000000005</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>+AA32*0.05</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="3">
-        <f>+X33*0.05</f>
-        <v>91.735163395079041</v>
-      </c>
-      <c r="Z20" s="3">
-        <f>+Y33*$AL$26</f>
-        <v>75.509898184971902</v>
-      </c>
-      <c r="AA20" s="3">
-        <f>+Z33*$AL$26</f>
-        <v>115.90123508026178</v>
-      </c>
-      <c r="AB20" s="3">
-        <f>+AA33*$AL$26</f>
-        <v>157.8027602581796</v>
-      </c>
       <c r="AC20" s="3">
-        <f>+AB33*$AL$26</f>
-        <v>196.94840720469657</v>
+        <f>+AB32*0.05</f>
+        <v>95.355533664000021</v>
       </c>
       <c r="AD20" s="3">
-        <f>+AC33*$AL$26</f>
-        <v>234.74746625773651</v>
+        <f>+AC32*$AP$28</f>
+        <v>79.049628099036013</v>
       </c>
       <c r="AE20" s="3">
-        <f>+AD33*$AL$26</f>
-        <v>272.18782381402008</v>
+        <f>+AD32*$AP$28</f>
+        <v>121.88900847869384</v>
       </c>
       <c r="AF20" s="3">
-        <f>+AE33*$AL$26</f>
-        <v>309.97723914381112</v>
+        <f>+AE32*$AP$28</f>
+        <v>166.45757242658198</v>
       </c>
       <c r="AG20" s="3">
-        <f>+AF33*$AL$26</f>
-        <v>348.635576810332</v>
+        <f>+AF32*$AP$28</f>
+        <v>208.32447887112951</v>
       </c>
       <c r="AH20" s="3">
-        <f>+AG33*$AL$26</f>
-        <v>373.87925880620531</v>
+        <f>+AG32*$AP$28</f>
+        <v>248.90464819469824</v>
       </c>
       <c r="AI20" s="3">
-        <f>+AH33*$AL$26</f>
-        <v>388.35381074388374</v>
-      </c>
-    </row>
-    <row r="21" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AH32*$AP$28</f>
+        <v>289.19709912520602</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>+AI32*$AP$28</f>
+        <v>329.92186300099326</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>+AJ32*$AP$28</f>
+        <v>371.6105657379054</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>+AK32*$AP$28</f>
+        <v>399.15700249951828</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>+AL32*$AP$28</f>
+        <v>415.34931522537033</v>
+      </c>
+    </row>
+    <row r="21" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
@@ -3238,31 +3483,31 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f t="shared" ref="F21:L21" si="92">+F19+F20</f>
+        <f t="shared" ref="F21:L21" si="87">+F19+F20</f>
         <v>296.34599999999995</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>261.37</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>266.52199999999999</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>310.89400000000001</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>307.86599999999999</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>331.83899999999994</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>416.80400000000003</v>
       </c>
       <c r="M21" s="4">
@@ -3270,87 +3515,103 @@
         <v>422.01800000000003</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:R21" si="93">+N19+N20</f>
+        <f t="shared" ref="N21:V21" si="88">+N19+N20</f>
         <v>324.74400000000003</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>319.50400000000008</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="93"/>
-        <v>554.84771950000004</v>
+        <f t="shared" si="88"/>
+        <v>317.41999999999985</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="93"/>
-        <v>581.11727357500001</v>
+        <f t="shared" si="88"/>
+        <v>255.78799999999995</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="93"/>
-        <v>607.09006994875006</v>
+        <f t="shared" si="88"/>
+        <v>368.74599999999992</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="88"/>
+        <v>165.82100000000025</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="88"/>
+        <v>382.54000000000008</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" ref="U21:W21" si="94">+U19+U20</f>
+        <f t="shared" si="88"/>
+        <v>321.8868590000003</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="88"/>
+        <v>423.03236100000004</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" ref="Y21:AA21" si="89">+Y19+Y20</f>
         <v>1146.652</v>
       </c>
-      <c r="V21" s="4">
-        <f t="shared" si="94"/>
+      <c r="Z21" s="4">
+        <f t="shared" si="89"/>
         <v>1495.4049999999997</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" si="94"/>
-        <v>2236.4770630237504</v>
-      </c>
-      <c r="X21" s="4">
-        <f t="shared" ref="X21" si="95">+X19+X20</f>
-        <v>2038.5591865573119</v>
-      </c>
-      <c r="Y21" s="4">
-        <f t="shared" ref="Y21" si="96">+Y19+Y20</f>
-        <v>2156.4351570522381</v>
-      </c>
-      <c r="Z21" s="4">
-        <f t="shared" ref="Z21" si="97">+Z19+Z20</f>
-        <v>2243.9631608494378</v>
-      </c>
       <c r="AA21" s="4">
-        <f t="shared" ref="AA21" si="98">+AA19+AA20</f>
-        <v>2327.8625098843231</v>
+        <f t="shared" si="89"/>
+        <v>2062.9040000000005</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" ref="AB21" si="99">+AB19+AB20</f>
-        <v>2174.7581636953882</v>
+        <f t="shared" ref="AB21" si="90">+AB19+AB20</f>
+        <v>2119.0118592000003</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" ref="AC21" si="100">+AC19+AC20</f>
-        <v>2099.947725168885</v>
+        <f t="shared" ref="AC21" si="91">+AC19+AC20</f>
+        <v>2272.6341463020008</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" ref="AD21" si="101">+AD19+AD20</f>
-        <v>2080.0198642379783</v>
+        <f t="shared" ref="AD21" si="92">+AD19+AD20</f>
+        <v>2379.9655766476562</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" ref="AE21" si="102">+AE19+AE20</f>
-        <v>2099.4119627661667</v>
+        <f t="shared" ref="AE21" si="93">+AE19+AE20</f>
+        <v>2476.0313304382289</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" ref="AF21" si="103">+AF19+AF20</f>
-        <v>2147.6854259178281</v>
+        <f t="shared" ref="AF21" si="94">+AF19+AF20</f>
+        <v>2325.9392469193072</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21" si="104">+AG19+AG20</f>
-        <v>1402.4267775485196</v>
+        <f t="shared" ref="AG21" si="95">+AG19+AG20</f>
+        <v>2254.4538513093735</v>
       </c>
       <c r="AH21" s="4">
-        <f t="shared" ref="AH21" si="105">+AH19+AH20</f>
-        <v>804.14177431546841</v>
+        <f t="shared" ref="AH21" si="96">+AH19+AH20</f>
+        <v>2238.4694961393193</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" ref="AI21" si="106">+AI19+AI20</f>
-        <v>677.95709762678257</v>
-      </c>
-    </row>
-    <row r="22" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AI21" si="97">+AI19+AI20</f>
+        <v>2262.4868819881822</v>
+      </c>
+      <c r="AJ21" s="4">
+        <f t="shared" ref="AJ21" si="98">+AJ19+AJ20</f>
+        <v>2316.0390409395636</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" ref="AK21" si="99">+AK19+AK20</f>
+        <v>1530.3575978673798</v>
+      </c>
+      <c r="AL21" s="4">
+        <f t="shared" ref="AL21" si="100">+AL19+AL20</f>
+        <v>899.57292921400131</v>
+      </c>
+      <c r="AM21" s="4">
+        <f t="shared" ref="AM21" si="101">+AM19+AM20</f>
+        <v>767.41456499436367</v>
+      </c>
+    </row>
+    <row r="22" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>38</v>
       </c>
@@ -3388,79 +3649,90 @@
         <v>40.197000000000003</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" ref="P22:R22" si="107">+P21*0.15</f>
-        <v>83.227157925</v>
+        <v>24.323</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="107"/>
-        <v>87.167591036250002</v>
+        <v>47.176000000000002</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="107"/>
-        <v>91.063510492312503</v>
-      </c>
-      <c r="U22" s="3">
-        <f t="shared" si="89"/>
+        <v>33.088999999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>11.669</v>
+      </c>
+      <c r="T22" s="4">
+        <v>23.52</v>
+      </c>
+      <c r="U22" s="4">
+        <f>+U21*0.1</f>
+        <v>32.188685900000031</v>
+      </c>
+      <c r="V22" s="4">
+        <f>+V21*0.1</f>
+        <v>42.303236100000007</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="84"/>
         <v>148.76399999999998</v>
       </c>
-      <c r="V22" s="3">
-        <f t="shared" si="90"/>
+      <c r="Z22" s="3">
+        <f t="shared" si="85"/>
         <v>137.99600000000001</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" si="91"/>
-        <v>301.65525945356251</v>
-      </c>
-      <c r="X22" s="3">
-        <f>+X21*0.1</f>
-        <v>203.85591865573122</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" ref="Y22:AI22" si="108">+Y21*0.1</f>
-        <v>215.64351570522382</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="108"/>
-        <v>224.39631608494381</v>
-      </c>
       <c r="AA22" s="3">
-        <f t="shared" si="108"/>
-        <v>232.78625098843233</v>
+        <f t="shared" si="86"/>
+        <v>144.78500000000003</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="108"/>
-        <v>217.47581636953885</v>
+        <f>+AB21*0.1</f>
+        <v>211.90118592000005</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="108"/>
-        <v>209.9947725168885</v>
+        <f t="shared" ref="AC22:AM22" si="102">+AC21*0.1</f>
+        <v>227.26341463020009</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="108"/>
-        <v>208.00198642379783</v>
+        <f t="shared" si="102"/>
+        <v>237.99655766476565</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="108"/>
-        <v>209.94119627661667</v>
+        <f t="shared" si="102"/>
+        <v>247.60313304382291</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="108"/>
-        <v>214.76854259178282</v>
+        <f t="shared" si="102"/>
+        <v>232.59392469193074</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="108"/>
-        <v>140.24267775485197</v>
+        <f t="shared" si="102"/>
+        <v>225.44538513093735</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="108"/>
-        <v>80.414177431546847</v>
+        <f t="shared" si="102"/>
+        <v>223.84694961393194</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="108"/>
-        <v>67.795709762678257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="102"/>
+        <v>226.24868819881823</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="102"/>
+        <v>231.60390409395637</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="102"/>
+        <v>153.035759786738</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="102"/>
+        <v>89.957292921400139</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="102"/>
+        <v>76.741456499436367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
@@ -3468,31 +3740,31 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:L23" si="109">+F21-F22</f>
+        <f t="shared" ref="F23:L23" si="103">+F21-F22</f>
         <v>266.37799999999993</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>223.71100000000001</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>236.26</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>267.30500000000001</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>270.61199999999997</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>276.61599999999993</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>378.41700000000003</v>
       </c>
       <c r="M23" s="4">
@@ -3504,452 +3776,484 @@
         <v>324.74400000000003</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23:R23" si="110">+O21-O22</f>
+        <f t="shared" ref="O23:V23" si="104">+O21-O22</f>
         <v>279.30700000000007</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="110"/>
-        <v>471.62056157500001</v>
+        <f t="shared" si="104"/>
+        <v>293.09699999999987</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="110"/>
-        <v>493.94968253875004</v>
+        <f t="shared" si="104"/>
+        <v>208.61199999999997</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="110"/>
-        <v>516.02655945643755</v>
+        <f t="shared" si="104"/>
+        <v>335.65699999999993</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="104"/>
+        <v>154.15200000000024</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="104"/>
+        <v>359.0200000000001</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" ref="U23:X23" si="111">+U21-U22</f>
+        <f t="shared" si="104"/>
+        <v>289.69817310000025</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="104"/>
+        <v>380.72912490000004</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23:AB23" si="105">+Y21-Y22</f>
         <v>997.88800000000003</v>
       </c>
-      <c r="V23" s="4">
-        <f t="shared" si="111"/>
+      <c r="Z23" s="4">
+        <f t="shared" si="105"/>
         <v>1357.4089999999997</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" si="111"/>
-        <v>1934.821803570188</v>
-      </c>
-      <c r="X23" s="4">
-        <f t="shared" si="111"/>
-        <v>1834.7032679015806</v>
-      </c>
-      <c r="Y23" s="4">
-        <f t="shared" ref="Y23" si="112">+Y21-Y22</f>
-        <v>1940.7916413470143</v>
-      </c>
-      <c r="Z23" s="4">
-        <f t="shared" ref="Z23" si="113">+Z21-Z22</f>
-        <v>2019.5668447644939</v>
-      </c>
       <c r="AA23" s="4">
-        <f t="shared" ref="AA23" si="114">+AA21-AA22</f>
-        <v>2095.076258895891</v>
+        <f t="shared" si="105"/>
+        <v>1918.1190000000004</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" ref="AB23" si="115">+AB21-AB22</f>
-        <v>1957.2823473258495</v>
+        <f t="shared" si="105"/>
+        <v>1907.1106732800004</v>
       </c>
       <c r="AC23" s="4">
-        <f t="shared" ref="AC23" si="116">+AC21-AC22</f>
-        <v>1889.9529526519964</v>
+        <f t="shared" ref="AC23" si="106">+AC21-AC22</f>
+        <v>2045.3707316718007</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" ref="AD23" si="117">+AD21-AD22</f>
-        <v>1872.0178778141803</v>
+        <f t="shared" ref="AD23" si="107">+AD21-AD22</f>
+        <v>2141.9690189828907</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" ref="AE23" si="118">+AE21-AE22</f>
-        <v>1889.47076648955</v>
+        <f t="shared" ref="AE23" si="108">+AE21-AE22</f>
+        <v>2228.4281973944062</v>
       </c>
       <c r="AF23" s="4">
-        <f t="shared" ref="AF23" si="119">+AF21-AF22</f>
-        <v>1932.9168833260453</v>
+        <f t="shared" ref="AF23" si="109">+AF21-AF22</f>
+        <v>2093.3453222273765</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" ref="AG23" si="120">+AG21-AG22</f>
-        <v>1262.1840997936677</v>
+        <f t="shared" ref="AG23" si="110">+AG21-AG22</f>
+        <v>2029.008466178436</v>
       </c>
       <c r="AH23" s="4">
-        <f t="shared" ref="AH23" si="121">+AH21-AH22</f>
-        <v>723.72759688392159</v>
+        <f t="shared" ref="AH23" si="111">+AH21-AH22</f>
+        <v>2014.6225465253874</v>
       </c>
       <c r="AI23" s="4">
-        <f t="shared" ref="AI23" si="122">+AI21-AI22</f>
-        <v>610.16138786410431</v>
-      </c>
-      <c r="AJ23" s="3">
-        <f>+AI23*(1+$AL$25)</f>
-        <v>579.65331847089908</v>
-      </c>
-      <c r="AK23" s="3">
-        <f t="shared" ref="AK23:CT23" si="123">+AJ23*(1+$AL$25)</f>
-        <v>550.67065254735405</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="123"/>
-        <v>523.13711991998628</v>
-      </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="123"/>
-        <v>496.98026392398691</v>
+        <f t="shared" ref="AI23" si="112">+AI21-AI22</f>
+        <v>2036.238193789364</v>
+      </c>
+      <c r="AJ23" s="4">
+        <f t="shared" ref="AJ23" si="113">+AJ21-AJ22</f>
+        <v>2084.4351368456073</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" ref="AK23" si="114">+AK21-AK22</f>
+        <v>1377.3218380806418</v>
+      </c>
+      <c r="AL23" s="4">
+        <f t="shared" ref="AL23" si="115">+AL21-AL22</f>
+        <v>809.61563629260115</v>
+      </c>
+      <c r="AM23" s="4">
+        <f t="shared" ref="AM23" si="116">+AM21-AM22</f>
+        <v>690.67310849492731</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="123"/>
-        <v>472.13125072778752</v>
+        <f>+AM23*(1+$AP$27)</f>
+        <v>656.13945307018093</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="123"/>
-        <v>448.52468819139813</v>
+        <f>+AN23*(1+$AP$27)</f>
+        <v>623.33248041667184</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" si="123"/>
-        <v>426.0984537818282</v>
+        <f>+AO23*(1+$AP$27)</f>
+        <v>592.1658563958382</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="123"/>
-        <v>404.79353109273677</v>
+        <f>+AP23*(1+$AP$27)</f>
+        <v>562.55756357604628</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="123"/>
-        <v>384.55385453809993</v>
+        <f>+AQ23*(1+$AP$27)</f>
+        <v>534.42968539724393</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="123"/>
-        <v>365.32616181119494</v>
+        <f>+AR23*(1+$AP$27)</f>
+        <v>507.7082011273817</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="123"/>
-        <v>347.05985372063515</v>
+        <f>+AS23*(1+$AP$27)</f>
+        <v>482.3227910710126</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="123"/>
-        <v>329.70686103460338</v>
+        <f>+AT23*(1+$AP$27)</f>
+        <v>458.20665151746198</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="123"/>
-        <v>313.22151798287319</v>
+        <f>+AU23*(1+$AP$27)</f>
+        <v>435.29631894158888</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="123"/>
-        <v>297.56044208372953</v>
+        <f>+AV23*(1+$AP$27)</f>
+        <v>413.53150299450942</v>
       </c>
       <c r="AX23" s="3">
-        <f t="shared" si="123"/>
-        <v>282.68241997954306</v>
+        <f>+AW23*(1+$AP$27)</f>
+        <v>392.85492784478396</v>
       </c>
       <c r="AY23" s="3">
-        <f t="shared" si="123"/>
-        <v>268.5482989805659</v>
+        <f>+AX23*(1+$AP$27)</f>
+        <v>373.21218145254477</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="123"/>
-        <v>255.1208840315376</v>
+        <f>+AY23*(1+$AP$27)</f>
+        <v>354.5515723799175</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="123"/>
-        <v>242.36483982996072</v>
+        <f>+AZ23*(1+$AP$27)</f>
+        <v>336.82399376092161</v>
       </c>
       <c r="BB23" s="3">
-        <f t="shared" si="123"/>
-        <v>230.24659783846266</v>
+        <f>+BA23*(1+$AP$27)</f>
+        <v>319.98279407287549</v>
       </c>
       <c r="BC23" s="3">
-        <f t="shared" si="123"/>
-        <v>218.73426794653952</v>
+        <f>+BB23*(1+$AP$27)</f>
+        <v>303.98365436923172</v>
       </c>
       <c r="BD23" s="3">
-        <f t="shared" si="123"/>
-        <v>207.79755454921252</v>
+        <f>+BC23*(1+$AP$27)</f>
+        <v>288.78447165077012</v>
       </c>
       <c r="BE23" s="3">
-        <f t="shared" si="123"/>
-        <v>197.40767682175189</v>
+        <f>+BD23*(1+$AP$27)</f>
+        <v>274.34524806823157</v>
       </c>
       <c r="BF23" s="3">
-        <f t="shared" si="123"/>
-        <v>187.53729298066429</v>
+        <f>+BE23*(1+$AP$27)</f>
+        <v>260.62798566481996</v>
       </c>
       <c r="BG23" s="3">
-        <f t="shared" si="123"/>
-        <v>178.16042833163107</v>
+        <f>+BF23*(1+$AP$27)</f>
+        <v>247.59658638157896</v>
       </c>
       <c r="BH23" s="3">
-        <f t="shared" si="123"/>
-        <v>169.25240691504951</v>
+        <f>+BG23*(1+$AP$27)</f>
+        <v>235.21675706249999</v>
       </c>
       <c r="BI23" s="3">
-        <f t="shared" si="123"/>
-        <v>160.78978656929704</v>
+        <f>+BH23*(1+$AP$27)</f>
+        <v>223.455919209375</v>
       </c>
       <c r="BJ23" s="3">
-        <f t="shared" si="123"/>
-        <v>152.75029724083217</v>
+        <f>+BI23*(1+$AP$27)</f>
+        <v>212.28312324890624</v>
       </c>
       <c r="BK23" s="3">
-        <f t="shared" si="123"/>
-        <v>145.11278237879054</v>
+        <f>+BJ23*(1+$AP$27)</f>
+        <v>201.66896708646092</v>
       </c>
       <c r="BL23" s="3">
-        <f t="shared" si="123"/>
-        <v>137.857143259851</v>
+        <f>+BK23*(1+$AP$27)</f>
+        <v>191.58551873213787</v>
       </c>
       <c r="BM23" s="3">
-        <f t="shared" si="123"/>
-        <v>130.96428609685844</v>
+        <f>+BL23*(1+$AP$27)</f>
+        <v>182.00624279553097</v>
       </c>
       <c r="BN23" s="3">
-        <f t="shared" si="123"/>
-        <v>124.41607179201552</v>
+        <f>+BM23*(1+$AP$27)</f>
+        <v>172.90593065575442</v>
       </c>
       <c r="BO23" s="3">
-        <f t="shared" si="123"/>
-        <v>118.19526820241474</v>
+        <f>+BN23*(1+$AP$27)</f>
+        <v>164.26063412296668</v>
       </c>
       <c r="BP23" s="3">
-        <f t="shared" si="123"/>
-        <v>112.28550479229399</v>
+        <f>+BO23*(1+$AP$27)</f>
+        <v>156.04760241681834</v>
       </c>
       <c r="BQ23" s="3">
-        <f t="shared" si="123"/>
-        <v>106.67122955267929</v>
+        <f>+BP23*(1+$AP$27)</f>
+        <v>148.24522229597741</v>
       </c>
       <c r="BR23" s="3">
-        <f t="shared" si="123"/>
-        <v>101.33766807504533</v>
+        <f>+BQ23*(1+$AP$27)</f>
+        <v>140.83296118117855</v>
       </c>
       <c r="BS23" s="3">
-        <f t="shared" si="123"/>
-        <v>96.270784671293057</v>
+        <f>+BR23*(1+$AP$27)</f>
+        <v>133.79131312211962</v>
       </c>
       <c r="BT23" s="3">
-        <f t="shared" si="123"/>
-        <v>91.457245437728403</v>
+        <f>+BS23*(1+$AP$27)</f>
+        <v>127.10174746601363</v>
       </c>
       <c r="BU23" s="3">
-        <f t="shared" si="123"/>
-        <v>86.884383165841982</v>
+        <f>+BT23*(1+$AP$27)</f>
+        <v>120.74666009271294</v>
       </c>
       <c r="BV23" s="3">
-        <f t="shared" si="123"/>
-        <v>82.540164007549876</v>
+        <f>+BU23*(1+$AP$27)</f>
+        <v>114.70932708807729</v>
       </c>
       <c r="BW23" s="3">
-        <f t="shared" si="123"/>
-        <v>78.413155807172373</v>
+        <f>+BV23*(1+$AP$27)</f>
+        <v>108.97386073367342</v>
       </c>
       <c r="BX23" s="3">
-        <f t="shared" si="123"/>
-        <v>74.492498016813755</v>
+        <f>+BW23*(1+$AP$27)</f>
+        <v>103.52516769698974</v>
       </c>
       <c r="BY23" s="3">
-        <f t="shared" si="123"/>
-        <v>70.76787311597306</v>
+        <f>+BX23*(1+$AP$27)</f>
+        <v>98.34890931214025</v>
       </c>
       <c r="BZ23" s="3">
-        <f t="shared" si="123"/>
-        <v>67.229479460174403</v>
+        <f>+BY23*(1+$AP$27)</f>
+        <v>93.431463846533234</v>
       </c>
       <c r="CA23" s="3">
-        <f t="shared" si="123"/>
-        <v>63.868005487165682</v>
+        <f>+BZ23*(1+$AP$27)</f>
+        <v>88.759890654206572</v>
       </c>
       <c r="CB23" s="3">
-        <f t="shared" si="123"/>
-        <v>60.674605212807393</v>
+        <f>+CA23*(1+$AP$27)</f>
+        <v>84.321896121496238</v>
       </c>
       <c r="CC23" s="3">
-        <f t="shared" si="123"/>
-        <v>57.640874952167017</v>
+        <f>+CB23*(1+$AP$27)</f>
+        <v>80.105801315421417</v>
       </c>
       <c r="CD23" s="3">
-        <f t="shared" si="123"/>
-        <v>54.75883120455866</v>
+        <f>+CC23*(1+$AP$27)</f>
+        <v>76.100511249650339</v>
       </c>
       <c r="CE23" s="3">
-        <f t="shared" si="123"/>
-        <v>52.020889644330722</v>
+        <f>+CD23*(1+$AP$27)</f>
+        <v>72.295485687167812</v>
       </c>
       <c r="CF23" s="3">
-        <f t="shared" si="123"/>
-        <v>49.419845162114186</v>
+        <f>+CE23*(1+$AP$27)</f>
+        <v>68.680711402809422</v>
       </c>
       <c r="CG23" s="3">
-        <f t="shared" si="123"/>
-        <v>46.948852904008476</v>
+        <f>+CF23*(1+$AP$27)</f>
+        <v>65.246675832668942</v>
       </c>
       <c r="CH23" s="3">
-        <f t="shared" si="123"/>
-        <v>44.601410258808052</v>
+        <f>+CG23*(1+$AP$27)</f>
+        <v>61.98434204103549</v>
       </c>
       <c r="CI23" s="3">
-        <f t="shared" si="123"/>
-        <v>42.371339745867644</v>
+        <f>+CH23*(1+$AP$27)</f>
+        <v>58.885124938983715</v>
       </c>
       <c r="CJ23" s="3">
-        <f t="shared" si="123"/>
-        <v>40.25277275857426</v>
+        <f>+CI23*(1+$AP$27)</f>
+        <v>55.940868692034527</v>
       </c>
       <c r="CK23" s="3">
-        <f t="shared" si="123"/>
-        <v>38.240134120645543</v>
+        <f>+CJ23*(1+$AP$27)</f>
+        <v>53.143825257432802</v>
       </c>
       <c r="CL23" s="3">
-        <f t="shared" si="123"/>
-        <v>36.328127414613263</v>
+        <f>+CK23*(1+$AP$27)</f>
+        <v>50.48663399456116</v>
       </c>
       <c r="CM23" s="3">
-        <f t="shared" si="123"/>
-        <v>34.511721043882595</v>
+        <f>+CL23*(1+$AP$27)</f>
+        <v>47.962302294833101</v>
       </c>
       <c r="CN23" s="3">
-        <f t="shared" si="123"/>
-        <v>32.786134991688463</v>
+        <f>+CM23*(1+$AP$27)</f>
+        <v>45.564187180091444</v>
       </c>
       <c r="CO23" s="3">
-        <f t="shared" si="123"/>
-        <v>31.146828242104039</v>
+        <f>+CN23*(1+$AP$27)</f>
+        <v>43.285977821086867</v>
       </c>
       <c r="CP23" s="3">
-        <f t="shared" si="123"/>
-        <v>29.589486829998837</v>
+        <f>+CO23*(1+$AP$27)</f>
+        <v>41.121678930032523</v>
       </c>
       <c r="CQ23" s="3">
-        <f t="shared" si="123"/>
-        <v>28.110012488498892</v>
+        <f>+CP23*(1+$AP$27)</f>
+        <v>39.065594983530893</v>
       </c>
       <c r="CR23" s="3">
-        <f t="shared" si="123"/>
-        <v>26.704511864073947</v>
+        <f>+CQ23*(1+$AP$27)</f>
+        <v>37.112315234354348</v>
       </c>
       <c r="CS23" s="3">
-        <f t="shared" si="123"/>
-        <v>25.369286270870248</v>
+        <f>+CR23*(1+$AP$27)</f>
+        <v>35.256699472636626</v>
       </c>
       <c r="CT23" s="3">
-        <f t="shared" si="123"/>
-        <v>24.100821957326733</v>
-      </c>
-    </row>
-    <row r="24" spans="2:98" x14ac:dyDescent="0.2">
+        <f>+CS23*(1+$AP$27)</f>
+        <v>33.493864499004793</v>
+      </c>
+      <c r="CU23" s="3">
+        <f>+CT23*(1+$AP$27)</f>
+        <v>31.81917127405455</v>
+      </c>
+      <c r="CV23" s="3">
+        <f>+CU23*(1+$AP$27)</f>
+        <v>30.228212710351823</v>
+      </c>
+      <c r="CW23" s="3">
+        <f>+CV23*(1+$AP$27)</f>
+        <v>28.716802074834231</v>
+      </c>
+      <c r="CX23" s="3">
+        <f>+CW23*(1+$AP$27)</f>
+        <v>27.280961971092516</v>
+      </c>
+    </row>
+    <row r="24" spans="2:102" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" ref="F24:M24" si="124">+F23/F25</f>
+        <f t="shared" ref="F24:M24" si="117">+F23/F25</f>
         <v>4.6590758036869895</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>3.8311270186494957</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>3.9742295787915487</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>4.3617420533907714</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>4.3999804887566452</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>4.3972212949274319</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>5.9658053633081627</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>6.0146850362347699</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" ref="N24:R24" si="125">+N23/N25</f>
+        <f t="shared" ref="N24:V24" si="118">+N23/N25</f>
         <v>5.1504155300386989</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>4.3989510819920001</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="125"/>
-        <v>7.4277972969886923</v>
+        <f t="shared" si="118"/>
+        <v>3.9855452814794647</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="125"/>
-        <v>7.7794702261434159</v>
+        <f t="shared" si="118"/>
+        <v>2.926121779136801</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="125"/>
-        <v>8.1271704327406926</v>
-      </c>
-      <c r="U24" s="20">
-        <f>+U23/U25</f>
+        <f t="shared" si="118"/>
+        <v>4.8176050981011285</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="118"/>
+        <v>2.4649727361402087</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="118"/>
+        <v>5.1564811490125688</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="118"/>
+        <v>4.1608355202872565</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="118"/>
+        <v>5.468281865709157</v>
+      </c>
+      <c r="Y24" s="20">
+        <f>+Y23/Y25</f>
         <v>16.588061239755973</v>
       </c>
-      <c r="V24" s="20">
-        <f>+V23/V25</f>
+      <c r="Z24" s="20">
+        <f>+Z23/Z25</f>
         <v>21.531222365420835</v>
       </c>
-      <c r="W24" s="20">
-        <f>+W23/W25</f>
-        <v>30.472513994553626</v>
-      </c>
-      <c r="X24" s="20">
-        <f t="shared" ref="X24:AI24" si="126">+X23/X25</f>
-        <v>28.895695150747798</v>
-      </c>
-      <c r="Y24" s="20">
-        <f t="shared" si="126"/>
-        <v>30.566536071865283</v>
-      </c>
-      <c r="Z24" s="20">
-        <f t="shared" si="126"/>
-        <v>31.807207685206379</v>
-      </c>
       <c r="AA24" s="20">
-        <f t="shared" si="126"/>
-        <v>32.996444686047361</v>
+        <f>+AA23/AA25</f>
+        <v>27.598834532374106</v>
       </c>
       <c r="AB24" s="20">
-        <f t="shared" si="126"/>
-        <v>30.82625676955066</v>
+        <f t="shared" ref="AB24:AM24" si="119">+AB23/AB25</f>
+        <v>27.44044134215828</v>
       </c>
       <c r="AC24" s="20">
-        <f t="shared" si="126"/>
-        <v>29.765851145808995</v>
+        <f t="shared" si="119"/>
+        <v>29.429794700313678</v>
       </c>
       <c r="AD24" s="20">
-        <f t="shared" si="126"/>
-        <v>29.483382332412202</v>
+        <f t="shared" si="119"/>
+        <v>30.819698114861737</v>
       </c>
       <c r="AE24" s="20">
-        <f t="shared" si="126"/>
-        <v>29.758256945373578</v>
+        <f t="shared" si="119"/>
+        <v>32.063715070423108</v>
       </c>
       <c r="AF24" s="20">
-        <f t="shared" si="126"/>
-        <v>30.442512415756532</v>
+        <f t="shared" si="119"/>
+        <v>30.120076578811172</v>
       </c>
       <c r="AG24" s="20">
-        <f t="shared" si="126"/>
-        <v>19.878793268555576</v>
+        <f t="shared" si="119"/>
+        <v>29.194366419833614</v>
       </c>
       <c r="AH24" s="20">
-        <f t="shared" si="126"/>
-        <v>11.398362000880738</v>
+        <f t="shared" si="119"/>
+        <v>28.987374770149458</v>
       </c>
       <c r="AI24" s="20">
-        <f t="shared" si="126"/>
-        <v>9.6097487615224164</v>
-      </c>
-    </row>
-    <row r="25" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="119"/>
+        <v>29.298391277544805</v>
+      </c>
+      <c r="AJ24" s="20">
+        <f t="shared" si="119"/>
+        <v>29.991872472598665</v>
+      </c>
+      <c r="AK24" s="20">
+        <f t="shared" si="119"/>
+        <v>19.817580404038011</v>
+      </c>
+      <c r="AL24" s="20">
+        <f t="shared" si="119"/>
+        <v>11.649145845936708</v>
+      </c>
+      <c r="AM24" s="20">
+        <f t="shared" si="119"/>
+        <v>9.9377425682723359</v>
+      </c>
+    </row>
+    <row r="25" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3987,400 +4291,449 @@
         <v>63.494</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" ref="O25:R25" si="127">+O25</f>
-        <v>63.494</v>
+        <v>73.540000000000006</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="127"/>
-        <v>63.494</v>
+        <v>71.293000000000006</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="127"/>
-        <v>63.494</v>
-      </c>
-      <c r="U25" s="3">
+        <v>69.673000000000002</v>
+      </c>
+      <c r="S25" s="4">
+        <v>62.536999999999999</v>
+      </c>
+      <c r="T25" s="4">
+        <v>69.625</v>
+      </c>
+      <c r="U25" s="4">
+        <f>+T25</f>
+        <v>69.625</v>
+      </c>
+      <c r="V25" s="4">
+        <f>+U25</f>
+        <v>69.625</v>
+      </c>
+      <c r="Y25" s="3">
         <f>AVERAGE(G25:J25)</f>
         <v>60.156999999999996</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <f>AVERAGE(K25:N25)</f>
         <v>63.043749999999996</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AA25" s="3">
         <f>AVERAGE(O25:R25)</f>
-        <v>63.494</v>
-      </c>
-      <c r="X25" s="3">
-        <f>+W25</f>
-        <v>63.494</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" ref="Y25:AI25" si="128">+X25</f>
-        <v>63.494</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
-      </c>
-      <c r="AA25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <v>69.5</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f>+AA25</f>
+        <v>69.5</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" ref="AC25:AM25" si="120">+AB25</f>
+        <v>69.5</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" si="120"/>
+        <v>69.5</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" si="120"/>
+        <v>69.5</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" si="120"/>
+        <v>69.5</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" si="120"/>
+        <v>69.5</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
+        <f t="shared" si="120"/>
+        <v>69.5</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="128"/>
-        <v>63.494</v>
-      </c>
-      <c r="AK25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL25" s="25">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="AK26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL26" s="25">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="2:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="AK27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL27" s="25">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="28" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+        <f t="shared" si="120"/>
+        <v>69.5</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="120"/>
+        <v>69.5</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" si="120"/>
+        <v>69.5</v>
+      </c>
+      <c r="AL25" s="3">
+        <f t="shared" si="120"/>
+        <v>69.5</v>
+      </c>
+      <c r="AM25" s="3">
+        <f t="shared" si="120"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:102" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="19">
-        <f t="shared" ref="F28:L28" si="129">+F15/F13</f>
+      <c r="F27" s="19">
+        <f>+F15/F13</f>
         <v>0.92742784932616296</v>
       </c>
-      <c r="G28" s="19">
-        <f t="shared" si="129"/>
+      <c r="G27" s="19">
+        <f>+G15/G13</f>
         <v>0.93713924563144668</v>
       </c>
-      <c r="H28" s="19">
-        <f t="shared" si="129"/>
+      <c r="H27" s="19">
+        <f>+H15/H13</f>
         <v>0.93319331587327137</v>
       </c>
-      <c r="I28" s="19">
-        <f t="shared" si="129"/>
+      <c r="I27" s="19">
+        <f>+I15/I13</f>
         <v>0.92975665630611559</v>
       </c>
-      <c r="J28" s="19">
-        <f t="shared" si="129"/>
+      <c r="J27" s="19">
+        <f>+J15/J13</f>
         <v>0.93519795791603055</v>
       </c>
-      <c r="K28" s="19">
-        <f t="shared" si="129"/>
+      <c r="K27" s="19">
+        <f>+K15/K13</f>
         <v>0.94075856466774233</v>
       </c>
-      <c r="L28" s="19">
-        <f t="shared" si="129"/>
+      <c r="L27" s="19">
+        <f>+L15/L13</f>
         <v>0.94292394075109498</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M27" s="19">
         <f>+M15/M13</f>
         <v>0.93929423421201474</v>
       </c>
-      <c r="N28" s="19">
-        <f t="shared" ref="N28:Q28" si="130">+N15/N13</f>
+      <c r="N27" s="19">
+        <f>+N15/N13</f>
         <v>0.9039360245565633</v>
       </c>
-      <c r="O28" s="19">
-        <f t="shared" si="130"/>
+      <c r="O27" s="19">
+        <f>+O15/O13</f>
         <v>0.92750097444926816</v>
       </c>
-      <c r="P28" s="19">
-        <f t="shared" si="130"/>
+      <c r="P27" s="19">
+        <f>+P15/P13</f>
+        <v>0.89811420877306047</v>
+      </c>
+      <c r="Q27" s="19">
+        <f>+Q15/Q13</f>
+        <v>0.89491945604542555</v>
+      </c>
+      <c r="R27" s="19">
+        <f>+R15/R13</f>
+        <v>0.9296021977696195</v>
+      </c>
+      <c r="S27" s="19">
+        <f>+S15/S13</f>
+        <v>0.89413658572279087</v>
+      </c>
+      <c r="T27" s="19">
+        <f>+T15/T13</f>
+        <v>0.92927209239860331</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" ref="U27:V27" si="121">+U15/U13</f>
+        <v>0.93</v>
+      </c>
+      <c r="V27" s="19">
+        <f t="shared" si="121"/>
+        <v>0.93</v>
+      </c>
+      <c r="Y27" s="19">
+        <f>+Y15/Y13</f>
+        <v>0.9336182284620641</v>
+      </c>
+      <c r="Z27" s="19">
+        <f>+Z15/Z13</f>
+        <v>0.93115215881186231</v>
+      </c>
+      <c r="AA27" s="19">
+        <f>+AA15/AA13</f>
+        <v>0.91245744879510848</v>
+      </c>
+      <c r="AB27" s="19">
+        <f>+AB15/AB13</f>
         <v>0.94</v>
       </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="130"/>
+      <c r="AC27" s="19">
+        <f>+AC15/AC13</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="R28" s="19">
-        <f>+R15/R13</f>
+      <c r="AD27" s="19">
+        <f>+AD15/AD13</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="U28" s="19">
-        <f t="shared" ref="U28:AI28" si="131">+U15/U13</f>
-        <v>0.9336182284620641</v>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.93115215881186231</v>
-      </c>
-      <c r="W28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.93701731752845241</v>
-      </c>
-      <c r="X28" s="19">
-        <f t="shared" si="131"/>
+      <c r="AE27" s="19">
+        <f>+AE15/AE13</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AF27" s="19">
+        <f>+AF15/AF13</f>
         <v>0.94</v>
       </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="131"/>
+      <c r="AG27" s="19">
+        <f>+AG15/AG13</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AH27" s="19">
+        <f>+AH15/AH13</f>
         <v>0.94</v>
       </c>
-      <c r="Z28" s="19">
-        <f t="shared" si="131"/>
+      <c r="AI27" s="19">
+        <f>+AI15/AI13</f>
+        <v>0.94</v>
+      </c>
+      <c r="AJ27" s="19">
+        <f>+AJ15/AJ13</f>
+        <v>0.94</v>
+      </c>
+      <c r="AK27" s="19">
+        <f>+AK15/AK13</f>
+        <v>0.94</v>
+      </c>
+      <c r="AL27" s="19">
+        <f>+AL15/AL13</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AA28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94</v>
-      </c>
-      <c r="AB28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94</v>
-      </c>
-      <c r="AC28" s="19">
-        <f t="shared" si="131"/>
+      <c r="AM27" s="19">
+        <f>+AM15/AM13</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AD28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94</v>
-      </c>
-      <c r="AE28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="AF28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94</v>
-      </c>
-      <c r="AG28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94</v>
-      </c>
-      <c r="AH28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="AI28" s="19">
-        <f t="shared" si="131"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL28" s="1">
-        <f>NPV(AL27,W23:CT23)+Main!K5-Main!K6</f>
-        <v>11142.890759308255</v>
-      </c>
-    </row>
-    <row r="29" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="AL29" s="20">
-        <f>+AL28/Main!K3</f>
-        <v>174.09463549858722</v>
-      </c>
-    </row>
-    <row r="30" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="AO27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP27" s="25">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="AO28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP28" s="25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19">
-        <f t="shared" ref="J30:M30" si="132">SUM(J3:J4)/SUM(F3:F4)-1</f>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19">
+        <f>SUM(J3:J4)/SUM(F3:F4)-1</f>
         <v>3.7157063340153451E-2</v>
       </c>
-      <c r="K30" s="19">
-        <f t="shared" si="132"/>
+      <c r="K29" s="19">
+        <f>SUM(K3:K4)/SUM(G3:G4)-1</f>
         <v>5.5019150002676653E-2</v>
       </c>
-      <c r="L30" s="19">
-        <f t="shared" si="132"/>
+      <c r="L29" s="19">
+        <f>SUM(L3:L4)/SUM(H3:H4)-1</f>
         <v>0.10057903854293482</v>
       </c>
-      <c r="M30" s="19">
-        <f t="shared" si="132"/>
+      <c r="M29" s="19">
+        <f>SUM(M3:M4)/SUM(I3:I4)-1</f>
         <v>0.11203181608875834</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N29" s="19">
         <f>SUM(N3:N4)/SUM(J3:J4)-1</f>
         <v>0.12188944442205352</v>
       </c>
-      <c r="O30" s="19">
-        <f t="shared" ref="O30:R30" si="133">SUM(O3:O4)/SUM(K3:K4)-1</f>
+      <c r="O29" s="19">
+        <f>SUM(O3:O4)/SUM(K3:K4)-1</f>
         <v>5.1464907040733365E-2</v>
       </c>
-      <c r="P30" s="19">
-        <f t="shared" si="133"/>
-        <v>-6.7046423204862537E-2</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="133"/>
-        <v>-5.0050295424581281E-2</v>
-      </c>
-      <c r="R30" s="19">
-        <f t="shared" si="133"/>
-        <v>-3.3981243382241733E-2</v>
-      </c>
-      <c r="V30" s="25">
-        <f>SUM(V3:V4)/SUM(U3:U4)-1</f>
+      <c r="P29" s="19">
+        <f>SUM(P3:P4)/SUM(L3:L4)-1</f>
+        <v>-3.590671746827212E-2</v>
+      </c>
+      <c r="Q29" s="19">
+        <f>SUM(Q3:Q4)/SUM(M3:M4)-1</f>
+        <v>-0.10788026759119107</v>
+      </c>
+      <c r="R29" s="19">
+        <f>SUM(R3:R4)/SUM(N3:N4)-1</f>
+        <v>-0.160981697171381</v>
+      </c>
+      <c r="S29" s="19">
+        <f>SUM(S3:S4)/SUM(O3:O4)-1</f>
+        <v>-0.16749398430765239</v>
+      </c>
+      <c r="T29" s="19">
+        <f>SUM(T3:T4)/SUM(P3:P4)-1</f>
+        <v>-0.11449151096059706</v>
+      </c>
+      <c r="U29" s="19">
+        <f>SUM(U3:U4)/SUM(Q3:Q4)-1</f>
+        <v>-6.7361076141287279E-2</v>
+      </c>
+      <c r="V29" s="19">
+        <f>SUM(V3:V4)/SUM(R3:R4)-1</f>
+        <v>-2.8933835128678864E-2</v>
+      </c>
+      <c r="Z29" s="25">
+        <f>SUM(Z3:Z4)/SUM(Y3:Y4)-1</f>
         <v>9.8688765422982438E-2</v>
       </c>
-      <c r="W30" s="25">
-        <f t="shared" ref="W30:AI30" si="134">SUM(W3:W4)/SUM(V3:V4)-1</f>
-        <v>-2.7845981409667653E-2</v>
-      </c>
-      <c r="X30" s="25">
-        <f t="shared" si="134"/>
-        <v>-0.12430881961095019</v>
-      </c>
-      <c r="Y30" s="25">
-        <f t="shared" si="134"/>
-        <v>-2.8075299051941283E-2</v>
-      </c>
-      <c r="Z30" s="25">
-        <f t="shared" si="134"/>
-        <v>3.411254034031086E-2</v>
-      </c>
-      <c r="AA30" s="25">
-        <f t="shared" si="134"/>
-        <v>2.0797744121009432E-2</v>
-      </c>
-      <c r="AB30" s="25">
-        <f t="shared" si="134"/>
-        <v>3.56963555968004E-2</v>
-      </c>
-      <c r="AC30" s="25">
-        <f t="shared" si="134"/>
-        <v>4.3094672813173363E-2</v>
-      </c>
-      <c r="AD30" s="25">
-        <f t="shared" si="134"/>
-        <v>4.6689980609236903E-2</v>
-      </c>
-      <c r="AE30" s="25">
-        <f t="shared" si="134"/>
-        <v>4.8418815765850498E-2</v>
-      </c>
-      <c r="AF30" s="25">
-        <f t="shared" si="134"/>
-        <v>4.9245919564599561E-2</v>
-      </c>
-      <c r="AG30" s="25">
-        <f t="shared" si="134"/>
+      <c r="AA29" s="25">
+        <f>SUM(AA3:AA4)/SUM(Z3:Z4)-1</f>
+        <v>-6.8812225917919134E-2</v>
+      </c>
+      <c r="AB29" s="25">
+        <f>SUM(AB3:AB4)/SUM(AA3:AA4)-1</f>
+        <v>-8.5508602290000457E-2</v>
+      </c>
+      <c r="AC29" s="25">
+        <f>SUM(AC3:AC4)/SUM(AB3:AB4)-1</f>
+        <v>-1.4271991811717344E-3</v>
+      </c>
+      <c r="AD29" s="25">
+        <f>SUM(AD3:AD4)/SUM(AC3:AC4)-1</f>
+        <v>4.9213918555561786E-2</v>
+      </c>
+      <c r="AE29" s="25">
+        <f>SUM(AE3:AE4)/SUM(AD3:AD4)-1</f>
+        <v>2.7814863505230214E-2</v>
+      </c>
+      <c r="AF29" s="25">
+        <f>SUM(AF3:AF4)/SUM(AE3:AE4)-1</f>
+        <v>3.920762032030245E-2</v>
+      </c>
+      <c r="AG29" s="25">
+        <f>SUM(AG3:AG4)/SUM(AF3:AF4)-1</f>
+        <v>4.4807399662653014E-2</v>
+      </c>
+      <c r="AH29" s="25">
+        <f>SUM(AH3:AH4)/SUM(AG3:AG4)-1</f>
+        <v>4.7515044237328441E-2</v>
+      </c>
+      <c r="AI29" s="25">
+        <f>SUM(AI3:AI4)/SUM(AH3:AH4)-1</f>
+        <v>4.8813880632864626E-2</v>
+      </c>
+      <c r="AJ29" s="25">
+        <f>SUM(AJ3:AJ4)/SUM(AI3:AI4)-1</f>
+        <v>4.9434542491743283E-2</v>
+      </c>
+      <c r="AK29" s="25">
+        <f>SUM(AK3:AK4)/SUM(AJ3:AJ4)-1</f>
         <v>-0.5</v>
       </c>
-      <c r="AH30" s="25">
-        <f t="shared" si="134"/>
-        <v>-0.79980399418598735</v>
-      </c>
-      <c r="AI30" s="25">
-        <f t="shared" si="134"/>
-        <v>-0.79951046522328029</v>
-      </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="AL29" s="25">
+        <f>SUM(AL3:AL4)/SUM(AK3:AK4)-1</f>
+        <v>-0.79985304878215291</v>
+      </c>
+      <c r="AM29" s="25">
+        <f>SUM(AM3:AM4)/SUM(AL3:AL4)-1</f>
+        <v>-0.79963289169044793</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP29" s="25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="AO30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP30" s="1">
+        <f>NPV(AP29,AA23:CX23)+Main!K5-Main!K6</f>
+        <v>12996.908966913921</v>
+      </c>
+    </row>
+    <row r="31" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="AP31" s="20">
+        <f>+AP30/Main!K3</f>
+        <v>210.46429533987495</v>
+      </c>
+    </row>
+    <row r="32" spans="2:102" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="W33" s="1">
-        <f>+R27</f>
+      <c r="AA32" s="1">
+        <f>+R26</f>
         <v>0</v>
       </c>
-      <c r="X33" s="1">
-        <f>+W33+X23</f>
-        <v>1834.7032679015806</v>
-      </c>
-      <c r="Y33" s="1">
-        <f>+X33+Y23</f>
-        <v>3775.4949092485949</v>
-      </c>
-      <c r="Z33" s="1">
-        <f>+Y33+Z23</f>
-        <v>5795.0617540130888</v>
-      </c>
-      <c r="AA33" s="1">
-        <f>+Z33+AA23</f>
-        <v>7890.1380129089794</v>
-      </c>
-      <c r="AB33" s="1">
-        <f>+AA33+AB23</f>
-        <v>9847.420360234828</v>
-      </c>
-      <c r="AC33" s="1">
-        <f>+AB33+AC23</f>
-        <v>11737.373312886824</v>
-      </c>
-      <c r="AD33" s="1">
-        <f>+AC33+AD23</f>
-        <v>13609.391190701004</v>
-      </c>
-      <c r="AE33" s="1">
-        <f>+AD33+AE23</f>
-        <v>15498.861957190555</v>
-      </c>
-      <c r="AF33" s="1">
-        <f>+AE33+AF23</f>
-        <v>17431.778840516599</v>
-      </c>
-      <c r="AG33" s="1">
-        <f>+AF33+AG23</f>
-        <v>18693.962940310266</v>
-      </c>
-      <c r="AH33" s="1">
-        <f>+AG33+AH23</f>
-        <v>19417.690537194187</v>
-      </c>
-      <c r="AI33" s="1">
-        <f>+AH33+AI23</f>
-        <v>20027.85192505829</v>
+      <c r="AB32" s="1">
+        <f>+AA32+AB23</f>
+        <v>1907.1106732800004</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>+AB32+AC23</f>
+        <v>3952.4814049518009</v>
+      </c>
+      <c r="AD32" s="1">
+        <f>+AC32+AD23</f>
+        <v>6094.4504239346916</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>+AD32+AE23</f>
+        <v>8322.8786213290987</v>
+      </c>
+      <c r="AF32" s="1">
+        <f>+AE32+AF23</f>
+        <v>10416.223943556475</v>
+      </c>
+      <c r="AG32" s="1">
+        <f>+AF32+AG23</f>
+        <v>12445.232409734912</v>
+      </c>
+      <c r="AH32" s="1">
+        <f>+AG32+AH23</f>
+        <v>14459.8549562603</v>
+      </c>
+      <c r="AI32" s="1">
+        <f>+AH32+AI23</f>
+        <v>16496.093150049663</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f>+AI32+AJ23</f>
+        <v>18580.528286895271</v>
+      </c>
+      <c r="AK32" s="1">
+        <f>+AJ32+AK23</f>
+        <v>19957.850124975914</v>
+      </c>
+      <c r="AL32" s="1">
+        <f>+AK32+AL23</f>
+        <v>20767.465761268515</v>
+      </c>
+      <c r="AM32" s="1">
+        <f>+AL32+AM23</f>
+        <v>21458.138869763443</v>
       </c>
     </row>
   </sheetData>

--- a/JAZZ.xlsx
+++ b/JAZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60F68F-0236-4FCA-B417-90F54E75F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445545EE-EBF8-7449-B795-81C24FFA4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27390" yWindow="750" windowWidth="26865" windowHeight="20025" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
+    <workbookView xWindow="-29820" yWindow="-21100" windowWidth="26880" windowHeight="20400" activeTab="1" xr2:uid="{79B0AABE-526A-4476-AFB2-442F9E053778}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={08384C6B-BC0B-D540-9CAB-67A68D6812B6}</author>
+  </authors>
+  <commentList>
+    <comment ref="AF15" authorId="0" shapeId="0" xr:uid="{08384C6B-BC0B-D540-9CAB-67A68D6812B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2 guidance: 4000-4100</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -383,6 +401,18 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Erwinase</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Narcolepsy</t>
+  </si>
+  <si>
+    <t>zandidatamab</t>
   </si>
 </sst>
 </file>
@@ -393,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -412,6 +442,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -601,7 +637,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4065</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>29765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -643,16 +679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28605</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>52417</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28605</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12342</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>52417</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139341</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -667,8 +703,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13714839" y="47625"/>
-          <a:ext cx="0" cy="5268951"/>
+          <a:off x="19015105" y="7937"/>
+          <a:ext cx="0" cy="5298717"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -692,6 +728,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{4D2BE095-5078-834E-8E0F-68F9D6A31E87}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,25 +1031,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AF15" dT="2024-09-06T17:58:56.69" personId="{4D2BE095-5078-834E-8E0F-68F9D6A31E87}" id="{08384C6B-BC0B-D540-9CAB-67A68D6812B6}">
+    <text>Q2 guidance: 4000-4100</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CF0EA-6190-476D-832E-2260D789DF8A}">
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1082,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>73</v>
       </c>
@@ -1055,7 +1105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>74</v>
       </c>
@@ -1076,7 +1126,7 @@
         <v>7101.6536500000002</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
@@ -1098,7 +1148,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>54</v>
       </c>
@@ -1120,7 +1170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
@@ -1141,7 +1191,7 @@
         <v>10827.63265</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="11"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1153,7 +1203,7 @@
       <c r="H8" s="13"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
@@ -1167,7 +1217,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
@@ -1178,10 +1228,12 @@
       <c r="E10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="22">
+        <v>45625</v>
+      </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>49</v>
       </c>
@@ -1195,11 +1247,13 @@
       <c r="F11" s="23"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
@@ -1209,7 +1263,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
         <v>62</v>
       </c>
@@ -1223,7 +1277,7 @@
       <c r="F13" s="23"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="16"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -1239,30 +1293,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF25E3F-0D5A-4F1A-A75A-A8CE578AC72F}">
-  <dimension ref="A1:CX32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF25E3F-0D5A-4F1A-A75A-A8CE578AC72F}">
+  <dimension ref="A1:DB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="2"/>
-    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="9.1640625" style="2"/>
+    <col min="46" max="46" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1324,70 +1378,82 @@
         <v>114</v>
       </c>
       <c r="X2">
+        <v>2016</v>
+      </c>
+      <c r="Y2">
+        <v>2017</v>
+      </c>
+      <c r="Z2">
+        <v>2018</v>
+      </c>
+      <c r="AA2">
+        <v>2019</v>
+      </c>
+      <c r="AB2">
         <v>2020</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
+      <c r="AC2">
+        <f>+AB2+1</f>
         <v>2021</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:AM2" si="0">+Y2+1</f>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AQ2" si="0">+AC2+1</f>
         <v>2022</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1447,68 +1513,77 @@
         <f>+U3-1</f>
         <v>60.18</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
+        <v>1404.866</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1642.5250000000001</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1741.758</v>
+      </c>
+      <c r="AC3" s="3">
         <f>SUM(G3:J3)</f>
         <v>1265.83</v>
       </c>
-      <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z8" si="1">SUM(K3:N3)</f>
+      <c r="AD3" s="3">
+        <f t="shared" ref="AD3:AD8" si="1">SUM(K3:N3)</f>
         <v>1020.453</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AE3" s="3">
         <f>SUM(O3:R3)</f>
         <v>569.73</v>
       </c>
-      <c r="AB3" s="3">
-        <f>+AA3*0.5</f>
-        <v>284.86500000000001</v>
-      </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AL3" si="2">+AB3*0.5</f>
-        <v>142.4325</v>
-      </c>
-      <c r="AD3" s="3">
-        <f t="shared" si="2"/>
-        <v>71.216250000000002</v>
-      </c>
-      <c r="AE3" s="3">
-        <f t="shared" si="2"/>
-        <v>35.608125000000001</v>
-      </c>
       <c r="AF3" s="3">
-        <f t="shared" si="2"/>
-        <v>17.804062500000001</v>
+        <f>SUM(S3:V3)</f>
+        <v>247.77200000000002</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" si="2"/>
-        <v>8.9020312500000003</v>
+        <f t="shared" ref="AG3:AP3" si="2">+AF3*0.5</f>
+        <v>123.88600000000001</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="2"/>
-        <v>4.4510156250000001</v>
+        <v>61.943000000000005</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="2"/>
-        <v>2.2255078125000001</v>
+        <v>30.971500000000002</v>
       </c>
       <c r="AJ3" s="3">
         <f t="shared" si="2"/>
-        <v>1.11275390625</v>
+        <v>15.485750000000001</v>
       </c>
       <c r="AK3" s="3">
         <f t="shared" si="2"/>
-        <v>0.55637695312500002</v>
+        <v>7.7428750000000006</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" si="2"/>
-        <v>0.27818847656250001</v>
+        <v>3.8714375000000003</v>
       </c>
       <c r="AM3" s="3">
-        <f t="shared" ref="AM3" si="3">+AL3*0.5</f>
-        <v>0.13909423828125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.9357187500000002</v>
+      </c>
+      <c r="AN3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96785937500000008</v>
+      </c>
+      <c r="AO3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.48392968750000004</v>
+      </c>
+      <c r="AP3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24196484375000002</v>
+      </c>
+      <c r="AQ3" s="3">
+        <f t="shared" ref="AQ3" si="3">+AP3*0.5</f>
+        <v>0.12098242187500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1568,68 +1643,77 @@
         <f>+R4*1.1</f>
         <v>370.72090000000003</v>
       </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y17" si="4">SUM(G4:J4)</f>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>15.263999999999999</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" ref="AC4:AC19" si="4">SUM(G4:J4)</f>
         <v>535.29700000000003</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AD4" s="3">
         <f t="shared" si="1"/>
         <v>958.42500000000007</v>
       </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA16" si="5">SUM(O4:R4)</f>
+      <c r="AE4" s="3">
+        <f t="shared" ref="AE4:AE18" si="5">SUM(O4:R4)</f>
         <v>1272.9770000000001</v>
       </c>
-      <c r="AB4" s="3">
-        <f>+AA4*1.1</f>
-        <v>1400.2747000000002</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AD4" si="6">+AB4*1.1</f>
-        <v>1540.3021700000004</v>
-      </c>
-      <c r="AD4" s="3">
+      <c r="AF4" s="3">
+        <f>SUM(S4:V4)</f>
+        <v>1419.2891999999999</v>
+      </c>
+      <c r="AG4" s="3">
+        <f t="shared" ref="AG4:AH4" si="6">+AF4*1.1</f>
+        <v>1561.21812</v>
+      </c>
+      <c r="AH4" s="3">
         <f t="shared" si="6"/>
-        <v>1694.3323870000006</v>
-      </c>
-      <c r="AE4" s="3">
-        <f>+AD4*1.05</f>
-        <v>1779.0490063500008</v>
-      </c>
-      <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AJ4" si="7">+AE4*1.05</f>
-        <v>1868.0014566675009</v>
-      </c>
-      <c r="AG4" s="3">
+        <v>1717.3399320000001</v>
+      </c>
+      <c r="AI4" s="3">
+        <f>+AH4*1.05</f>
+        <v>1803.2069286000001</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f t="shared" ref="AJ4:AN4" si="7">+AI4*1.05</f>
+        <v>1893.3672750300002</v>
+      </c>
+      <c r="AK4" s="3">
         <f t="shared" si="7"/>
-        <v>1961.401529500876</v>
-      </c>
-      <c r="AH4" s="3">
+        <v>1988.0356387815002</v>
+      </c>
+      <c r="AL4" s="3">
         <f t="shared" si="7"/>
-        <v>2059.4716059759198</v>
-      </c>
-      <c r="AI4" s="3">
+        <v>2087.4374207205751</v>
+      </c>
+      <c r="AM4" s="3">
         <f t="shared" si="7"/>
-        <v>2162.445186274716</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>2191.8092917566041</v>
+      </c>
+      <c r="AN4" s="3">
         <f t="shared" si="7"/>
-        <v>2270.5674455884518</v>
-      </c>
-      <c r="AK4" s="3">
-        <f>+AJ4*0.5</f>
-        <v>1135.2837227942259</v>
-      </c>
-      <c r="AL4" s="3">
-        <f>+AK4*0.2</f>
-        <v>227.0567445588452</v>
-      </c>
-      <c r="AM4" s="3">
-        <f t="shared" ref="AM4" si="8">+AL4*0.2</f>
-        <v>45.411348911769039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2301.3997563444345</v>
+      </c>
+      <c r="AO4" s="3">
+        <f>+AN4*0.5</f>
+        <v>1150.6998781722173</v>
+      </c>
+      <c r="AP4" s="3">
+        <f>+AO4*0.2</f>
+        <v>230.13997563444346</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f t="shared" ref="AQ4" si="8">+AP4*0.2</f>
+        <v>46.027995126888698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1689,68 +1773,68 @@
         <f>+R5*1.1</f>
         <v>264.68420000000003</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="AC5" s="3">
         <f t="shared" si="4"/>
         <v>463.64499999999998</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AD5" s="3">
         <f t="shared" si="1"/>
         <v>736.39799999999991</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AE5" s="3">
         <f t="shared" si="5"/>
         <v>845.46800000000007</v>
       </c>
-      <c r="AB5" s="3">
-        <f>+AA5*1.1</f>
-        <v>930.01480000000015</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" ref="AC5:AD5" si="9">+AB5*1.1</f>
-        <v>1023.0162800000003</v>
-      </c>
-      <c r="AD5" s="3">
+      <c r="AF5" s="3">
+        <f>SUM(S5:V5)</f>
+        <v>945.5843000000001</v>
+      </c>
+      <c r="AG5" s="3">
+        <f t="shared" ref="AG5:AH5" si="9">+AF5*1.1</f>
+        <v>1040.1427300000003</v>
+      </c>
+      <c r="AH5" s="3">
         <f t="shared" si="9"/>
-        <v>1125.3179080000004</v>
-      </c>
-      <c r="AE5" s="3">
-        <f>+AD5*1.03</f>
-        <v>1159.0774452400005</v>
-      </c>
-      <c r="AF5" s="3">
-        <f>+AE5*0.7</f>
-        <v>811.35421166800029</v>
-      </c>
-      <c r="AG5" s="3">
-        <f>+AF5*0.7</f>
-        <v>567.9479481676002</v>
-      </c>
-      <c r="AH5" s="3">
-        <f t="shared" ref="AH5:AM5" si="10">+AG5*0.7</f>
-        <v>397.56356371732011</v>
+        <v>1144.1570030000005</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="10"/>
-        <v>278.29449460212408</v>
+        <f>+AH5*1.03</f>
+        <v>1178.4817130900005</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="10"/>
-        <v>194.80614622148684</v>
+        <f>+AI5*0.7</f>
+        <v>824.93719916300029</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="10"/>
-        <v>136.36430235504079</v>
+        <f>+AJ5*0.7</f>
+        <v>577.45603941410013</v>
       </c>
       <c r="AL5" s="3">
-        <f t="shared" si="10"/>
-        <v>95.455011648528554</v>
+        <f t="shared" ref="AL5:AQ5" si="10">+AK5*0.7</f>
+        <v>404.21922758987006</v>
       </c>
       <c r="AM5" s="3">
         <f t="shared" si="10"/>
-        <v>66.818508153969987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>282.95345931290905</v>
+      </c>
+      <c r="AN5" s="3">
+        <f t="shared" si="10"/>
+        <v>198.06742151903632</v>
+      </c>
+      <c r="AO5" s="3">
+        <f t="shared" si="10"/>
+        <v>138.6471950633254</v>
+      </c>
+      <c r="AP5" s="3">
+        <f t="shared" si="10"/>
+        <v>97.053036544327767</v>
+      </c>
+      <c r="AQ5" s="3">
+        <f t="shared" si="10"/>
+        <v>67.937125581029434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1810,68 +1894,68 @@
         <f>+U6</f>
         <v>6.383</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AC6" s="3">
         <f t="shared" si="4"/>
         <v>12.707000000000001</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AD6" s="3">
         <f t="shared" si="1"/>
         <v>16.825000000000003</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AE6" s="3">
         <f t="shared" si="5"/>
         <v>19.667999999999999</v>
       </c>
-      <c r="AB6" s="3">
-        <f>+AA6*0.9</f>
-        <v>17.7012</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" ref="AC6:AM6" si="11">+AB6*0.9</f>
-        <v>15.93108</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" si="11"/>
-        <v>14.337972000000001</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="11"/>
-        <v>12.904174800000002</v>
-      </c>
       <c r="AF6" s="3">
-        <f t="shared" si="11"/>
-        <v>11.613757320000001</v>
+        <f>SUM(S6:V6)</f>
+        <v>21.884</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="11"/>
-        <v>10.452381588000001</v>
+        <f t="shared" ref="AG6:AQ6" si="11">+AF6*0.9</f>
+        <v>19.695600000000002</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="11"/>
-        <v>9.4071434292000013</v>
+        <v>17.726040000000001</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="11"/>
-        <v>8.4664290862800016</v>
+        <v>15.953436000000002</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="11"/>
-        <v>7.6197861776520019</v>
+        <v>14.358092400000002</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="11"/>
-        <v>6.857807559886802</v>
+        <v>12.922283160000003</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="11"/>
-        <v>6.1720268038981221</v>
+        <v>11.630054844000004</v>
       </c>
       <c r="AM6" s="3">
         <f t="shared" si="11"/>
-        <v>5.5548241235083102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10.467049359600004</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="11"/>
+        <v>9.4203444236400049</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="11"/>
+        <v>8.4783099812760039</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="11"/>
+        <v>7.6304789831484037</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="11"/>
+        <v>6.8674310848335631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1914,40 +1998,33 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>3.714</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>28.332999999999998</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="4"/>
         <v>57.914000000000001</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AD7" s="3">
         <f t="shared" si="1"/>
         <v>28.844000000000001</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AE7" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" ref="AB7:AM7" si="13">+AA7*0.9</f>
+      <c r="AF7" s="3">
+        <f>SUM(S7:V7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="AG7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AG7:AQ7" si="13">+AF7*0.9</f>
         <v>0</v>
       </c>
       <c r="AH7" s="3">
@@ -1974,8 +2051,24 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2035,2705 +2128,3222 @@
         <f>+R8*1.1</f>
         <v>81.411000000000016</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>90.38</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="4"/>
         <v>246.80799999999999</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AD8" s="3">
         <f t="shared" si="1"/>
         <v>269.91199999999998</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AE8" s="3">
         <f t="shared" si="5"/>
         <v>289.53300000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <f>SUM(S8:V8)</f>
+        <v>323.35140000000001</v>
+      </c>
+      <c r="AG8" s="3">
+        <f>+AF8*1.01</f>
+        <v>326.58491400000003</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>+AG8*1.01</f>
+        <v>329.85076314000003</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>+AH8*1.01</f>
+        <v>333.14927077140004</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f>+AI8*1.01</f>
+        <v>336.48076347911405</v>
+      </c>
+      <c r="AK8" s="3">
+        <f>+AJ8*1.01</f>
+        <v>339.84557111390518</v>
+      </c>
+      <c r="AL8" s="3">
+        <f>+AK8*1.01</f>
+        <v>343.24402682504422</v>
+      </c>
+      <c r="AM8" s="3">
+        <f>+AL8*1.01</f>
+        <v>346.67646709329466</v>
+      </c>
+      <c r="AN8" s="3">
+        <f>+AM8*1.01</f>
+        <v>350.14323176422761</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>+AN8*1.01</f>
+        <v>353.64466408186991</v>
+      </c>
+      <c r="AP8" s="3">
+        <f>+AO8*1.01</f>
+        <v>357.18111072268863</v>
+      </c>
+      <c r="AQ8" s="3">
+        <f>+AP8*1.01</f>
+        <v>360.75292182991552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>20.673999999999999</v>
-      </c>
-      <c r="J9" s="4">
-        <v>64.954999999999998</v>
-      </c>
-      <c r="K9" s="4">
-        <v>54.22</v>
-      </c>
-      <c r="L9" s="4">
-        <v>72.953999999999994</v>
-      </c>
-      <c r="M9" s="4">
-        <v>73.513000000000005</v>
-      </c>
-      <c r="N9" s="4">
-        <v>80.971999999999994</v>
-      </c>
-      <c r="O9" s="4">
-        <v>85.927000000000007</v>
-      </c>
-      <c r="P9" s="4">
-        <v>101.693</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>104.85899999999999</v>
-      </c>
-      <c r="R9" s="4">
-        <v>101.747</v>
-      </c>
-      <c r="S9" s="4">
-        <v>102.75</v>
-      </c>
-      <c r="T9" s="4">
-        <v>107.82899999999999</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" ref="U9:U12" si="14">+Q9*1.1</f>
-        <v>115.34490000000001</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" ref="V9:V12" si="15">+R9*1.1</f>
-        <v>111.92170000000002</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="4"/>
-        <v>85.628999999999991</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:Z17" si="16">SUM(K9:N9)</f>
-        <v>281.65899999999999</v>
+        <v>174.739</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="5"/>
-        <v>394.226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>177.465</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>147.136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>30.992000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>33.155000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>31.452999999999999</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>34.688000000000002</v>
+        <v>20.673999999999999</v>
       </c>
       <c r="J10" s="4">
-        <v>34.764000000000003</v>
+        <v>64.954999999999998</v>
       </c>
       <c r="K10" s="4">
-        <v>33.756999999999998</v>
+        <v>54.22</v>
       </c>
       <c r="L10" s="4">
-        <v>33.89</v>
+        <v>72.953999999999994</v>
       </c>
       <c r="M10" s="4">
-        <v>30.067</v>
+        <v>73.513000000000005</v>
       </c>
       <c r="N10" s="4">
-        <v>30.265999999999998</v>
+        <v>80.971999999999994</v>
       </c>
       <c r="O10" s="4">
-        <v>36.700000000000003</v>
+        <v>85.927000000000007</v>
       </c>
       <c r="P10" s="4">
-        <v>34.055999999999997</v>
+        <v>101.693</v>
       </c>
       <c r="Q10" s="4">
-        <v>29.827000000000002</v>
+        <v>104.85899999999999</v>
       </c>
       <c r="R10" s="4">
-        <v>46.911999999999999</v>
+        <v>101.747</v>
       </c>
       <c r="S10" s="4">
-        <v>32.023000000000003</v>
+        <v>102.75</v>
       </c>
       <c r="T10" s="4">
-        <v>43.012</v>
+        <v>107.82899999999999</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="14"/>
-        <v>32.809700000000007</v>
+        <f t="shared" ref="U10:U14" si="14">+Q10*1.1</f>
+        <v>115.34490000000001</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="15"/>
-        <v>51.603200000000001</v>
-      </c>
-      <c r="Y10" s="3">
+        <f t="shared" ref="V10:V14" si="15">+R10*1.1</f>
+        <v>111.92170000000002</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="4"/>
-        <v>134.06</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="16"/>
-        <v>127.97999999999999</v>
-      </c>
-      <c r="AA10" s="3">
+        <v>85.628999999999991</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10:AD19" si="16">SUM(K10:N10)</f>
+        <v>281.65899999999999</v>
+      </c>
+      <c r="AE10" s="3">
         <f t="shared" si="5"/>
-        <v>147.495</v>
-      </c>
-      <c r="AB10" s="3">
-        <f>+AA10*0.99</f>
-        <v>146.02005</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" ref="AC10:AM10" si="17">+AB10*0.99</f>
-        <v>144.55984949999998</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="17"/>
-        <v>143.11425100499997</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="17"/>
-        <v>141.68310849494998</v>
+        <v>394.226</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="17"/>
-        <v>140.26627741000047</v>
+        <f>SUM(S10:V10)</f>
+        <v>437.84559999999999</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="17"/>
-        <v>138.86361463590046</v>
+        <f>+AF10*1.01</f>
+        <v>442.22405600000002</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="17"/>
-        <v>137.47497848954146</v>
+        <f>+AG10*1.01</f>
+        <v>446.64629656</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="17"/>
-        <v>136.10022870464604</v>
+        <f>+AH10*1.01</f>
+        <v>451.11275952559998</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="17"/>
-        <v>134.73922641759958</v>
+        <f>+AI10*1.01</f>
+        <v>455.62388712085601</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="17"/>
-        <v>133.39183415342359</v>
+        <f>+AJ10*1.01</f>
+        <v>460.18012599206457</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="17"/>
-        <v>132.05791581188936</v>
+        <f>+AK10*1.01</f>
+        <v>464.78192725198522</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="17"/>
-        <v>130.73733665377046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AL10*1.01</f>
+        <v>469.42974652450511</v>
+      </c>
+      <c r="AN10" s="3">
+        <f>+AM10*1.01</f>
+        <v>474.12404398975013</v>
+      </c>
+      <c r="AO10" s="3">
+        <f>+AN10*1.01</f>
+        <v>478.86528442964766</v>
+      </c>
+      <c r="AP10" s="3">
+        <f>+AO10*1.01</f>
+        <v>483.65393727394417</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f>+AP10*1.01</f>
+        <v>488.49047664668359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>55.454999999999998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>49.619</v>
-      </c>
-      <c r="H11" s="4">
-        <v>48.095999999999997</v>
-      </c>
-      <c r="I11" s="4">
-        <v>57.704999999999998</v>
-      </c>
-      <c r="J11" s="4">
-        <v>42.511000000000003</v>
-      </c>
-      <c r="K11" s="4">
-        <v>49.488999999999997</v>
-      </c>
-      <c r="L11" s="4">
-        <v>54.695999999999998</v>
-      </c>
-      <c r="M11" s="4">
-        <v>49.451999999999998</v>
-      </c>
-      <c r="N11" s="4">
-        <v>40.652999999999999</v>
-      </c>
-      <c r="O11" s="4">
-        <v>39.079000000000001</v>
-      </c>
-      <c r="P11" s="4">
-        <v>46.107999999999997</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>47.73</v>
-      </c>
-      <c r="R11" s="4">
-        <v>51.082999999999998</v>
-      </c>
-      <c r="S11" s="4">
-        <v>47.676000000000002</v>
-      </c>
-      <c r="T11" s="4">
-        <v>45.420999999999999</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="14"/>
-        <v>52.503</v>
-      </c>
-      <c r="V11" s="4">
-        <f t="shared" si="15"/>
-        <v>56.191300000000005</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="4"/>
-        <v>197.93100000000001</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="16"/>
-        <v>194.29</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="5"/>
-        <v>184</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AM11" si="18">+AA11*0.99</f>
-        <v>182.16</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="18"/>
-        <v>180.33840000000001</v>
-      </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="18"/>
-        <v>178.53501600000001</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="18"/>
-        <v>176.74966584000001</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
       <c r="AF11" s="3">
-        <f t="shared" si="18"/>
-        <v>174.9821691816</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="18"/>
-        <v>173.23234748978399</v>
+        <v>100</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="18"/>
-        <v>171.50002401488615</v>
+        <v>125</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="18"/>
-        <v>169.78502377473728</v>
+        <v>150</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="18"/>
-        <v>168.08717353698992</v>
+        <f>+AI11*1.1</f>
+        <v>165</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="18"/>
-        <v>166.40630180162003</v>
+        <f>+AJ11*1.1</f>
+        <v>181.50000000000003</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="18"/>
-        <v>164.74223878360382</v>
+        <f>+AK11*1.05</f>
+        <v>190.57500000000005</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="18"/>
-        <v>163.09481639576779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AL11*1.05</f>
+        <v>200.10375000000005</v>
+      </c>
+      <c r="AN11" s="3">
+        <f>+AM11*1.05</f>
+        <v>210.10893750000005</v>
+      </c>
+      <c r="AO11" s="3">
+        <f>+AN11*1.05</f>
+        <v>220.61438437500007</v>
+      </c>
+      <c r="AP11" s="3">
+        <f>+AO11*1.05</f>
+        <v>231.64510359375009</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f>+AP11*1.05</f>
+        <v>243.2273587734376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>4.214+1.596+56.576</f>
-        <v>62.386000000000003</v>
+        <v>30.992000000000001</v>
       </c>
       <c r="G12" s="4">
-        <f>41.068+4.05+2.783</f>
-        <v>47.900999999999996</v>
+        <v>33.155000000000001</v>
       </c>
       <c r="H12" s="4">
-        <f>28.314+2.641+3.471</f>
-        <v>34.426000000000002</v>
+        <v>31.452999999999999</v>
       </c>
       <c r="I12" s="4">
-        <f>3.344+3.868</f>
-        <v>7.2119999999999997</v>
+        <v>34.688000000000002</v>
       </c>
       <c r="J12" s="4">
-        <f>3.848+1.03</f>
-        <v>4.8780000000000001</v>
+        <v>34.764000000000003</v>
       </c>
       <c r="K12" s="4">
-        <f>0+0.943+3.884</f>
-        <v>4.827</v>
+        <v>33.756999999999998</v>
       </c>
       <c r="L12" s="4">
-        <f>4.578+1.632</f>
-        <v>6.21</v>
+        <v>33.89</v>
       </c>
       <c r="M12" s="4">
-        <f>1.001+4.886</f>
-        <v>5.8870000000000005</v>
+        <v>30.067</v>
       </c>
       <c r="N12" s="4">
-        <f>3.067+4.597</f>
-        <v>7.6640000000000006</v>
+        <v>30.265999999999998</v>
       </c>
       <c r="O12" s="4">
-        <f>2.096+6.497+3.434</f>
-        <v>12.027000000000001</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="P12" s="4">
-        <f>3.417+10.33</f>
-        <v>13.747</v>
+        <v>34.055999999999997</v>
       </c>
       <c r="Q12" s="4">
-        <f>2.907+28.921+4.821</f>
-        <v>36.649000000000001</v>
+        <v>29.827000000000002</v>
       </c>
       <c r="R12" s="4">
-        <f>4.088+5.209+39.387</f>
-        <v>48.683999999999997</v>
+        <v>46.911999999999999</v>
       </c>
       <c r="S12" s="4">
-        <f>3.57+49.947+9.934</f>
-        <v>63.451000000000001</v>
+        <v>32.023000000000003</v>
       </c>
       <c r="T12" s="4">
-        <f>2.698+59.681</f>
-        <v>62.378999999999998</v>
+        <v>43.012</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="14"/>
-        <v>40.313900000000004</v>
+        <v>32.809700000000007</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="15"/>
-        <v>53.552399999999999</v>
-      </c>
-      <c r="Y12" s="3">
+        <v>51.603200000000001</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>100.83499999999999</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>121.407</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>121.105</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="4"/>
-        <v>94.417000000000002</v>
-      </c>
-      <c r="Z12" s="3">
+        <v>134.06</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="16"/>
-        <v>24.588000000000001</v>
-      </c>
-      <c r="AA12" s="3">
+        <v>127.97999999999999</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="5"/>
-        <v>111.107</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" ref="AB12:AM12" si="19">+AA12*0.99</f>
-        <v>109.99593</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="19"/>
-        <v>108.89597070000001</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="19"/>
-        <v>107.80701099300001</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="19"/>
-        <v>106.72894088307001</v>
+        <v>147.495</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="19"/>
-        <v>105.66165147423931</v>
+        <f>SUM(S12:V12)</f>
+        <v>159.4479</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="19"/>
-        <v>104.60503495949692</v>
+        <f t="shared" ref="AG12:AQ12" si="17">+AF12*0.99</f>
+        <v>157.853421</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="19"/>
-        <v>103.55898460990196</v>
+        <f t="shared" si="17"/>
+        <v>156.27488678999998</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="19"/>
-        <v>102.52339476380294</v>
+        <f t="shared" si="17"/>
+        <v>154.71213792209997</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="19"/>
-        <v>101.49816081616491</v>
+        <f t="shared" si="17"/>
+        <v>153.16501654287896</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="19"/>
-        <v>100.48317920800326</v>
+        <f t="shared" si="17"/>
+        <v>151.63336637745016</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="19"/>
-        <v>99.478347415923224</v>
+        <f t="shared" si="17"/>
+        <v>150.11703271367566</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" si="19"/>
-        <v>98.48356394176399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13:G13" si="20">SUM(F3:F12)</f>
-        <v>665.51699999999994</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="20"/>
-        <v>607.58100000000002</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ref="H13" si="21">SUM(H3:H12)</f>
-        <v>751.81100000000004</v>
-      </c>
-      <c r="I13" s="6">
-        <f>SUM(I3:I12)</f>
-        <v>838.11500000000001</v>
-      </c>
-      <c r="J13" s="6">
-        <f>SUM(J3:J12)</f>
-        <v>896.73099999999999</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" ref="K13" si="22">SUM(K3:K12)</f>
-        <v>813.721</v>
-      </c>
-      <c r="L13" s="6">
-        <f>SUM(L3:L12)</f>
-        <v>932.87800000000004</v>
-      </c>
-      <c r="M13" s="6">
-        <f>SUM(M3:M12)</f>
-        <v>940.65200000000004</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" ref="N13:V13" si="23">SUM(N3:N12)</f>
-        <v>972.12299999999993</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="23"/>
-        <v>892.81200000000001</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="23"/>
-        <v>957.31699999999989</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="23"/>
-        <v>972.14</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="shared" si="23"/>
-        <v>1011.9349999999999</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="23"/>
-        <v>901.98300000000017</v>
-      </c>
-      <c r="T13" s="6">
-        <f t="shared" si="23"/>
-        <v>1023.8250000000002</v>
-      </c>
-      <c r="U13" s="6">
-        <f t="shared" si="23"/>
-        <v>994.20630000000028</v>
-      </c>
-      <c r="V13" s="6">
-        <f t="shared" si="23"/>
-        <v>1056.6477</v>
-      </c>
-      <c r="Y13" s="6">
-        <f t="shared" ref="Y13:AA13" si="24">SUM(Y3:Y12)</f>
-        <v>3094.2379999999998</v>
-      </c>
-      <c r="Z13" s="6">
-        <f t="shared" si="24"/>
-        <v>3659.3739999999998</v>
-      </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="24"/>
-        <v>3834.2040000000002</v>
-      </c>
-      <c r="AB13" s="6">
-        <f t="shared" ref="AB13" si="25">SUM(AB3:AB12)</f>
-        <v>3071.0316800000005</v>
-      </c>
-      <c r="AC13" s="6">
-        <f t="shared" ref="AC13" si="26">SUM(AC3:AC12)</f>
-        <v>3155.4762502000003</v>
-      </c>
-      <c r="AD13" s="6">
-        <f t="shared" ref="AD13" si="27">SUM(AD3:AD12)</f>
-        <v>3334.6607949980003</v>
-      </c>
-      <c r="AE13" s="6">
-        <f t="shared" ref="AE13" si="28">SUM(AE3:AE12)</f>
-        <v>3411.8004666080215</v>
-      </c>
-      <c r="AF13" s="6">
-        <f t="shared" ref="AF13" si="29">SUM(AF3:AF12)</f>
-        <v>3129.6835862213411</v>
-      </c>
-      <c r="AG13" s="6">
-        <f t="shared" ref="AG13" si="30">SUM(AG3:AG12)</f>
-        <v>2965.4048875916578</v>
-      </c>
-      <c r="AH13" s="6">
-        <f t="shared" ref="AH13" si="31">SUM(AH3:AH12)</f>
-        <v>2883.4273158617693</v>
-      </c>
-      <c r="AI13" s="6">
-        <f t="shared" ref="AI13" si="32">SUM(AI3:AI12)</f>
-        <v>2859.8402650188059</v>
-      </c>
-      <c r="AJ13" s="6">
-        <f t="shared" ref="AJ13" si="33">SUM(AJ3:AJ12)</f>
-        <v>2878.430692664595</v>
-      </c>
-      <c r="AK13" s="6">
-        <f t="shared" ref="AK13" si="34">SUM(AK3:AK12)</f>
-        <v>1679.3435248253254</v>
-      </c>
-      <c r="AL13" s="6">
-        <f t="shared" ref="AL13" si="35">SUM(AL3:AL12)</f>
-        <v>725.24047349925081</v>
-      </c>
-      <c r="AM13" s="6">
-        <f t="shared" ref="AM13" si="36">SUM(AM3:AM12)</f>
-        <v>510.23949241883082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>148.61586238653891</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" si="17"/>
+        <v>147.12970376267353</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="17"/>
+        <v>145.6584067250468</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="17"/>
+        <v>144.20182265779633</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f t="shared" si="17"/>
+        <v>142.75980443121836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>55.454999999999998</v>
+      </c>
+      <c r="G13" s="4">
+        <v>49.619</v>
+      </c>
+      <c r="H13" s="4">
+        <v>48.095999999999997</v>
+      </c>
+      <c r="I13" s="4">
+        <v>57.704999999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <v>42.511000000000003</v>
+      </c>
+      <c r="K13" s="4">
+        <v>49.488999999999997</v>
+      </c>
+      <c r="L13" s="4">
+        <v>54.695999999999998</v>
+      </c>
+      <c r="M13" s="4">
+        <v>49.451999999999998</v>
+      </c>
+      <c r="N13" s="4">
+        <v>40.652999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>39.079000000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>46.107999999999997</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>47.73</v>
+      </c>
+      <c r="R13" s="4">
+        <v>51.082999999999998</v>
+      </c>
+      <c r="S13" s="4">
+        <v>47.676000000000002</v>
+      </c>
+      <c r="T13" s="4">
+        <v>45.420999999999999</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="14"/>
+        <v>52.503</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="15"/>
+        <v>56.191300000000005</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>149.44800000000001</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>172.93799999999999</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>195.84200000000001</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="4"/>
+        <v>197.93100000000001</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="16"/>
+        <v>194.29</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>SUM(S13:V13)</f>
+        <v>201.79130000000004</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" ref="AG13:AQ13" si="18">+AF13*0.99</f>
+        <v>199.77338700000004</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="18"/>
+        <v>197.77565313000005</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" si="18"/>
+        <v>195.79789659870005</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="18"/>
+        <v>193.83991763271305</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="18"/>
+        <v>191.90151845638593</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="18"/>
+        <v>189.98250327182208</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="18"/>
+        <v>188.08267823910387</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="18"/>
+        <v>186.20185145671283</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="18"/>
+        <v>184.3398329421457</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="18"/>
+        <v>182.49643461272424</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="18"/>
+        <v>180.671470266597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>48.298000000000002</v>
+        <f>4.214+1.596+56.576</f>
+        <v>62.386000000000003</v>
       </c>
       <c r="G14" s="4">
-        <v>38.192999999999998</v>
+        <f>41.068+4.05+2.783</f>
+        <v>47.900999999999996</v>
       </c>
       <c r="H14" s="4">
-        <v>50.225999999999999</v>
+        <f>28.314+2.641+3.471</f>
+        <v>34.426000000000002</v>
       </c>
       <c r="I14" s="4">
-        <v>58.872</v>
+        <f>3.344+3.868</f>
+        <v>7.2119999999999997</v>
       </c>
       <c r="J14" s="4">
-        <v>58.11</v>
+        <f>3.848+1.03</f>
+        <v>4.8780000000000001</v>
       </c>
       <c r="K14" s="4">
-        <v>48.206000000000003</v>
+        <f>0+0.943+3.884</f>
+        <v>4.827</v>
       </c>
       <c r="L14" s="4">
-        <v>53.244999999999997</v>
+        <f>4.578+1.632</f>
+        <v>6.21</v>
       </c>
       <c r="M14" s="4">
-        <v>57.103000000000002</v>
-      </c>
-      <c r="N14" s="3">
-        <v>93.385999999999996</v>
-      </c>
-      <c r="O14" s="3">
-        <v>64.727999999999994</v>
-      </c>
-      <c r="P14" s="3">
-        <v>97.537000000000006</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>102.15300000000001</v>
-      </c>
-      <c r="R14" s="3">
-        <v>71.238</v>
-      </c>
-      <c r="S14" s="3">
-        <v>95.486999999999995</v>
-      </c>
-      <c r="T14" s="3">
-        <v>72.412999999999997</v>
-      </c>
-      <c r="U14" s="3">
-        <f>+U13-U15</f>
-        <v>69.594440999999961</v>
-      </c>
-      <c r="V14" s="3">
-        <f>+V13-V15</f>
-        <v>73.965338999999972</v>
-      </c>
-      <c r="Y14" s="3">
+        <f>1.001+4.886</f>
+        <v>5.8870000000000005</v>
+      </c>
+      <c r="N14" s="4">
+        <f>3.067+4.597</f>
+        <v>7.6640000000000006</v>
+      </c>
+      <c r="O14" s="4">
+        <f>2.096+6.497+3.434</f>
+        <v>12.027000000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <f>3.417+10.33</f>
+        <v>13.747</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>2.907+28.921+4.821</f>
+        <v>36.649000000000001</v>
+      </c>
+      <c r="R14" s="4">
+        <f>4.088+5.209+39.387</f>
+        <v>48.683999999999997</v>
+      </c>
+      <c r="S14" s="4">
+        <f>3.57+49.947+9.934</f>
+        <v>63.451000000000001</v>
+      </c>
+      <c r="T14" s="4">
+        <f>2.698+59.681</f>
+        <v>62.378999999999998</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="14"/>
+        <v>40.313900000000004</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="15"/>
+        <v>53.552399999999999</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>21.449+39.585</f>
+        <v>61.034000000000006</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>26.16+17.552</f>
+        <v>43.712000000000003</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>6.842+16.907</f>
+        <v>23.748999999999999</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="4"/>
-        <v>205.40100000000001</v>
-      </c>
-      <c r="Z14" s="3">
+        <v>94.417000000000002</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="16"/>
-        <v>251.94</v>
-      </c>
-      <c r="AA14" s="3">
+        <v>24.588000000000001</v>
+      </c>
+      <c r="AE14" s="3">
         <f t="shared" si="5"/>
-        <v>335.65600000000001</v>
-      </c>
-      <c r="AB14" s="3">
-        <f>+AB13*0.06</f>
-        <v>184.26190080000003</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" ref="AC14:AM14" si="37">+AC13*0.06</f>
-        <v>189.32857501200002</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="37"/>
-        <v>200.07964769988001</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="37"/>
-        <v>204.70802799648129</v>
+        <v>111.107</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="37"/>
-        <v>187.78101517328045</v>
+        <f>SUM(S14:V14)</f>
+        <v>219.69630000000001</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="37"/>
-        <v>177.92429325549946</v>
+        <f t="shared" ref="AG14:AQ14" si="19">+AF14*0.99</f>
+        <v>217.499337</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="37"/>
-        <v>173.00563895170615</v>
+        <f t="shared" si="19"/>
+        <v>215.32434362999999</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="37"/>
-        <v>171.59041590112835</v>
+        <f t="shared" si="19"/>
+        <v>213.1711001937</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="37"/>
-        <v>172.70584155987569</v>
+        <f t="shared" si="19"/>
+        <v>211.03938919176301</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="37"/>
-        <v>100.76061148951952</v>
+        <f t="shared" si="19"/>
+        <v>208.92899529984538</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="37"/>
-        <v>43.514428409955045</v>
+        <f t="shared" si="19"/>
+        <v>206.83970534684693</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="37"/>
-        <v>30.614369545129847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <f t="shared" ref="F15:M15" si="38">+F13-F14</f>
-        <v>617.21899999999994</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="38"/>
-        <v>569.38800000000003</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="38"/>
-        <v>701.58500000000004</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="38"/>
-        <v>779.24300000000005</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="38"/>
-        <v>838.62099999999998</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="38"/>
-        <v>765.51499999999999</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="38"/>
-        <v>879.63300000000004</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="38"/>
-        <v>883.54900000000009</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15:R15" si="39">+N13-N14</f>
-        <v>878.73699999999997</v>
-      </c>
-      <c r="O15" s="4">
-        <f>+O13-O14</f>
-        <v>828.08400000000006</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="39"/>
-        <v>859.77999999999986</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="39"/>
-        <v>869.98699999999997</v>
-      </c>
-      <c r="R15" s="4">
-        <f t="shared" si="39"/>
-        <v>940.69699999999989</v>
-      </c>
-      <c r="S15" s="4">
-        <f>+S13-S14</f>
-        <v>806.49600000000021</v>
-      </c>
-      <c r="T15" s="4">
-        <f>+T13-T14</f>
-        <v>951.41200000000015</v>
-      </c>
-      <c r="U15" s="4">
-        <f>+U13*0.93</f>
-        <v>924.61185900000032</v>
-      </c>
-      <c r="V15" s="4">
-        <f>+V13*0.93</f>
-        <v>982.68236100000001</v>
-      </c>
-      <c r="Y15" s="3">
-        <f>+Y13-Y14</f>
-        <v>2888.837</v>
-      </c>
-      <c r="Z15" s="3">
-        <f>+Z13-Z14</f>
-        <v>3407.4339999999997</v>
-      </c>
-      <c r="AA15" s="3">
-        <f>+AA13-AA14</f>
-        <v>3498.5480000000002</v>
-      </c>
-      <c r="AB15" s="3">
-        <f>+AB13-AB14</f>
-        <v>2886.7697792000004</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" ref="AC15:AM15" si="40">+AC13-AC14</f>
-        <v>2966.1476751880004</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="40"/>
-        <v>3134.5811472981204</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="40"/>
-        <v>3207.0924386115403</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="40"/>
-        <v>2941.9025710480605</v>
-      </c>
-      <c r="AG15" s="3">
-        <f t="shared" si="40"/>
-        <v>2787.4805943361584</v>
-      </c>
-      <c r="AH15" s="3">
-        <f t="shared" si="40"/>
-        <v>2710.4216769100631</v>
-      </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="40"/>
-        <v>2688.2498491176775</v>
-      </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="40"/>
-        <v>2705.7248511047192</v>
-      </c>
-      <c r="AK15" s="3">
-        <f t="shared" si="40"/>
-        <v>1578.5829133358059</v>
-      </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="40"/>
-        <v>681.72604508929578</v>
-      </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="40"/>
-        <v>479.625122873701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>204.77130829337847</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" si="19"/>
+        <v>202.72359521044467</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="19"/>
+        <v>200.69635925834021</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="19"/>
+        <v>198.68939566575679</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f t="shared" si="19"/>
+        <v>196.70250170909921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:G15" si="20">SUM(F3:F14)</f>
+        <v>665.51699999999994</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="20"/>
+        <v>607.58100000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15" si="21">SUM(H3:H14)</f>
+        <v>751.81100000000004</v>
+      </c>
+      <c r="I15" s="6">
+        <f>SUM(I3:I14)</f>
+        <v>838.11500000000001</v>
+      </c>
+      <c r="J15" s="6">
+        <f>SUM(J3:J14)</f>
+        <v>896.73099999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" ref="K15" si="22">SUM(K3:K14)</f>
+        <v>813.721</v>
+      </c>
+      <c r="L15" s="6">
+        <f>SUM(L3:L14)</f>
+        <v>932.87800000000004</v>
+      </c>
+      <c r="M15" s="6">
+        <f>SUM(M3:M14)</f>
+        <v>940.65200000000004</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" ref="N15:V15" si="23">SUM(N3:N14)</f>
+        <v>972.12299999999993</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="23"/>
+        <v>892.81200000000001</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="23"/>
+        <v>957.31699999999989</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="23"/>
+        <v>972.14</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="23"/>
+        <v>1011.9349999999999</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="23"/>
+        <v>901.98300000000017</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="23"/>
+        <v>1023.8250000000002</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="23"/>
+        <v>994.20630000000028</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="23"/>
+        <v>1056.6477</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1477.261</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>1601.3989999999999</v>
+      </c>
+      <c r="Z15" s="6">
+        <f>SUM(Z3:Z14)</f>
+        <v>1890.9220000000003</v>
+      </c>
+      <c r="AA15" s="6">
+        <f>SUM(AA3:AA14)</f>
+        <v>2161.761</v>
+      </c>
+      <c r="AB15" s="6">
+        <f>SUM(AB3:AB14)</f>
+        <v>2363.567</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" ref="AC15:AE15" si="24">SUM(AC3:AC14)</f>
+        <v>3094.2379999999998</v>
+      </c>
+      <c r="AD15" s="6">
+        <f t="shared" si="24"/>
+        <v>3659.3739999999998</v>
+      </c>
+      <c r="AE15" s="6">
+        <f t="shared" si="24"/>
+        <v>3834.2040000000002</v>
+      </c>
+      <c r="AF15" s="6">
+        <f>SUM(AF3:AF14)</f>
+        <v>3996.6620000000003</v>
+      </c>
+      <c r="AG15" s="6">
+        <f t="shared" ref="AG15" si="25">SUM(AG3:AG14)</f>
+        <v>4188.8775650000007</v>
+      </c>
+      <c r="AH15" s="6">
+        <f t="shared" ref="AH15" si="26">SUM(AH3:AH14)</f>
+        <v>4412.0379182500001</v>
+      </c>
+      <c r="AI15" s="6">
+        <f t="shared" ref="AI15" si="27">SUM(AI3:AI14)</f>
+        <v>4526.5567427015012</v>
+      </c>
+      <c r="AJ15" s="6">
+        <f t="shared" ref="AJ15" si="28">SUM(AJ3:AJ14)</f>
+        <v>4263.2972905603256</v>
+      </c>
+      <c r="AK15" s="6">
+        <f t="shared" ref="AK15" si="29">SUM(AK3:AK14)</f>
+        <v>4120.1464135952519</v>
+      </c>
+      <c r="AL15" s="6">
+        <f t="shared" ref="AL15" si="30">SUM(AL3:AL14)</f>
+        <v>4052.6983360638196</v>
+      </c>
+      <c r="AM15" s="6">
+        <f t="shared" ref="AM15" si="31">SUM(AM3:AM14)</f>
+        <v>4044.8453317159342</v>
+      </c>
+      <c r="AN15" s="6">
+        <f t="shared" ref="AN15" si="32">SUM(AN3:AN14)</f>
+        <v>4080.2867453459198</v>
+      </c>
+      <c r="AO15" s="6">
+        <f t="shared" ref="AO15" si="33">SUM(AO3:AO14)</f>
+        <v>2882.128244716369</v>
+      </c>
+      <c r="AP15" s="6">
+        <f t="shared" ref="AP15" si="34">SUM(AP3:AP14)</f>
+        <v>1932.93326053233</v>
+      </c>
+      <c r="AQ15" s="6">
+        <f t="shared" ref="AQ15" si="35">SUM(AQ3:AQ14)</f>
+        <v>1733.5580678715778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <v>225.37799999999999</v>
+        <v>48.298000000000002</v>
       </c>
       <c r="G16" s="4">
-        <v>228.4</v>
+        <v>38.192999999999998</v>
       </c>
       <c r="H16" s="4">
-        <v>269.44</v>
+        <v>50.225999999999999</v>
       </c>
       <c r="I16" s="4">
-        <v>278.55200000000002</v>
+        <v>58.872</v>
       </c>
       <c r="J16" s="4">
-        <v>328.65600000000001</v>
+        <v>58.11</v>
       </c>
       <c r="K16" s="4">
-        <v>258.70100000000002</v>
+        <v>48.206000000000003</v>
       </c>
       <c r="L16" s="4">
-        <v>281.49299999999999</v>
+        <v>53.244999999999997</v>
       </c>
       <c r="M16" s="4">
-        <v>274.74700000000001</v>
-      </c>
-      <c r="N16" s="4">
-        <v>319.76299999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <v>260.51499999999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>276.87099999999998</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>308.3</v>
-      </c>
-      <c r="R16" s="4">
-        <v>300.52</v>
-      </c>
-      <c r="S16" s="4">
-        <v>351.71199999999999</v>
-      </c>
-      <c r="T16" s="4">
-        <v>303.38600000000002</v>
-      </c>
-      <c r="U16" s="4">
-        <f>+Q16</f>
-        <v>308.3</v>
-      </c>
-      <c r="V16" s="4">
-        <f>+R16</f>
-        <v>300.52</v>
-      </c>
-      <c r="Y16" s="3">
+        <v>57.103000000000002</v>
+      </c>
+      <c r="N16" s="3">
+        <v>93.385999999999996</v>
+      </c>
+      <c r="O16" s="3">
+        <v>64.727999999999994</v>
+      </c>
+      <c r="P16" s="3">
+        <v>97.537000000000006</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>102.15300000000001</v>
+      </c>
+      <c r="R16" s="3">
+        <v>71.238</v>
+      </c>
+      <c r="S16" s="3">
+        <v>95.486999999999995</v>
+      </c>
+      <c r="T16" s="3">
+        <v>72.412999999999997</v>
+      </c>
+      <c r="U16" s="3">
+        <f>+U15-U17</f>
+        <v>69.594440999999961</v>
+      </c>
+      <c r="V16" s="3">
+        <f>+V15-V17</f>
+        <v>73.965338999999972</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>121.544</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>127.93</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>148.917</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="4"/>
-        <v>1105.048</v>
-      </c>
-      <c r="Z16" s="3">
+        <v>205.40100000000001</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="16"/>
-        <v>1134.704</v>
-      </c>
-      <c r="AA16" s="3">
+        <v>251.94</v>
+      </c>
+      <c r="AE16" s="3">
         <f t="shared" si="5"/>
-        <v>1146.2059999999999</v>
-      </c>
-      <c r="AB16" s="3">
-        <f>+AB13*0.25</f>
-        <v>767.75792000000013</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AM16" si="41">+AC13*0.25</f>
-        <v>788.86906255000008</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="41"/>
-        <v>833.66519874950006</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="41"/>
-        <v>852.95011665200536</v>
+        <v>335.65600000000001</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="41"/>
-        <v>782.42089655533528</v>
+        <f>SUM(S16:V16)</f>
+        <v>311.45977999999991</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="41"/>
-        <v>741.35122189791446</v>
+        <f t="shared" ref="AG16:AQ16" si="36">+AG15*0.06</f>
+        <v>251.33265390000003</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="41"/>
-        <v>720.85682896544233</v>
+        <f t="shared" si="36"/>
+        <v>264.72227509499999</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="41"/>
-        <v>714.96006625470147</v>
+        <f t="shared" si="36"/>
+        <v>271.59340456209009</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="41"/>
-        <v>719.60767316614874</v>
+        <f t="shared" si="36"/>
+        <v>255.79783743361952</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="41"/>
-        <v>419.83588120633135</v>
+        <f t="shared" si="36"/>
+        <v>247.20878481571512</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="41"/>
-        <v>181.3101183748127</v>
+        <f t="shared" si="36"/>
+        <v>243.16190016382916</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="41"/>
-        <v>127.55987310470771</v>
-      </c>
-    </row>
-    <row r="17" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="36"/>
+        <v>242.69071990295603</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="36"/>
+        <v>244.81720472075517</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="36"/>
+        <v>172.92769468298212</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="36"/>
+        <v>115.9759956319398</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f t="shared" si="36"/>
+        <v>104.01348407229466</v>
+      </c>
+    </row>
+    <row r="17" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <v>83.968000000000004</v>
+        <f t="shared" ref="F17:M17" si="37">+F15-F16</f>
+        <v>617.21899999999994</v>
       </c>
       <c r="G17" s="4">
-        <v>67.930000000000007</v>
+        <f t="shared" si="37"/>
+        <v>569.38800000000003</v>
       </c>
       <c r="H17" s="4">
-        <v>118.52500000000001</v>
+        <f t="shared" si="37"/>
+        <v>701.58500000000004</v>
       </c>
       <c r="I17" s="4">
-        <v>124.47</v>
+        <f t="shared" si="37"/>
+        <v>779.24300000000005</v>
       </c>
       <c r="J17" s="4">
-        <v>140.101</v>
+        <f t="shared" si="37"/>
+        <v>838.62099999999998</v>
       </c>
       <c r="K17" s="4">
-        <v>116.459</v>
+        <f t="shared" si="37"/>
+        <v>765.51499999999999</v>
       </c>
       <c r="L17" s="4">
-        <v>123.71899999999999</v>
+        <f t="shared" si="37"/>
+        <v>879.63300000000004</v>
       </c>
       <c r="M17" s="4">
-        <v>120.80200000000001</v>
+        <f t="shared" si="37"/>
+        <v>883.54900000000009</v>
       </c>
       <c r="N17" s="4">
-        <v>160.10499999999999</v>
+        <f t="shared" ref="N17:R17" si="38">+N15-N16</f>
+        <v>878.73699999999997</v>
       </c>
       <c r="O17" s="4">
-        <v>173.91800000000001</v>
+        <f>+O15-O16</f>
+        <v>828.08400000000006</v>
       </c>
       <c r="P17" s="4">
-        <v>192.01900000000001</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>234.40199999999999</v>
-      </c>
-      <c r="R17" s="3">
-        <v>201.107</v>
-      </c>
-      <c r="S17" s="3">
-        <v>222.84700000000001</v>
-      </c>
-      <c r="T17" s="3">
-        <v>203.46299999999999</v>
-      </c>
-      <c r="U17" s="3">
-        <f>+Q17</f>
-        <v>234.40199999999999</v>
-      </c>
-      <c r="V17" s="3">
-        <f>+R17</f>
-        <v>201.107</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="4"/>
-        <v>451.02600000000001</v>
+        <f t="shared" si="38"/>
+        <v>859.77999999999986</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="38"/>
+        <v>869.98699999999997</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="38"/>
+        <v>940.69699999999989</v>
+      </c>
+      <c r="S17" s="4">
+        <f>+S15-S16</f>
+        <v>806.49600000000021</v>
+      </c>
+      <c r="T17" s="4">
+        <f>+T15-T16</f>
+        <v>951.41200000000015</v>
+      </c>
+      <c r="U17" s="4">
+        <f>+U15*0.93</f>
+        <v>924.61185900000032</v>
+      </c>
+      <c r="V17" s="4">
+        <f>+V15*0.93</f>
+        <v>982.68236100000001</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="16"/>
-        <v>521.08500000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+Z15-Z16</f>
+        <v>1769.3780000000002</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>+AA15-AA16</f>
+        <v>2033.8309999999999</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>+AB15-AB16</f>
+        <v>2214.65</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>+AC15-AC16</f>
+        <v>2888.837</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>+AD15-AD16</f>
+        <v>3407.4339999999997</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>+AE15-AE16</f>
+        <v>3498.5480000000002</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>+AF15-AF16</f>
+        <v>3685.2022200000001</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" ref="AG17:AQ17" si="39">+AG15-AG16</f>
+        <v>3937.5449111000007</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="39"/>
+        <v>4147.3156431549996</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="39"/>
+        <v>4254.9633381394115</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="39"/>
+        <v>4007.4994531267062</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="39"/>
+        <v>3872.9376287795367</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="39"/>
+        <v>3809.5364358999905</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="39"/>
+        <v>3802.1546118129781</v>
+      </c>
+      <c r="AN17" s="3">
+        <f t="shared" si="39"/>
+        <v>3835.4695406251649</v>
+      </c>
+      <c r="AO17" s="3">
+        <f t="shared" si="39"/>
+        <v>2709.2005500333867</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" si="39"/>
+        <v>1816.9572649003901</v>
+      </c>
+      <c r="AQ17" s="3">
+        <f t="shared" si="39"/>
+        <v>1629.5445837992831</v>
+      </c>
+    </row>
+    <row r="18" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
-        <f>+F16+F17</f>
-        <v>309.346</v>
+        <v>225.37799999999999</v>
       </c>
       <c r="G18" s="4">
-        <f>+G16+G17</f>
-        <v>296.33000000000004</v>
+        <v>228.4</v>
       </c>
       <c r="H18" s="4">
-        <f>+H16+H17</f>
-        <v>387.96500000000003</v>
+        <v>269.44</v>
       </c>
       <c r="I18" s="4">
-        <f>+I16+I17</f>
-        <v>403.02200000000005</v>
+        <v>278.55200000000002</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:M18" si="42">+J16+J17</f>
-        <v>468.75700000000001</v>
+        <v>328.65600000000001</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="42"/>
-        <v>375.16</v>
+        <v>258.70100000000002</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="42"/>
-        <v>405.21199999999999</v>
+        <v>281.49299999999999</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="42"/>
-        <v>395.54900000000004</v>
+        <v>274.74700000000001</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18" si="43">+N16+N17</f>
-        <v>479.86799999999994</v>
+        <v>319.76299999999998</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="44">+O16+O17</f>
-        <v>434.43299999999999</v>
+        <v>260.51499999999999</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="45">+P16+P17</f>
-        <v>468.89</v>
+        <v>276.87099999999998</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="46">+Q16+Q17</f>
-        <v>542.702</v>
+        <v>308.3</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18:S18" si="47">+R16+R17</f>
-        <v>501.62699999999995</v>
+        <v>300.52</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="47"/>
-        <v>574.55899999999997</v>
+        <v>351.71199999999999</v>
       </c>
       <c r="T18" s="4">
-        <f>+T16+T17</f>
-        <v>506.84900000000005</v>
+        <v>303.38600000000002</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" ref="U18:V18" si="48">+U16+U17</f>
-        <v>542.702</v>
+        <f>+Q18</f>
+        <v>308.3</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="48"/>
-        <v>501.62699999999995</v>
-      </c>
-      <c r="Y18" s="4">
-        <f t="shared" ref="Y18" si="49">+Y16+Y17</f>
-        <v>1556.0740000000001</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" ref="Z18:AA18" si="50">+Z16+Z17</f>
-        <v>1655.789</v>
-      </c>
-      <c r="AA18" s="4">
-        <f t="shared" si="50"/>
+        <f>+R18</f>
+        <v>300.52</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>683.53</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>736.94200000000001</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>854.23299999999995</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="4"/>
+        <v>1105.048</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="16"/>
+        <v>1134.704</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="5"/>
         <v>1146.2059999999999</v>
       </c>
-      <c r="AB18" s="4">
-        <f t="shared" ref="AB18" si="51">+AB16+AB17</f>
-        <v>767.75792000000013</v>
-      </c>
-      <c r="AC18" s="4">
-        <f t="shared" ref="AC18" si="52">+AC16+AC17</f>
-        <v>788.86906255000008</v>
-      </c>
-      <c r="AD18" s="4">
-        <f t="shared" ref="AD18" si="53">+AD16+AD17</f>
-        <v>833.66519874950006</v>
-      </c>
-      <c r="AE18" s="4">
-        <f t="shared" ref="AE18" si="54">+AE16+AE17</f>
-        <v>852.95011665200536</v>
-      </c>
-      <c r="AF18" s="4">
-        <f t="shared" ref="AF18" si="55">+AF16+AF17</f>
-        <v>782.42089655533528</v>
-      </c>
-      <c r="AG18" s="4">
-        <f t="shared" ref="AG18" si="56">+AG16+AG17</f>
-        <v>741.35122189791446</v>
-      </c>
-      <c r="AH18" s="4">
-        <f t="shared" ref="AH18" si="57">+AH16+AH17</f>
-        <v>720.85682896544233</v>
-      </c>
-      <c r="AI18" s="4">
-        <f t="shared" ref="AI18" si="58">+AI16+AI17</f>
-        <v>714.96006625470147</v>
-      </c>
-      <c r="AJ18" s="4">
-        <f t="shared" ref="AJ18" si="59">+AJ16+AJ17</f>
-        <v>719.60767316614874</v>
-      </c>
-      <c r="AK18" s="4">
-        <f t="shared" ref="AK18" si="60">+AK16+AK17</f>
-        <v>419.83588120633135</v>
-      </c>
-      <c r="AL18" s="4">
-        <f t="shared" ref="AL18" si="61">+AL16+AL17</f>
-        <v>181.3101183748127</v>
-      </c>
-      <c r="AM18" s="4">
-        <f t="shared" ref="AM18" si="62">+AM16+AM17</f>
-        <v>127.55987310470771</v>
-      </c>
-    </row>
-    <row r="19" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <f>SUM(S18:V18)</f>
+        <v>1263.9179999999999</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" ref="AG18:AQ18" si="40">+AG15*0.25</f>
+        <v>1047.2193912500002</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" si="40"/>
+        <v>1103.0094795625</v>
+      </c>
+      <c r="AI18" s="3">
+        <f t="shared" si="40"/>
+        <v>1131.6391856753753</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="40"/>
+        <v>1065.8243226400814</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="40"/>
+        <v>1030.036603398813</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="40"/>
+        <v>1013.1745840159549</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="40"/>
+        <v>1011.2113329289836</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="40"/>
+        <v>1020.07168633648</v>
+      </c>
+      <c r="AO18" s="3">
+        <f t="shared" si="40"/>
+        <v>720.53206117909224</v>
+      </c>
+      <c r="AP18" s="3">
+        <f t="shared" si="40"/>
+        <v>483.2333151330825</v>
+      </c>
+      <c r="AQ18" s="3">
+        <f t="shared" si="40"/>
+        <v>433.38951696789445</v>
+      </c>
+    </row>
+    <row r="19" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <f>+F15-F18</f>
-        <v>307.87299999999993</v>
+        <v>83.968000000000004</v>
       </c>
       <c r="G19" s="4">
-        <f>+G15-G18</f>
-        <v>273.05799999999999</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="H19" s="4">
-        <f>+H15-H18</f>
-        <v>313.62</v>
+        <v>118.52500000000001</v>
       </c>
       <c r="I19" s="4">
-        <f>+I15-I18</f>
-        <v>376.221</v>
+        <v>124.47</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" ref="J19:M19" si="63">+J15-J18</f>
-        <v>369.86399999999998</v>
+        <v>140.101</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="63"/>
-        <v>390.35499999999996</v>
+        <v>116.459</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="63"/>
-        <v>474.42100000000005</v>
+        <v>123.71899999999999</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="63"/>
-        <v>488.00000000000006</v>
+        <v>120.80200000000001</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" ref="N19" si="64">+N15-N18</f>
-        <v>398.86900000000003</v>
+        <v>160.10499999999999</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" ref="O19" si="65">+O15-O18</f>
-        <v>393.65100000000007</v>
+        <v>173.91800000000001</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19" si="66">+P15-P18</f>
-        <v>390.88999999999987</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" ref="Q19" si="67">+Q15-Q18</f>
-        <v>327.28499999999997</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" ref="R19:S19" si="68">+R15-R18</f>
-        <v>439.06999999999994</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="68"/>
-        <v>231.93700000000024</v>
-      </c>
-      <c r="T19" s="4">
-        <f>+T15-T18</f>
-        <v>444.5630000000001</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" ref="U19:V19" si="69">+U15-U18</f>
-        <v>381.90985900000032</v>
-      </c>
-      <c r="V19" s="4">
-        <f t="shared" si="69"/>
-        <v>481.05536100000006</v>
-      </c>
-      <c r="Y19" s="4">
-        <f t="shared" ref="Y19" si="70">+Y15-Y18</f>
-        <v>1332.7629999999999</v>
-      </c>
-      <c r="Z19" s="4">
-        <f t="shared" ref="Z19:AA19" si="71">+Z15-Z18</f>
-        <v>1751.6449999999998</v>
-      </c>
-      <c r="AA19" s="4">
-        <f t="shared" si="71"/>
-        <v>2352.3420000000006</v>
-      </c>
-      <c r="AB19" s="4">
-        <f t="shared" ref="AB19" si="72">+AB15-AB18</f>
-        <v>2119.0118592000003</v>
-      </c>
-      <c r="AC19" s="4">
-        <f t="shared" ref="AC19" si="73">+AC15-AC18</f>
-        <v>2177.2786126380006</v>
-      </c>
-      <c r="AD19" s="4">
-        <f t="shared" ref="AD19" si="74">+AD15-AD18</f>
-        <v>2300.9159485486202</v>
-      </c>
-      <c r="AE19" s="4">
-        <f t="shared" ref="AE19" si="75">+AE15-AE18</f>
-        <v>2354.1423219595349</v>
-      </c>
-      <c r="AF19" s="4">
-        <f t="shared" ref="AF19" si="76">+AF15-AF18</f>
-        <v>2159.4816744927252</v>
-      </c>
-      <c r="AG19" s="4">
-        <f t="shared" ref="AG19" si="77">+AG15-AG18</f>
-        <v>2046.129372438244</v>
-      </c>
-      <c r="AH19" s="4">
-        <f t="shared" ref="AH19" si="78">+AH15-AH18</f>
-        <v>1989.5648479446209</v>
-      </c>
-      <c r="AI19" s="4">
-        <f t="shared" ref="AI19" si="79">+AI15-AI18</f>
-        <v>1973.2897828629762</v>
-      </c>
-      <c r="AJ19" s="4">
-        <f t="shared" ref="AJ19" si="80">+AJ15-AJ18</f>
-        <v>1986.1171779385704</v>
-      </c>
-      <c r="AK19" s="4">
-        <f t="shared" ref="AK19" si="81">+AK15-AK18</f>
-        <v>1158.7470321294745</v>
-      </c>
-      <c r="AL19" s="4">
-        <f t="shared" ref="AL19" si="82">+AL15-AL18</f>
-        <v>500.41592671448308</v>
-      </c>
-      <c r="AM19" s="4">
-        <f t="shared" ref="AM19" si="83">+AM15-AM18</f>
-        <v>352.06524976899328</v>
-      </c>
-    </row>
-    <row r="20" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>192.01900000000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>234.40199999999999</v>
+      </c>
+      <c r="R19" s="3">
+        <v>201.107</v>
+      </c>
+      <c r="S19" s="3">
+        <v>222.84700000000001</v>
+      </c>
+      <c r="T19" s="3">
+        <v>203.46299999999999</v>
+      </c>
+      <c r="U19" s="3">
+        <f>+Q19</f>
+        <v>234.40199999999999</v>
+      </c>
+      <c r="V19" s="3">
+        <f>+R19</f>
+        <v>201.107</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>226.61600000000001</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>299.726</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>333.375</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="4"/>
+        <v>451.02600000000001</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="16"/>
+        <v>521.08500000000004</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>SUM(S19:V19)</f>
+        <v>861.81899999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <v>-11.526999999999999</v>
+        <f>+F18+F19</f>
+        <v>309.346</v>
       </c>
       <c r="G20" s="4">
-        <v>-11.688000000000001</v>
+        <f>+G18+G19</f>
+        <v>296.33000000000004</v>
       </c>
       <c r="H20" s="4">
-        <v>-47.097999999999999</v>
+        <f>+H18+H19</f>
+        <v>387.96500000000003</v>
       </c>
       <c r="I20" s="4">
-        <v>-65.326999999999998</v>
+        <f>+I18+I19</f>
+        <v>403.02200000000005</v>
       </c>
       <c r="J20" s="4">
-        <v>-61.997999999999998</v>
+        <f t="shared" ref="J20:M20" si="41">+J18+J19</f>
+        <v>468.75700000000001</v>
       </c>
       <c r="K20" s="4">
-        <v>-58.515999999999998</v>
+        <f t="shared" si="41"/>
+        <v>375.16</v>
       </c>
       <c r="L20" s="4">
-        <v>-57.616999999999997</v>
+        <f t="shared" si="41"/>
+        <v>405.21199999999999</v>
       </c>
       <c r="M20" s="4">
-        <v>-65.981999999999999</v>
+        <f t="shared" si="41"/>
+        <v>395.54900000000004</v>
       </c>
       <c r="N20" s="4">
-        <v>-74.125</v>
+        <f t="shared" ref="N20" si="42">+N18+N19</f>
+        <v>479.86799999999994</v>
       </c>
       <c r="O20" s="4">
-        <v>-74.147000000000006</v>
+        <f t="shared" ref="O20" si="43">+O18+O19</f>
+        <v>434.43299999999999</v>
       </c>
       <c r="P20" s="4">
-        <v>-73.47</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-71.497</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-70.323999999999998</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-66.116</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-62.023000000000003</v>
-      </c>
-      <c r="U20" s="3">
-        <f>+T20+2</f>
-        <v>-60.023000000000003</v>
-      </c>
-      <c r="V20" s="3">
-        <f>+U20+2</f>
-        <v>-58.023000000000003</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" ref="Y20:Y22" si="84">SUM(G20:J20)</f>
-        <v>-186.11099999999999</v>
+        <f t="shared" ref="P20" si="44">+P18+P19</f>
+        <v>468.89</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" ref="Q20" si="45">+Q18+Q19</f>
+        <v>542.702</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" ref="R20:S20" si="46">+R18+R19</f>
+        <v>501.62699999999995</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="46"/>
+        <v>574.55899999999997</v>
+      </c>
+      <c r="T20" s="4">
+        <f>+T18+T19</f>
+        <v>506.84900000000005</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" ref="U20:V20" si="47">+U18+U19</f>
+        <v>542.702</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="47"/>
+        <v>501.62699999999995</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" ref="Z20:Z22" si="85">SUM(K20:N20)</f>
-        <v>-256.24</v>
+        <f>+Z19+Z18</f>
+        <v>910.14599999999996</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" ref="AA20:AA22" si="86">SUM(O20:R20)</f>
-        <v>-289.43800000000005</v>
+        <f t="shared" ref="AA20:AC20" si="48">+AA19+AA18</f>
+        <v>1036.6680000000001</v>
       </c>
       <c r="AB20" s="3">
-        <f>+AA32*0.05</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1187.6079999999999</v>
       </c>
       <c r="AC20" s="3">
-        <f>+AB32*0.05</f>
-        <v>95.355533664000021</v>
-      </c>
-      <c r="AD20" s="3">
-        <f>+AC32*$AP$28</f>
-        <v>79.049628099036013</v>
-      </c>
-      <c r="AE20" s="3">
-        <f>+AD32*$AP$28</f>
-        <v>121.88900847869384</v>
-      </c>
-      <c r="AF20" s="3">
-        <f>+AE32*$AP$28</f>
-        <v>166.45757242658198</v>
-      </c>
-      <c r="AG20" s="3">
-        <f>+AF32*$AP$28</f>
-        <v>208.32447887112951</v>
-      </c>
-      <c r="AH20" s="3">
-        <f>+AG32*$AP$28</f>
-        <v>248.90464819469824</v>
-      </c>
-      <c r="AI20" s="3">
-        <f>+AH32*$AP$28</f>
-        <v>289.19709912520602</v>
-      </c>
-      <c r="AJ20" s="3">
-        <f>+AI32*$AP$28</f>
-        <v>329.92186300099326</v>
-      </c>
-      <c r="AK20" s="3">
-        <f>+AJ32*$AP$28</f>
-        <v>371.6105657379054</v>
-      </c>
-      <c r="AL20" s="3">
-        <f>+AK32*$AP$28</f>
-        <v>399.15700249951828</v>
-      </c>
-      <c r="AM20" s="3">
-        <f>+AL32*$AP$28</f>
-        <v>415.34931522537033</v>
-      </c>
-    </row>
-    <row r="21" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>1556.0740000000001</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" ref="AD20:AE20" si="49">+AD18+AD19</f>
+        <v>1655.789</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="49"/>
+        <v>1146.2059999999999</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" ref="AF20" si="50">+AF18+AF19</f>
+        <v>2125.7370000000001</v>
+      </c>
+      <c r="AG20" s="4">
+        <f t="shared" ref="AG20" si="51">+AG18+AG19</f>
+        <v>1047.2193912500002</v>
+      </c>
+      <c r="AH20" s="4">
+        <f t="shared" ref="AH20" si="52">+AH18+AH19</f>
+        <v>1103.0094795625</v>
+      </c>
+      <c r="AI20" s="4">
+        <f t="shared" ref="AI20" si="53">+AI18+AI19</f>
+        <v>1131.6391856753753</v>
+      </c>
+      <c r="AJ20" s="4">
+        <f t="shared" ref="AJ20" si="54">+AJ18+AJ19</f>
+        <v>1065.8243226400814</v>
+      </c>
+      <c r="AK20" s="4">
+        <f t="shared" ref="AK20" si="55">+AK18+AK19</f>
+        <v>1030.036603398813</v>
+      </c>
+      <c r="AL20" s="4">
+        <f t="shared" ref="AL20" si="56">+AL18+AL19</f>
+        <v>1013.1745840159549</v>
+      </c>
+      <c r="AM20" s="4">
+        <f t="shared" ref="AM20" si="57">+AM18+AM19</f>
+        <v>1011.2113329289836</v>
+      </c>
+      <c r="AN20" s="4">
+        <f t="shared" ref="AN20" si="58">+AN18+AN19</f>
+        <v>1020.07168633648</v>
+      </c>
+      <c r="AO20" s="4">
+        <f t="shared" ref="AO20" si="59">+AO18+AO19</f>
+        <v>720.53206117909224</v>
+      </c>
+      <c r="AP20" s="4">
+        <f t="shared" ref="AP20" si="60">+AP18+AP19</f>
+        <v>483.2333151330825</v>
+      </c>
+      <c r="AQ20" s="4">
+        <f t="shared" ref="AQ20" si="61">+AQ18+AQ19</f>
+        <v>433.38951696789445</v>
+      </c>
+    </row>
+    <row r="21" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f t="shared" ref="F21:L21" si="87">+F19+F20</f>
-        <v>296.34599999999995</v>
+        <f>+F17-F20</f>
+        <v>307.87299999999993</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="87"/>
-        <v>261.37</v>
+        <f>+G17-G20</f>
+        <v>273.05799999999999</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="87"/>
-        <v>266.52199999999999</v>
+        <f>+H17-H20</f>
+        <v>313.62</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="87"/>
-        <v>310.89400000000001</v>
+        <f>+I17-I20</f>
+        <v>376.221</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="87"/>
-        <v>307.86599999999999</v>
+        <f t="shared" ref="J21:M21" si="62">+J17-J20</f>
+        <v>369.86399999999998</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="87"/>
-        <v>331.83899999999994</v>
+        <f t="shared" si="62"/>
+        <v>390.35499999999996</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="87"/>
-        <v>416.80400000000003</v>
+        <f t="shared" si="62"/>
+        <v>474.42100000000005</v>
       </c>
       <c r="M21" s="4">
-        <f>+M19+M20</f>
-        <v>422.01800000000003</v>
+        <f t="shared" si="62"/>
+        <v>488.00000000000006</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" ref="N21:V21" si="88">+N19+N20</f>
-        <v>324.74400000000003</v>
+        <f t="shared" ref="N21" si="63">+N17-N20</f>
+        <v>398.86900000000003</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="88"/>
-        <v>319.50400000000008</v>
+        <f t="shared" ref="O21" si="64">+O17-O20</f>
+        <v>393.65100000000007</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="88"/>
-        <v>317.41999999999985</v>
+        <f t="shared" ref="P21" si="65">+P17-P20</f>
+        <v>390.88999999999987</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="88"/>
-        <v>255.78799999999995</v>
+        <f t="shared" ref="Q21" si="66">+Q17-Q20</f>
+        <v>327.28499999999997</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="88"/>
-        <v>368.74599999999992</v>
+        <f t="shared" ref="R21:S21" si="67">+R17-R20</f>
+        <v>439.06999999999994</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="88"/>
-        <v>165.82100000000025</v>
+        <f t="shared" si="67"/>
+        <v>231.93700000000024</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="88"/>
-        <v>382.54000000000008</v>
+        <f>+T17-T20</f>
+        <v>444.5630000000001</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="88"/>
-        <v>321.8868590000003</v>
+        <f t="shared" ref="U21:V21" si="68">+U17-U20</f>
+        <v>381.90985900000032</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="88"/>
-        <v>423.03236100000004</v>
-      </c>
-      <c r="Y21" s="4">
-        <f t="shared" ref="Y21:AA21" si="89">+Y19+Y20</f>
-        <v>1146.652</v>
+        <f t="shared" si="68"/>
+        <v>481.05536100000006</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="89"/>
-        <v>1495.4049999999997</v>
+        <f t="shared" ref="Z21:AC21" si="69">+Z17-Z20</f>
+        <v>859.2320000000002</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="89"/>
-        <v>2062.9040000000005</v>
+        <f t="shared" si="69"/>
+        <v>997.16299999999978</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" ref="AB21" si="90">+AB19+AB20</f>
-        <v>2119.0118592000003</v>
+        <f t="shared" si="69"/>
+        <v>1027.0420000000001</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" ref="AC21" si="91">+AC19+AC20</f>
-        <v>2272.6341463020008</v>
+        <f t="shared" ref="AC21" si="70">+AC17-AC20</f>
+        <v>1332.7629999999999</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" ref="AD21" si="92">+AD19+AD20</f>
-        <v>2379.9655766476562</v>
+        <f t="shared" ref="AD21:AE21" si="71">+AD17-AD20</f>
+        <v>1751.6449999999998</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" ref="AE21" si="93">+AE19+AE20</f>
-        <v>2476.0313304382289</v>
+        <f t="shared" si="71"/>
+        <v>2352.3420000000006</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" ref="AF21" si="94">+AF19+AF20</f>
-        <v>2325.9392469193072</v>
+        <f t="shared" ref="AF21" si="72">+AF17-AF20</f>
+        <v>1559.46522</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" ref="AG21" si="95">+AG19+AG20</f>
-        <v>2254.4538513093735</v>
+        <f t="shared" ref="AG21" si="73">+AG17-AG20</f>
+        <v>2890.3255198500005</v>
       </c>
       <c r="AH21" s="4">
-        <f t="shared" ref="AH21" si="96">+AH19+AH20</f>
-        <v>2238.4694961393193</v>
+        <f t="shared" ref="AH21" si="74">+AH17-AH20</f>
+        <v>3044.3061635924996</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" ref="AI21" si="97">+AI19+AI20</f>
-        <v>2262.4868819881822</v>
+        <f t="shared" ref="AI21" si="75">+AI17-AI20</f>
+        <v>3123.3241524640362</v>
       </c>
       <c r="AJ21" s="4">
-        <f t="shared" ref="AJ21" si="98">+AJ19+AJ20</f>
-        <v>2316.0390409395636</v>
+        <f t="shared" ref="AJ21" si="76">+AJ17-AJ20</f>
+        <v>2941.6751304866248</v>
       </c>
       <c r="AK21" s="4">
-        <f t="shared" ref="AK21" si="99">+AK19+AK20</f>
-        <v>1530.3575978673798</v>
+        <f t="shared" ref="AK21" si="77">+AK17-AK20</f>
+        <v>2842.9010253807237</v>
       </c>
       <c r="AL21" s="4">
-        <f t="shared" ref="AL21" si="100">+AL19+AL20</f>
-        <v>899.57292921400131</v>
+        <f t="shared" ref="AL21" si="78">+AL17-AL20</f>
+        <v>2796.3618518840358</v>
       </c>
       <c r="AM21" s="4">
-        <f t="shared" ref="AM21" si="101">+AM19+AM20</f>
-        <v>767.41456499436367</v>
-      </c>
-    </row>
-    <row r="22" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AM21" si="79">+AM17-AM20</f>
+        <v>2790.9432788839945</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" ref="AN21" si="80">+AN17-AN20</f>
+        <v>2815.3978542886848</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" ref="AO21" si="81">+AO17-AO20</f>
+        <v>1988.6684888542945</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" ref="AP21" si="82">+AP17-AP20</f>
+        <v>1333.7239497673077</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f t="shared" ref="AQ21" si="83">+AQ17-AQ20</f>
+        <v>1196.1550668313887</v>
+      </c>
+    </row>
+    <row r="22" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <v>29.968</v>
+        <v>-11.526999999999999</v>
       </c>
       <c r="G22" s="4">
-        <v>37.658999999999999</v>
+        <v>-11.688000000000001</v>
       </c>
       <c r="H22" s="4">
-        <v>30.262</v>
+        <v>-47.097999999999999</v>
       </c>
       <c r="I22" s="4">
-        <v>43.588999999999999</v>
+        <v>-65.326999999999998</v>
       </c>
       <c r="J22" s="4">
-        <v>37.253999999999998</v>
+        <v>-61.997999999999998</v>
       </c>
       <c r="K22" s="4">
-        <v>55.222999999999999</v>
+        <v>-58.515999999999998</v>
       </c>
       <c r="L22" s="4">
-        <v>38.387</v>
+        <v>-57.616999999999997</v>
       </c>
       <c r="M22" s="4">
-        <v>44.386000000000003</v>
+        <v>-65.981999999999999</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>-74.125</v>
       </c>
       <c r="O22" s="4">
-        <v>40.197000000000003</v>
+        <v>-74.147000000000006</v>
       </c>
       <c r="P22" s="4">
-        <v>24.323</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>47.176000000000002</v>
-      </c>
-      <c r="R22" s="4">
-        <v>33.088999999999999</v>
-      </c>
-      <c r="S22" s="4">
-        <v>11.669</v>
-      </c>
-      <c r="T22" s="4">
-        <v>23.52</v>
-      </c>
-      <c r="U22" s="4">
-        <f>+U21*0.1</f>
-        <v>32.188685900000031</v>
-      </c>
-      <c r="V22" s="4">
-        <f>+V21*0.1</f>
-        <v>42.303236100000007</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="84"/>
-        <v>148.76399999999998</v>
+        <v>-73.47</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-71.497</v>
+      </c>
+      <c r="R22" s="3">
+        <v>-70.323999999999998</v>
+      </c>
+      <c r="S22" s="3">
+        <v>-66.116</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-62.023000000000003</v>
+      </c>
+      <c r="U22" s="3">
+        <f>+T22+2</f>
+        <v>-60.023000000000003</v>
+      </c>
+      <c r="V22" s="3">
+        <f>+U22+2</f>
+        <v>-58.023000000000003</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="85"/>
-        <v>137.99600000000001</v>
+        <v>-78.5</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="86"/>
-        <v>144.78500000000003</v>
+        <v>-72.260999999999996</v>
       </c>
       <c r="AB22" s="3">
-        <f>+AB21*0.1</f>
-        <v>211.90118592000005</v>
+        <v>-99.706999999999994</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" ref="AC22:AM22" si="102">+AC21*0.1</f>
-        <v>227.26341463020009</v>
+        <f t="shared" ref="AC22:AC24" si="84">SUM(G22:J22)</f>
+        <v>-186.11099999999999</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="102"/>
-        <v>237.99655766476565</v>
+        <f t="shared" ref="AD22:AD24" si="85">SUM(K22:N22)</f>
+        <v>-256.24</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="102"/>
-        <v>247.60313304382291</v>
+        <f t="shared" ref="AE22:AE24" si="86">SUM(O22:R22)</f>
+        <v>-289.43800000000005</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="102"/>
-        <v>232.59392469193074</v>
+        <f>SUM(S22:V22)</f>
+        <v>-246.185</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="102"/>
-        <v>225.44538513093735</v>
+        <f>+AF36*0.05</f>
+        <v>60.179964900000009</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="102"/>
-        <v>223.84694961393194</v>
+        <f t="shared" ref="AH22:AQ22" si="87">+AG36*$AT$32</f>
+        <v>77.181084685500011</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="102"/>
-        <v>226.24868819881823</v>
+        <f t="shared" si="87"/>
+        <v>133.36785515450399</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="102"/>
-        <v>231.60390409395637</v>
+        <f t="shared" si="87"/>
+        <v>191.98831129163773</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="102"/>
-        <v>153.035759786738</v>
+        <f t="shared" si="87"/>
+        <v>248.39425324364646</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" si="102"/>
-        <v>89.957292921400139</v>
+        <f t="shared" si="87"/>
+        <v>304.03756825888513</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="102"/>
-        <v>76.741456499436367</v>
-      </c>
-    </row>
-    <row r="23" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="87"/>
+        <v>359.84475782145768</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="87"/>
+        <v>416.55894248215583</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="87"/>
+        <v>474.73416482403098</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="87"/>
+        <v>519.07541259024083</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f t="shared" si="87"/>
+        <v>552.42580111267671</v>
+      </c>
+    </row>
+    <row r="23" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:L23" si="103">+F21-F22</f>
-        <v>266.37799999999993</v>
+        <f t="shared" ref="F23:L23" si="88">+F21+F22</f>
+        <v>296.34599999999995</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="103"/>
-        <v>223.71100000000001</v>
+        <f t="shared" si="88"/>
+        <v>261.37</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="103"/>
-        <v>236.26</v>
+        <f t="shared" si="88"/>
+        <v>266.52199999999999</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="103"/>
-        <v>267.30500000000001</v>
+        <f t="shared" si="88"/>
+        <v>310.89400000000001</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="103"/>
-        <v>270.61199999999997</v>
+        <f t="shared" si="88"/>
+        <v>307.86599999999999</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="103"/>
-        <v>276.61599999999993</v>
+        <f t="shared" si="88"/>
+        <v>331.83899999999994</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="103"/>
-        <v>378.41700000000003</v>
+        <f t="shared" si="88"/>
+        <v>416.80400000000003</v>
       </c>
       <c r="M23" s="4">
-        <f>+M21-M22</f>
-        <v>377.63200000000001</v>
+        <f>+M21+M22</f>
+        <v>422.01800000000003</v>
       </c>
       <c r="N23" s="4">
-        <f>+N21-N22</f>
+        <f t="shared" ref="N23:V23" si="89">+N21+N22</f>
         <v>324.74400000000003</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23:V23" si="104">+O21-O22</f>
-        <v>279.30700000000007</v>
+        <f t="shared" si="89"/>
+        <v>319.50400000000008</v>
       </c>
       <c r="P23" s="4">
+        <f t="shared" si="89"/>
+        <v>317.41999999999985</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="89"/>
+        <v>255.78799999999995</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="89"/>
+        <v>368.74599999999992</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="89"/>
+        <v>165.82100000000025</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="89"/>
+        <v>382.54000000000008</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="89"/>
+        <v>321.8868590000003</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="89"/>
+        <v>423.03236100000004</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" ref="Z23:AC23" si="90">+Z21+Z22</f>
+        <v>780.7320000000002</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="90"/>
+        <v>924.90199999999982</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="90"/>
+        <v>927.33500000000015</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" ref="AC23:AE23" si="91">+AC21+AC22</f>
+        <v>1146.652</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="91"/>
+        <v>1495.4049999999997</v>
+      </c>
+      <c r="AE23" s="4">
+        <f t="shared" si="91"/>
+        <v>2062.9040000000005</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" ref="AF23" si="92">+AF21+AF22</f>
+        <v>1313.2802200000001</v>
+      </c>
+      <c r="AG23" s="4">
+        <f t="shared" ref="AG23" si="93">+AG21+AG22</f>
+        <v>2950.5054847500005</v>
+      </c>
+      <c r="AH23" s="4">
+        <f t="shared" ref="AH23" si="94">+AH21+AH22</f>
+        <v>3121.4872482779997</v>
+      </c>
+      <c r="AI23" s="4">
+        <f t="shared" ref="AI23" si="95">+AI21+AI22</f>
+        <v>3256.6920076185402</v>
+      </c>
+      <c r="AJ23" s="4">
+        <f t="shared" ref="AJ23" si="96">+AJ21+AJ22</f>
+        <v>3133.6634417782625</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" ref="AK23" si="97">+AK21+AK22</f>
+        <v>3091.29527862437</v>
+      </c>
+      <c r="AL23" s="4">
+        <f t="shared" ref="AL23" si="98">+AL21+AL22</f>
+        <v>3100.3994201429209</v>
+      </c>
+      <c r="AM23" s="4">
+        <f t="shared" ref="AM23" si="99">+AM21+AM22</f>
+        <v>3150.7880367054522</v>
+      </c>
+      <c r="AN23" s="4">
+        <f t="shared" ref="AN23" si="100">+AN21+AN22</f>
+        <v>3231.9567967708408</v>
+      </c>
+      <c r="AO23" s="4">
+        <f t="shared" ref="AO23" si="101">+AO21+AO22</f>
+        <v>2463.4026536783254</v>
+      </c>
+      <c r="AP23" s="4">
+        <f t="shared" ref="AP23" si="102">+AP21+AP22</f>
+        <v>1852.7993623575485</v>
+      </c>
+      <c r="AQ23" s="4">
+        <f t="shared" ref="AQ23" si="103">+AQ21+AQ22</f>
+        <v>1748.5808679440654</v>
+      </c>
+    </row>
+    <row r="24" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>29.968</v>
+      </c>
+      <c r="G24" s="4">
+        <v>37.658999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>30.262</v>
+      </c>
+      <c r="I24" s="4">
+        <v>43.588999999999999</v>
+      </c>
+      <c r="J24" s="4">
+        <v>37.253999999999998</v>
+      </c>
+      <c r="K24" s="4">
+        <v>55.222999999999999</v>
+      </c>
+      <c r="L24" s="4">
+        <v>38.387</v>
+      </c>
+      <c r="M24" s="4">
+        <v>44.386000000000003</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>40.197000000000003</v>
+      </c>
+      <c r="P24" s="4">
+        <v>24.323</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>47.176000000000002</v>
+      </c>
+      <c r="R24" s="4">
+        <v>33.088999999999999</v>
+      </c>
+      <c r="S24" s="4">
+        <v>11.669</v>
+      </c>
+      <c r="T24" s="4">
+        <v>23.52</v>
+      </c>
+      <c r="U24" s="4">
+        <f>+U23*0.1</f>
+        <v>32.188685900000031</v>
+      </c>
+      <c r="V24" s="4">
+        <f>+V23*0.1</f>
+        <v>42.303236100000007</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>80.162000000000006</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>-73.153999999999996</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>33.517000000000003</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="84"/>
+        <v>148.76399999999998</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" si="85"/>
+        <v>137.99600000000001</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="86"/>
+        <v>144.78500000000003</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>SUM(S24:V24)</f>
+        <v>109.68092200000004</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" ref="AG24:AQ24" si="104">+AG23*0.1</f>
+        <v>295.05054847500008</v>
+      </c>
+      <c r="AH24" s="3">
         <f t="shared" si="104"/>
-        <v>293.09699999999987</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>312.14872482779998</v>
+      </c>
+      <c r="AI24" s="3">
         <f t="shared" si="104"/>
-        <v>208.61199999999997</v>
-      </c>
-      <c r="R23" s="4">
+        <v>325.66920076185403</v>
+      </c>
+      <c r="AJ24" s="3">
         <f t="shared" si="104"/>
-        <v>335.65699999999993</v>
-      </c>
-      <c r="S23" s="4">
+        <v>313.36634417782625</v>
+      </c>
+      <c r="AK24" s="3">
         <f t="shared" si="104"/>
-        <v>154.15200000000024</v>
-      </c>
-      <c r="T23" s="4">
+        <v>309.12952786243704</v>
+      </c>
+      <c r="AL24" s="3">
         <f t="shared" si="104"/>
-        <v>359.0200000000001</v>
-      </c>
-      <c r="U23" s="4">
+        <v>310.03994201429214</v>
+      </c>
+      <c r="AM24" s="3">
         <f t="shared" si="104"/>
-        <v>289.69817310000025</v>
-      </c>
-      <c r="V23" s="4">
+        <v>315.07880367054526</v>
+      </c>
+      <c r="AN24" s="3">
         <f t="shared" si="104"/>
-        <v>380.72912490000004</v>
-      </c>
-      <c r="Y23" s="4">
-        <f t="shared" ref="Y23:AB23" si="105">+Y21-Y22</f>
-        <v>997.88800000000003</v>
-      </c>
-      <c r="Z23" s="4">
-        <f t="shared" si="105"/>
-        <v>1357.4089999999997</v>
-      </c>
-      <c r="AA23" s="4">
-        <f t="shared" si="105"/>
-        <v>1918.1190000000004</v>
-      </c>
-      <c r="AB23" s="4">
-        <f t="shared" si="105"/>
-        <v>1907.1106732800004</v>
-      </c>
-      <c r="AC23" s="4">
-        <f t="shared" ref="AC23" si="106">+AC21-AC22</f>
-        <v>2045.3707316718007</v>
-      </c>
-      <c r="AD23" s="4">
-        <f t="shared" ref="AD23" si="107">+AD21-AD22</f>
-        <v>2141.9690189828907</v>
-      </c>
-      <c r="AE23" s="4">
-        <f t="shared" ref="AE23" si="108">+AE21-AE22</f>
-        <v>2228.4281973944062</v>
-      </c>
-      <c r="AF23" s="4">
-        <f t="shared" ref="AF23" si="109">+AF21-AF22</f>
-        <v>2093.3453222273765</v>
-      </c>
-      <c r="AG23" s="4">
-        <f t="shared" ref="AG23" si="110">+AG21-AG22</f>
-        <v>2029.008466178436</v>
-      </c>
-      <c r="AH23" s="4">
-        <f t="shared" ref="AH23" si="111">+AH21-AH22</f>
-        <v>2014.6225465253874</v>
-      </c>
-      <c r="AI23" s="4">
-        <f t="shared" ref="AI23" si="112">+AI21-AI22</f>
-        <v>2036.238193789364</v>
-      </c>
-      <c r="AJ23" s="4">
-        <f t="shared" ref="AJ23" si="113">+AJ21-AJ22</f>
-        <v>2084.4351368456073</v>
-      </c>
-      <c r="AK23" s="4">
-        <f t="shared" ref="AK23" si="114">+AK21-AK22</f>
-        <v>1377.3218380806418</v>
-      </c>
-      <c r="AL23" s="4">
-        <f t="shared" ref="AL23" si="115">+AL21-AL22</f>
-        <v>809.61563629260115</v>
-      </c>
-      <c r="AM23" s="4">
-        <f t="shared" ref="AM23" si="116">+AM21-AM22</f>
-        <v>690.67310849492731</v>
-      </c>
-      <c r="AN23" s="3">
-        <f>+AM23*(1+$AP$27)</f>
-        <v>656.13945307018093</v>
-      </c>
-      <c r="AO23" s="3">
-        <f>+AN23*(1+$AP$27)</f>
-        <v>623.33248041667184</v>
-      </c>
-      <c r="AP23" s="3">
-        <f>+AO23*(1+$AP$27)</f>
-        <v>592.1658563958382</v>
-      </c>
-      <c r="AQ23" s="3">
-        <f>+AP23*(1+$AP$27)</f>
-        <v>562.55756357604628</v>
-      </c>
-      <c r="AR23" s="3">
-        <f>+AQ23*(1+$AP$27)</f>
-        <v>534.42968539724393</v>
-      </c>
-      <c r="AS23" s="3">
-        <f>+AR23*(1+$AP$27)</f>
-        <v>507.7082011273817</v>
-      </c>
-      <c r="AT23" s="3">
-        <f>+AS23*(1+$AP$27)</f>
-        <v>482.3227910710126</v>
-      </c>
-      <c r="AU23" s="3">
-        <f>+AT23*(1+$AP$27)</f>
-        <v>458.20665151746198</v>
-      </c>
-      <c r="AV23" s="3">
-        <f>+AU23*(1+$AP$27)</f>
-        <v>435.29631894158888</v>
-      </c>
-      <c r="AW23" s="3">
-        <f>+AV23*(1+$AP$27)</f>
-        <v>413.53150299450942</v>
-      </c>
-      <c r="AX23" s="3">
-        <f>+AW23*(1+$AP$27)</f>
-        <v>392.85492784478396</v>
-      </c>
-      <c r="AY23" s="3">
-        <f>+AX23*(1+$AP$27)</f>
-        <v>373.21218145254477</v>
-      </c>
-      <c r="AZ23" s="3">
-        <f>+AY23*(1+$AP$27)</f>
-        <v>354.5515723799175</v>
-      </c>
-      <c r="BA23" s="3">
-        <f>+AZ23*(1+$AP$27)</f>
-        <v>336.82399376092161</v>
-      </c>
-      <c r="BB23" s="3">
-        <f>+BA23*(1+$AP$27)</f>
-        <v>319.98279407287549</v>
-      </c>
-      <c r="BC23" s="3">
-        <f>+BB23*(1+$AP$27)</f>
-        <v>303.98365436923172</v>
-      </c>
-      <c r="BD23" s="3">
-        <f>+BC23*(1+$AP$27)</f>
-        <v>288.78447165077012</v>
-      </c>
-      <c r="BE23" s="3">
-        <f>+BD23*(1+$AP$27)</f>
-        <v>274.34524806823157</v>
-      </c>
-      <c r="BF23" s="3">
-        <f>+BE23*(1+$AP$27)</f>
-        <v>260.62798566481996</v>
-      </c>
-      <c r="BG23" s="3">
-        <f>+BF23*(1+$AP$27)</f>
-        <v>247.59658638157896</v>
-      </c>
-      <c r="BH23" s="3">
-        <f>+BG23*(1+$AP$27)</f>
-        <v>235.21675706249999</v>
-      </c>
-      <c r="BI23" s="3">
-        <f>+BH23*(1+$AP$27)</f>
-        <v>223.455919209375</v>
-      </c>
-      <c r="BJ23" s="3">
-        <f>+BI23*(1+$AP$27)</f>
-        <v>212.28312324890624</v>
-      </c>
-      <c r="BK23" s="3">
-        <f>+BJ23*(1+$AP$27)</f>
-        <v>201.66896708646092</v>
-      </c>
-      <c r="BL23" s="3">
-        <f>+BK23*(1+$AP$27)</f>
-        <v>191.58551873213787</v>
-      </c>
-      <c r="BM23" s="3">
-        <f>+BL23*(1+$AP$27)</f>
-        <v>182.00624279553097</v>
-      </c>
-      <c r="BN23" s="3">
-        <f>+BM23*(1+$AP$27)</f>
-        <v>172.90593065575442</v>
-      </c>
-      <c r="BO23" s="3">
-        <f>+BN23*(1+$AP$27)</f>
-        <v>164.26063412296668</v>
-      </c>
-      <c r="BP23" s="3">
-        <f>+BO23*(1+$AP$27)</f>
-        <v>156.04760241681834</v>
-      </c>
-      <c r="BQ23" s="3">
-        <f>+BP23*(1+$AP$27)</f>
-        <v>148.24522229597741</v>
-      </c>
-      <c r="BR23" s="3">
-        <f>+BQ23*(1+$AP$27)</f>
-        <v>140.83296118117855</v>
-      </c>
-      <c r="BS23" s="3">
-        <f>+BR23*(1+$AP$27)</f>
-        <v>133.79131312211962</v>
-      </c>
-      <c r="BT23" s="3">
-        <f>+BS23*(1+$AP$27)</f>
-        <v>127.10174746601363</v>
-      </c>
-      <c r="BU23" s="3">
-        <f>+BT23*(1+$AP$27)</f>
-        <v>120.74666009271294</v>
-      </c>
-      <c r="BV23" s="3">
-        <f>+BU23*(1+$AP$27)</f>
-        <v>114.70932708807729</v>
-      </c>
-      <c r="BW23" s="3">
-        <f>+BV23*(1+$AP$27)</f>
-        <v>108.97386073367342</v>
-      </c>
-      <c r="BX23" s="3">
-        <f>+BW23*(1+$AP$27)</f>
-        <v>103.52516769698974</v>
-      </c>
-      <c r="BY23" s="3">
-        <f>+BX23*(1+$AP$27)</f>
-        <v>98.34890931214025</v>
-      </c>
-      <c r="BZ23" s="3">
-        <f>+BY23*(1+$AP$27)</f>
-        <v>93.431463846533234</v>
-      </c>
-      <c r="CA23" s="3">
-        <f>+BZ23*(1+$AP$27)</f>
-        <v>88.759890654206572</v>
-      </c>
-      <c r="CB23" s="3">
-        <f>+CA23*(1+$AP$27)</f>
-        <v>84.321896121496238</v>
-      </c>
-      <c r="CC23" s="3">
-        <f>+CB23*(1+$AP$27)</f>
-        <v>80.105801315421417</v>
-      </c>
-      <c r="CD23" s="3">
-        <f>+CC23*(1+$AP$27)</f>
-        <v>76.100511249650339</v>
-      </c>
-      <c r="CE23" s="3">
-        <f>+CD23*(1+$AP$27)</f>
-        <v>72.295485687167812</v>
-      </c>
-      <c r="CF23" s="3">
-        <f>+CE23*(1+$AP$27)</f>
-        <v>68.680711402809422</v>
-      </c>
-      <c r="CG23" s="3">
-        <f>+CF23*(1+$AP$27)</f>
-        <v>65.246675832668942</v>
-      </c>
-      <c r="CH23" s="3">
-        <f>+CG23*(1+$AP$27)</f>
-        <v>61.98434204103549</v>
-      </c>
-      <c r="CI23" s="3">
-        <f>+CH23*(1+$AP$27)</f>
-        <v>58.885124938983715</v>
-      </c>
-      <c r="CJ23" s="3">
-        <f>+CI23*(1+$AP$27)</f>
-        <v>55.940868692034527</v>
-      </c>
-      <c r="CK23" s="3">
-        <f>+CJ23*(1+$AP$27)</f>
-        <v>53.143825257432802</v>
-      </c>
-      <c r="CL23" s="3">
-        <f>+CK23*(1+$AP$27)</f>
-        <v>50.48663399456116</v>
-      </c>
-      <c r="CM23" s="3">
-        <f>+CL23*(1+$AP$27)</f>
-        <v>47.962302294833101</v>
-      </c>
-      <c r="CN23" s="3">
-        <f>+CM23*(1+$AP$27)</f>
-        <v>45.564187180091444</v>
-      </c>
-      <c r="CO23" s="3">
-        <f>+CN23*(1+$AP$27)</f>
-        <v>43.285977821086867</v>
-      </c>
-      <c r="CP23" s="3">
-        <f>+CO23*(1+$AP$27)</f>
-        <v>41.121678930032523</v>
-      </c>
-      <c r="CQ23" s="3">
-        <f>+CP23*(1+$AP$27)</f>
-        <v>39.065594983530893</v>
-      </c>
-      <c r="CR23" s="3">
-        <f>+CQ23*(1+$AP$27)</f>
-        <v>37.112315234354348</v>
-      </c>
-      <c r="CS23" s="3">
-        <f>+CR23*(1+$AP$27)</f>
-        <v>35.256699472636626</v>
-      </c>
-      <c r="CT23" s="3">
-        <f>+CS23*(1+$AP$27)</f>
-        <v>33.493864499004793</v>
-      </c>
-      <c r="CU23" s="3">
-        <f>+CT23*(1+$AP$27)</f>
-        <v>31.81917127405455</v>
-      </c>
-      <c r="CV23" s="3">
-        <f>+CU23*(1+$AP$27)</f>
-        <v>30.228212710351823</v>
-      </c>
-      <c r="CW23" s="3">
-        <f>+CV23*(1+$AP$27)</f>
-        <v>28.716802074834231</v>
-      </c>
-      <c r="CX23" s="3">
-        <f>+CW23*(1+$AP$27)</f>
-        <v>27.280961971092516</v>
-      </c>
-    </row>
-    <row r="24" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:M24" si="117">+F23/F25</f>
-        <v>4.6590758036869895</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="117"/>
-        <v>3.8311270186494957</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="117"/>
-        <v>3.9742295787915487</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="117"/>
-        <v>4.3617420533907714</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="117"/>
-        <v>4.3999804887566452</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="117"/>
-        <v>4.3972212949274319</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="117"/>
-        <v>5.9658053633081627</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="117"/>
-        <v>6.0146850362347699</v>
-      </c>
-      <c r="N24" s="9">
-        <f t="shared" ref="N24:V24" si="118">+N23/N25</f>
-        <v>5.1504155300386989</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="118"/>
-        <v>4.3989510819920001</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="118"/>
-        <v>3.9855452814794647</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="118"/>
-        <v>2.926121779136801</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="118"/>
-        <v>4.8176050981011285</v>
-      </c>
-      <c r="S24" s="9">
-        <f t="shared" si="118"/>
-        <v>2.4649727361402087</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" si="118"/>
-        <v>5.1564811490125688</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="shared" si="118"/>
-        <v>4.1608355202872565</v>
-      </c>
-      <c r="V24" s="9">
-        <f t="shared" si="118"/>
-        <v>5.468281865709157</v>
-      </c>
-      <c r="Y24" s="20">
-        <f>+Y23/Y25</f>
-        <v>16.588061239755973</v>
-      </c>
-      <c r="Z24" s="20">
-        <f>+Z23/Z25</f>
-        <v>21.531222365420835</v>
-      </c>
-      <c r="AA24" s="20">
-        <f>+AA23/AA25</f>
-        <v>27.598834532374106</v>
-      </c>
-      <c r="AB24" s="20">
-        <f t="shared" ref="AB24:AM24" si="119">+AB23/AB25</f>
-        <v>27.44044134215828</v>
-      </c>
-      <c r="AC24" s="20">
-        <f t="shared" si="119"/>
-        <v>29.429794700313678</v>
-      </c>
-      <c r="AD24" s="20">
-        <f t="shared" si="119"/>
-        <v>30.819698114861737</v>
-      </c>
-      <c r="AE24" s="20">
-        <f t="shared" si="119"/>
-        <v>32.063715070423108</v>
-      </c>
-      <c r="AF24" s="20">
-        <f t="shared" si="119"/>
-        <v>30.120076578811172</v>
-      </c>
-      <c r="AG24" s="20">
-        <f t="shared" si="119"/>
-        <v>29.194366419833614</v>
-      </c>
-      <c r="AH24" s="20">
-        <f t="shared" si="119"/>
-        <v>28.987374770149458</v>
-      </c>
-      <c r="AI24" s="20">
-        <f t="shared" si="119"/>
-        <v>29.298391277544805</v>
-      </c>
-      <c r="AJ24" s="20">
-        <f t="shared" si="119"/>
-        <v>29.991872472598665</v>
-      </c>
-      <c r="AK24" s="20">
-        <f t="shared" si="119"/>
-        <v>19.817580404038011</v>
-      </c>
-      <c r="AL24" s="20">
-        <f t="shared" si="119"/>
-        <v>11.649145845936708</v>
-      </c>
-      <c r="AM24" s="20">
-        <f t="shared" si="119"/>
-        <v>9.9377425682723359</v>
-      </c>
-    </row>
-    <row r="25" spans="2:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>323.19567967708412</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="104"/>
+        <v>246.34026536783256</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="104"/>
+        <v>185.27993623575486</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="104"/>
+        <v>174.85808679440655</v>
+      </c>
+    </row>
+    <row r="25" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
+        <f t="shared" ref="F25:L25" si="105">+F23-F24</f>
+        <v>266.37799999999993</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="105"/>
+        <v>223.71100000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="105"/>
+        <v>236.26</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="105"/>
+        <v>267.30500000000001</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="105"/>
+        <v>270.61199999999997</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="105"/>
+        <v>276.61599999999993</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="105"/>
+        <v>378.41700000000003</v>
+      </c>
+      <c r="M25" s="4">
+        <f>+M23-M24</f>
+        <v>377.63200000000001</v>
+      </c>
+      <c r="N25" s="4">
+        <f>+N23-N24</f>
+        <v>324.74400000000003</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" ref="O25:V25" si="106">+O23-O24</f>
+        <v>279.30700000000007</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="106"/>
+        <v>293.09699999999987</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="106"/>
+        <v>208.61199999999997</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="106"/>
+        <v>335.65699999999993</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="106"/>
+        <v>154.15200000000024</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="106"/>
+        <v>359.0200000000001</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="106"/>
+        <v>289.69817310000025</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="106"/>
+        <v>380.72912490000004</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" ref="Z25:AC25" si="107">+Z23-Z24</f>
+        <v>700.57000000000016</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="107"/>
+        <v>998.05599999999981</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" si="107"/>
+        <v>893.8180000000001</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" ref="AC25:AF25" si="108">+AC23-AC24</f>
+        <v>997.88800000000003</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="108"/>
+        <v>1357.4089999999997</v>
+      </c>
+      <c r="AE25" s="4">
+        <f t="shared" si="108"/>
+        <v>1918.1190000000004</v>
+      </c>
+      <c r="AF25" s="4">
+        <f t="shared" si="108"/>
+        <v>1203.5992980000001</v>
+      </c>
+      <c r="AG25" s="4">
+        <f t="shared" ref="AG25" si="109">+AG23-AG24</f>
+        <v>2655.4549362750004</v>
+      </c>
+      <c r="AH25" s="4">
+        <f t="shared" ref="AH25" si="110">+AH23-AH24</f>
+        <v>2809.3385234501998</v>
+      </c>
+      <c r="AI25" s="4">
+        <f t="shared" ref="AI25" si="111">+AI23-AI24</f>
+        <v>2931.0228068566862</v>
+      </c>
+      <c r="AJ25" s="4">
+        <f t="shared" ref="AJ25" si="112">+AJ23-AJ24</f>
+        <v>2820.2970976004362</v>
+      </c>
+      <c r="AK25" s="4">
+        <f t="shared" ref="AK25" si="113">+AK23-AK24</f>
+        <v>2782.1657507619329</v>
+      </c>
+      <c r="AL25" s="4">
+        <f t="shared" ref="AL25" si="114">+AL23-AL24</f>
+        <v>2790.3594781286288</v>
+      </c>
+      <c r="AM25" s="4">
+        <f t="shared" ref="AM25" si="115">+AM23-AM24</f>
+        <v>2835.7092330349069</v>
+      </c>
+      <c r="AN25" s="4">
+        <f t="shared" ref="AN25" si="116">+AN23-AN24</f>
+        <v>2908.7611170937566</v>
+      </c>
+      <c r="AO25" s="4">
+        <f t="shared" ref="AO25" si="117">+AO23-AO24</f>
+        <v>2217.0623883104927</v>
+      </c>
+      <c r="AP25" s="4">
+        <f t="shared" ref="AP25" si="118">+AP23-AP24</f>
+        <v>1667.5194261217937</v>
+      </c>
+      <c r="AQ25" s="4">
+        <f t="shared" ref="AQ25" si="119">+AQ23-AQ24</f>
+        <v>1573.7227811496589</v>
+      </c>
+      <c r="AR25" s="3">
+        <f t="shared" ref="AR25:BW25" si="120">+AQ25*(1+$AT$31)</f>
+        <v>1495.036642092176</v>
+      </c>
+      <c r="AS25" s="3">
+        <f t="shared" si="120"/>
+        <v>1420.2848099875671</v>
+      </c>
+      <c r="AT25" s="3">
+        <f t="shared" si="120"/>
+        <v>1349.2705694881886</v>
+      </c>
+      <c r="AU25" s="3">
+        <f t="shared" si="120"/>
+        <v>1281.8070410137791</v>
+      </c>
+      <c r="AV25" s="3">
+        <f t="shared" si="120"/>
+        <v>1217.7166889630901</v>
+      </c>
+      <c r="AW25" s="3">
+        <f t="shared" si="120"/>
+        <v>1156.8308545149355</v>
+      </c>
+      <c r="AX25" s="3">
+        <f t="shared" si="120"/>
+        <v>1098.9893117891886</v>
+      </c>
+      <c r="AY25" s="3">
+        <f t="shared" si="120"/>
+        <v>1044.039846199729</v>
+      </c>
+      <c r="AZ25" s="3">
+        <f t="shared" si="120"/>
+        <v>991.83785388974252</v>
+      </c>
+      <c r="BA25" s="3">
+        <f t="shared" si="120"/>
+        <v>942.2459611952554</v>
+      </c>
+      <c r="BB25" s="3">
+        <f t="shared" si="120"/>
+        <v>895.13366313549261</v>
+      </c>
+      <c r="BC25" s="3">
+        <f t="shared" si="120"/>
+        <v>850.37697997871794</v>
+      </c>
+      <c r="BD25" s="3">
+        <f t="shared" si="120"/>
+        <v>807.858130979782</v>
+      </c>
+      <c r="BE25" s="3">
+        <f t="shared" si="120"/>
+        <v>767.46522443079289</v>
+      </c>
+      <c r="BF25" s="3">
+        <f t="shared" si="120"/>
+        <v>729.09196320925321</v>
+      </c>
+      <c r="BG25" s="3">
+        <f t="shared" si="120"/>
+        <v>692.63736504879057</v>
+      </c>
+      <c r="BH25" s="3">
+        <f t="shared" si="120"/>
+        <v>658.00549679635105</v>
+      </c>
+      <c r="BI25" s="3">
+        <f t="shared" si="120"/>
+        <v>625.10522195653346</v>
+      </c>
+      <c r="BJ25" s="3">
+        <f t="shared" si="120"/>
+        <v>593.84996085870671</v>
+      </c>
+      <c r="BK25" s="3">
+        <f t="shared" si="120"/>
+        <v>564.1574628157714</v>
+      </c>
+      <c r="BL25" s="3">
+        <f t="shared" si="120"/>
+        <v>535.9495896749828</v>
+      </c>
+      <c r="BM25" s="3">
+        <f t="shared" si="120"/>
+        <v>509.15211019123365</v>
+      </c>
+      <c r="BN25" s="3">
+        <f t="shared" si="120"/>
+        <v>483.69450468167196</v>
+      </c>
+      <c r="BO25" s="3">
+        <f t="shared" si="120"/>
+        <v>459.50977944758836</v>
+      </c>
+      <c r="BP25" s="3">
+        <f t="shared" si="120"/>
+        <v>436.53429047520893</v>
+      </c>
+      <c r="BQ25" s="3">
+        <f t="shared" si="120"/>
+        <v>414.70757595144846</v>
+      </c>
+      <c r="BR25" s="3">
+        <f t="shared" si="120"/>
+        <v>393.97219715387604</v>
+      </c>
+      <c r="BS25" s="3">
+        <f t="shared" si="120"/>
+        <v>374.2735872961822</v>
+      </c>
+      <c r="BT25" s="3">
+        <f t="shared" si="120"/>
+        <v>355.55990793137306</v>
+      </c>
+      <c r="BU25" s="3">
+        <f t="shared" si="120"/>
+        <v>337.78191253480441</v>
+      </c>
+      <c r="BV25" s="3">
+        <f t="shared" si="120"/>
+        <v>320.89281690806416</v>
+      </c>
+      <c r="BW25" s="3">
+        <f t="shared" si="120"/>
+        <v>304.84817606266091</v>
+      </c>
+      <c r="BX25" s="3">
+        <f t="shared" ref="BX25:DB25" si="121">+BW25*(1+$AT$31)</f>
+        <v>289.60576725952785</v>
+      </c>
+      <c r="BY25" s="3">
+        <f t="shared" si="121"/>
+        <v>275.12547889655144</v>
+      </c>
+      <c r="BZ25" s="3">
+        <f t="shared" si="121"/>
+        <v>261.36920495172387</v>
+      </c>
+      <c r="CA25" s="3">
+        <f t="shared" si="121"/>
+        <v>248.30074470413766</v>
+      </c>
+      <c r="CB25" s="3">
+        <f t="shared" si="121"/>
+        <v>235.88570746893078</v>
+      </c>
+      <c r="CC25" s="3">
+        <f t="shared" si="121"/>
+        <v>224.09142209548423</v>
+      </c>
+      <c r="CD25" s="3">
+        <f t="shared" si="121"/>
+        <v>212.88685099071</v>
+      </c>
+      <c r="CE25" s="3">
+        <f t="shared" si="121"/>
+        <v>202.24250844117449</v>
+      </c>
+      <c r="CF25" s="3">
+        <f t="shared" si="121"/>
+        <v>192.13038301911575</v>
+      </c>
+      <c r="CG25" s="3">
+        <f t="shared" si="121"/>
+        <v>182.52386386815996</v>
+      </c>
+      <c r="CH25" s="3">
+        <f t="shared" si="121"/>
+        <v>173.39767067475196</v>
+      </c>
+      <c r="CI25" s="3">
+        <f t="shared" si="121"/>
+        <v>164.72778714101435</v>
+      </c>
+      <c r="CJ25" s="3">
+        <f t="shared" si="121"/>
+        <v>156.49139778396363</v>
+      </c>
+      <c r="CK25" s="3">
+        <f t="shared" si="121"/>
+        <v>148.66682789476545</v>
+      </c>
+      <c r="CL25" s="3">
+        <f t="shared" si="121"/>
+        <v>141.23348650002717</v>
+      </c>
+      <c r="CM25" s="3">
+        <f t="shared" si="121"/>
+        <v>134.17181217502579</v>
+      </c>
+      <c r="CN25" s="3">
+        <f t="shared" si="121"/>
+        <v>127.4632215662745</v>
+      </c>
+      <c r="CO25" s="3">
+        <f t="shared" si="121"/>
+        <v>121.09006048796077</v>
+      </c>
+      <c r="CP25" s="3">
+        <f t="shared" si="121"/>
+        <v>115.03555746356272</v>
+      </c>
+      <c r="CQ25" s="3">
+        <f t="shared" si="121"/>
+        <v>109.28377959038458</v>
+      </c>
+      <c r="CR25" s="3">
+        <f t="shared" si="121"/>
+        <v>103.81959061086535</v>
+      </c>
+      <c r="CS25" s="3">
+        <f t="shared" si="121"/>
+        <v>98.628611080322074</v>
+      </c>
+      <c r="CT25" s="3">
+        <f t="shared" si="121"/>
+        <v>93.697180526305971</v>
+      </c>
+      <c r="CU25" s="3">
+        <f t="shared" si="121"/>
+        <v>89.012321499990662</v>
+      </c>
+      <c r="CV25" s="3">
+        <f t="shared" si="121"/>
+        <v>84.561705424991132</v>
+      </c>
+      <c r="CW25" s="3">
+        <f t="shared" si="121"/>
+        <v>80.333620153741577</v>
+      </c>
+      <c r="CX25" s="3">
+        <f t="shared" si="121"/>
+        <v>76.316939146054494</v>
+      </c>
+      <c r="CY25" s="3">
+        <f t="shared" si="121"/>
+        <v>72.50109218875177</v>
+      </c>
+      <c r="CZ25" s="3">
+        <f t="shared" si="121"/>
+        <v>68.876037579314172</v>
+      </c>
+      <c r="DA25" s="3">
+        <f t="shared" si="121"/>
+        <v>65.432235700348457</v>
+      </c>
+      <c r="DB25" s="3">
+        <f t="shared" si="121"/>
+        <v>62.16062391533103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:106" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:M26" si="122">+F25/F27</f>
+        <v>4.6590758036869895</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="122"/>
+        <v>3.8311270186494957</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="122"/>
+        <v>3.9742295787915487</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="122"/>
+        <v>4.3617420533907714</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="122"/>
+        <v>4.3999804887566452</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="122"/>
+        <v>4.3972212949274319</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="122"/>
+        <v>5.9658053633081627</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="122"/>
+        <v>6.0146850362347699</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" ref="N26:V26" si="123">+N25/N27</f>
+        <v>5.1504155300386989</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="123"/>
+        <v>4.3989510819920001</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="123"/>
+        <v>3.9855452814794647</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="123"/>
+        <v>2.926121779136801</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="123"/>
+        <v>4.8176050981011285</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="123"/>
+        <v>2.4649727361402087</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="123"/>
+        <v>5.1564811490125688</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="123"/>
+        <v>4.1608355202872565</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="123"/>
+        <v>5.468281865709157</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" ref="Z26:AB26" si="124">+Z25/Z27</f>
+        <v>11.443295601182603</v>
+      </c>
+      <c r="AA26" s="20">
+        <f t="shared" si="124"/>
+        <v>17.342415291051257</v>
+      </c>
+      <c r="AB26" s="20">
+        <f t="shared" si="124"/>
+        <v>15.815029106286605</v>
+      </c>
+      <c r="AC26" s="20">
+        <f>+AC25/AC27</f>
+        <v>16.588061239755973</v>
+      </c>
+      <c r="AD26" s="20">
+        <f>+AD25/AD27</f>
+        <v>21.531222365420835</v>
+      </c>
+      <c r="AE26" s="20">
+        <f>+AE25/AE27</f>
+        <v>27.598834532374106</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" ref="AF26:AQ26" si="125">+AF25/AF27</f>
+        <v>17.738335784711065</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="125"/>
+        <v>39.135409433260136</v>
+      </c>
+      <c r="AH26" s="20">
+        <f t="shared" si="125"/>
+        <v>41.403306021107383</v>
+      </c>
+      <c r="AI26" s="20">
+        <f t="shared" si="125"/>
+        <v>43.196657581192959</v>
+      </c>
+      <c r="AJ26" s="20">
+        <f t="shared" si="125"/>
+        <v>41.564810658341351</v>
+      </c>
+      <c r="AK26" s="20">
+        <f t="shared" si="125"/>
+        <v>41.002840710977154</v>
+      </c>
+      <c r="AL26" s="20">
+        <f t="shared" si="125"/>
+        <v>41.123597749968731</v>
+      </c>
+      <c r="AM26" s="20">
+        <f t="shared" si="125"/>
+        <v>41.791950732243329</v>
+      </c>
+      <c r="AN26" s="20">
+        <f t="shared" si="125"/>
+        <v>42.868570543583282</v>
+      </c>
+      <c r="AO26" s="20">
+        <f t="shared" si="125"/>
+        <v>32.674493217845821</v>
+      </c>
+      <c r="AP26" s="20">
+        <f t="shared" si="125"/>
+        <v>24.575470887385869</v>
+      </c>
+      <c r="AQ26" s="20">
+        <f t="shared" si="125"/>
+        <v>23.193120144277461</v>
+      </c>
+    </row>
+    <row r="27" spans="2:106" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
         <v>57.173999999999999</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G27" s="4">
         <v>58.393000000000001</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H27" s="4">
         <v>59.448</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I27" s="4">
         <v>61.283999999999999</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J27" s="4">
         <v>61.503</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K27" s="4">
         <v>62.906999999999996</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L27" s="4">
         <v>63.430999999999997</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M27" s="4">
         <v>62.784999999999997</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N27" s="4">
         <v>63.052</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O27" s="4">
         <v>63.494</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P27" s="4">
         <v>73.540000000000006</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q27" s="4">
         <v>71.293000000000006</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R27" s="4">
         <v>69.673000000000002</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S27" s="4">
         <v>62.536999999999999</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T27" s="4">
         <v>69.625</v>
       </c>
-      <c r="U25" s="4">
-        <f>+T25</f>
+      <c r="U27" s="4">
+        <f>+T27</f>
         <v>69.625</v>
       </c>
-      <c r="V25" s="4">
-        <f>+U25</f>
+      <c r="V27" s="4">
+        <f>+U27</f>
         <v>69.625</v>
       </c>
-      <c r="Y25" s="3">
-        <f>AVERAGE(G25:J25)</f>
+      <c r="Z27" s="3">
+        <v>61.220999999999997</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>57.55</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>56.517000000000003</v>
+      </c>
+      <c r="AC27" s="3">
+        <f>AVERAGE(G27:J27)</f>
         <v>60.156999999999996</v>
       </c>
-      <c r="Z25" s="3">
-        <f>AVERAGE(K25:N25)</f>
+      <c r="AD27" s="3">
+        <f>AVERAGE(K27:N27)</f>
         <v>63.043749999999996</v>
       </c>
-      <c r="AA25" s="3">
-        <f>AVERAGE(O25:R25)</f>
+      <c r="AE27" s="3">
+        <f>AVERAGE(O27:R27)</f>
         <v>69.5</v>
       </c>
-      <c r="AB25" s="3">
-        <f>+AA25</f>
-        <v>69.5</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" ref="AC25:AM25" si="120">+AB25</f>
-        <v>69.5</v>
-      </c>
-      <c r="AD25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AE25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AG25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AH25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AI25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AJ25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AK25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-      <c r="AM25" s="3">
-        <f t="shared" si="120"/>
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:102" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-    </row>
-    <row r="27" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="AF27" s="3">
+        <f>AVERAGE(S27:V27)</f>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" ref="AG27:AQ27" si="126">+AF27</f>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AH27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="126"/>
+        <v>67.853000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:106" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="2:106" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="Y29" s="25">
+        <f>Y15/X15-1</f>
+        <v>8.4032544012195398E-2</v>
+      </c>
+      <c r="Z29" s="25">
+        <f t="shared" ref="Z29:AQ29" si="127">Z15/Y15-1</f>
+        <v>0.18079379342687263</v>
+      </c>
+      <c r="AA29" s="25">
+        <f t="shared" si="127"/>
+        <v>0.14323118563325177</v>
+      </c>
+      <c r="AB29" s="25">
+        <f t="shared" si="127"/>
+        <v>9.3352595407170336E-2</v>
+      </c>
+      <c r="AC29" s="25">
+        <f t="shared" si="127"/>
+        <v>0.30913911050543508</v>
+      </c>
+      <c r="AD29" s="25">
+        <f t="shared" si="127"/>
+        <v>0.18264141284542434</v>
+      </c>
+      <c r="AE29" s="25">
+        <f t="shared" si="127"/>
+        <v>4.7775931074550027E-2</v>
+      </c>
+      <c r="AF29" s="25">
+        <f t="shared" si="127"/>
+        <v>4.2370724145089911E-2</v>
+      </c>
+      <c r="AG29" s="25">
+        <f t="shared" si="127"/>
+        <v>4.8094025714458866E-2</v>
+      </c>
+      <c r="AH29" s="25">
+        <f t="shared" si="127"/>
+        <v>5.3274498905054424E-2</v>
+      </c>
+      <c r="AI29" s="25">
+        <f t="shared" si="127"/>
+        <v>2.5955992802737304E-2</v>
+      </c>
+      <c r="AJ29" s="25">
+        <f t="shared" si="127"/>
+        <v>-5.8158875963644552E-2</v>
+      </c>
+      <c r="AK29" s="25">
+        <f t="shared" si="127"/>
+        <v>-3.3577502859590491E-2</v>
+      </c>
+      <c r="AL29" s="25">
+        <f t="shared" si="127"/>
+        <v>-1.6370310848389691E-2</v>
+      </c>
+      <c r="AM29" s="25">
+        <f t="shared" si="127"/>
+        <v>-1.937722400407571E-3</v>
+      </c>
+      <c r="AN29" s="25">
+        <f t="shared" si="127"/>
+        <v>8.7621183811619208E-3</v>
+      </c>
+      <c r="AO29" s="25">
+        <f t="shared" si="127"/>
+        <v>-0.29364566154479244</v>
+      </c>
+      <c r="AP29" s="25">
+        <f t="shared" si="127"/>
+        <v>-0.32933821939538621</v>
+      </c>
+      <c r="AQ29" s="25">
+        <f t="shared" si="127"/>
+        <v>-0.10314644417978724</v>
+      </c>
+    </row>
+    <row r="30" spans="2:106" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="2:106" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="19">
-        <f>+F15/F13</f>
+      <c r="F31" s="19">
+        <f t="shared" ref="F31:T31" si="128">+F17/F15</f>
         <v>0.92742784932616296</v>
       </c>
-      <c r="G27" s="19">
-        <f>+G15/G13</f>
+      <c r="G31" s="19">
+        <f t="shared" si="128"/>
         <v>0.93713924563144668</v>
       </c>
-      <c r="H27" s="19">
-        <f>+H15/H13</f>
+      <c r="H31" s="19">
+        <f t="shared" si="128"/>
         <v>0.93319331587327137</v>
       </c>
-      <c r="I27" s="19">
-        <f>+I15/I13</f>
+      <c r="I31" s="19">
+        <f t="shared" si="128"/>
         <v>0.92975665630611559</v>
       </c>
-      <c r="J27" s="19">
-        <f>+J15/J13</f>
+      <c r="J31" s="19">
+        <f t="shared" si="128"/>
         <v>0.93519795791603055</v>
       </c>
-      <c r="K27" s="19">
-        <f>+K15/K13</f>
+      <c r="K31" s="19">
+        <f t="shared" si="128"/>
         <v>0.94075856466774233</v>
       </c>
-      <c r="L27" s="19">
-        <f>+L15/L13</f>
+      <c r="L31" s="19">
+        <f t="shared" si="128"/>
         <v>0.94292394075109498</v>
       </c>
-      <c r="M27" s="19">
-        <f>+M15/M13</f>
+      <c r="M31" s="19">
+        <f t="shared" si="128"/>
         <v>0.93929423421201474</v>
       </c>
-      <c r="N27" s="19">
-        <f>+N15/N13</f>
+      <c r="N31" s="19">
+        <f t="shared" si="128"/>
         <v>0.9039360245565633</v>
       </c>
-      <c r="O27" s="19">
-        <f>+O15/O13</f>
+      <c r="O31" s="19">
+        <f t="shared" si="128"/>
         <v>0.92750097444926816</v>
       </c>
-      <c r="P27" s="19">
-        <f>+P15/P13</f>
+      <c r="P31" s="19">
+        <f t="shared" si="128"/>
         <v>0.89811420877306047</v>
       </c>
-      <c r="Q27" s="19">
-        <f>+Q15/Q13</f>
+      <c r="Q31" s="19">
+        <f t="shared" si="128"/>
         <v>0.89491945604542555</v>
       </c>
-      <c r="R27" s="19">
-        <f>+R15/R13</f>
+      <c r="R31" s="19">
+        <f t="shared" si="128"/>
         <v>0.9296021977696195</v>
       </c>
-      <c r="S27" s="19">
-        <f>+S15/S13</f>
+      <c r="S31" s="19">
+        <f t="shared" si="128"/>
         <v>0.89413658572279087</v>
       </c>
-      <c r="T27" s="19">
-        <f>+T15/T13</f>
+      <c r="T31" s="19">
+        <f t="shared" si="128"/>
         <v>0.92927209239860331</v>
       </c>
-      <c r="U27" s="19">
-        <f t="shared" ref="U27:V27" si="121">+U15/U13</f>
+      <c r="U31" s="19">
+        <f t="shared" ref="U31:V31" si="129">+U17/U15</f>
         <v>0.93</v>
       </c>
-      <c r="V27" s="19">
-        <f t="shared" si="121"/>
+      <c r="V31" s="19">
+        <f t="shared" si="129"/>
         <v>0.93</v>
       </c>
-      <c r="Y27" s="19">
-        <f>+Y15/Y13</f>
+      <c r="AA31" s="19">
+        <f t="shared" ref="AA31:AQ31" si="130">+AA17/AA15</f>
+        <v>0.9408213951496025</v>
+      </c>
+      <c r="AB31" s="19">
+        <f t="shared" si="130"/>
+        <v>0.93699480488600495</v>
+      </c>
+      <c r="AC31" s="19">
+        <f t="shared" si="130"/>
         <v>0.9336182284620641</v>
       </c>
-      <c r="Z27" s="19">
-        <f>+Z15/Z13</f>
+      <c r="AD31" s="19">
+        <f t="shared" si="130"/>
         <v>0.93115215881186231</v>
       </c>
-      <c r="AA27" s="19">
-        <f>+AA15/AA13</f>
+      <c r="AE31" s="19">
+        <f t="shared" si="130"/>
         <v>0.91245744879510848</v>
       </c>
-      <c r="AB27" s="19">
-        <f>+AB15/AB13</f>
+      <c r="AF31" s="19">
+        <f t="shared" si="130"/>
+        <v>0.92207002243372094</v>
+      </c>
+      <c r="AG31" s="19">
+        <f t="shared" si="130"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AH31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94</v>
       </c>
-      <c r="AC27" s="19">
-        <f>+AC15/AC13</f>
+      <c r="AI31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AD27" s="19">
-        <f>+AD15/AD13</f>
+      <c r="AJ31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AE27" s="19">
-        <f>+AE15/AE13</f>
+      <c r="AK31" s="19">
+        <f t="shared" si="130"/>
+        <v>0.94</v>
+      </c>
+      <c r="AL31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AF27" s="19">
-        <f>+AF15/AF13</f>
+      <c r="AM31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94</v>
       </c>
-      <c r="AG27" s="19">
-        <f>+AG15/AG13</f>
+      <c r="AN31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AH27" s="19">
-        <f>+AH15/AH13</f>
+      <c r="AO31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94</v>
       </c>
-      <c r="AI27" s="19">
-        <f>+AI15/AI13</f>
+      <c r="AP31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94</v>
       </c>
-      <c r="AJ27" s="19">
-        <f>+AJ15/AJ13</f>
-        <v>0.94</v>
-      </c>
-      <c r="AK27" s="19">
-        <f>+AK15/AK13</f>
-        <v>0.94</v>
-      </c>
-      <c r="AL27" s="19">
-        <f>+AL15/AL13</f>
+      <c r="AQ31" s="19">
+        <f t="shared" si="130"/>
         <v>0.94000000000000006</v>
       </c>
-      <c r="AM27" s="19">
-        <f>+AM15/AM13</f>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="AO27" s="3" t="s">
+      <c r="AS31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AP27" s="25">
+      <c r="AT31" s="25">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="28" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="AO28" t="s">
+    <row r="32" spans="2:106" x14ac:dyDescent="0.15">
+      <c r="AS32" t="s">
         <v>107</v>
       </c>
-      <c r="AP28" s="25">
+      <c r="AT32" s="25">
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19">
-        <f>SUM(J3:J4)/SUM(F3:F4)-1</f>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19">
+        <f t="shared" ref="J33:V33" si="131">SUM(J3:J4)/SUM(F3:F4)-1</f>
         <v>3.7157063340153451E-2</v>
       </c>
-      <c r="K29" s="19">
-        <f>SUM(K3:K4)/SUM(G3:G4)-1</f>
+      <c r="K33" s="19">
+        <f t="shared" si="131"/>
         <v>5.5019150002676653E-2</v>
       </c>
-      <c r="L29" s="19">
-        <f>SUM(L3:L4)/SUM(H3:H4)-1</f>
+      <c r="L33" s="19">
+        <f t="shared" si="131"/>
         <v>0.10057903854293482</v>
       </c>
-      <c r="M29" s="19">
-        <f>SUM(M3:M4)/SUM(I3:I4)-1</f>
+      <c r="M33" s="19">
+        <f t="shared" si="131"/>
         <v>0.11203181608875834</v>
       </c>
-      <c r="N29" s="19">
-        <f>SUM(N3:N4)/SUM(J3:J4)-1</f>
+      <c r="N33" s="19">
+        <f t="shared" si="131"/>
         <v>0.12188944442205352</v>
       </c>
-      <c r="O29" s="19">
-        <f>SUM(O3:O4)/SUM(K3:K4)-1</f>
+      <c r="O33" s="19">
+        <f t="shared" si="131"/>
         <v>5.1464907040733365E-2</v>
       </c>
-      <c r="P29" s="19">
-        <f>SUM(P3:P4)/SUM(L3:L4)-1</f>
+      <c r="P33" s="19">
+        <f t="shared" si="131"/>
         <v>-3.590671746827212E-2</v>
       </c>
-      <c r="Q29" s="19">
-        <f>SUM(Q3:Q4)/SUM(M3:M4)-1</f>
+      <c r="Q33" s="19">
+        <f t="shared" si="131"/>
         <v>-0.10788026759119107</v>
       </c>
-      <c r="R29" s="19">
-        <f>SUM(R3:R4)/SUM(N3:N4)-1</f>
+      <c r="R33" s="19">
+        <f t="shared" si="131"/>
         <v>-0.160981697171381</v>
       </c>
-      <c r="S29" s="19">
-        <f>SUM(S3:S4)/SUM(O3:O4)-1</f>
+      <c r="S33" s="19">
+        <f t="shared" si="131"/>
         <v>-0.16749398430765239</v>
       </c>
-      <c r="T29" s="19">
-        <f>SUM(T3:T4)/SUM(P3:P4)-1</f>
+      <c r="T33" s="19">
+        <f t="shared" si="131"/>
         <v>-0.11449151096059706</v>
       </c>
-      <c r="U29" s="19">
-        <f>SUM(U3:U4)/SUM(Q3:Q4)-1</f>
+      <c r="U33" s="19">
+        <f t="shared" si="131"/>
         <v>-6.7361076141287279E-2</v>
       </c>
-      <c r="V29" s="19">
-        <f>SUM(V3:V4)/SUM(R3:R4)-1</f>
+      <c r="V33" s="19">
+        <f t="shared" si="131"/>
         <v>-2.8933835128678864E-2</v>
       </c>
-      <c r="Z29" s="25">
-        <f>SUM(Z3:Z4)/SUM(Y3:Y4)-1</f>
+      <c r="AD33" s="25">
+        <f t="shared" ref="AD33:AQ33" si="132">SUM(AD3:AD4)/SUM(AC3:AC4)-1</f>
         <v>9.8688765422982438E-2</v>
       </c>
-      <c r="AA29" s="25">
-        <f>SUM(AA3:AA4)/SUM(Z3:Z4)-1</f>
+      <c r="AE33" s="25">
+        <f t="shared" si="132"/>
         <v>-6.8812225917919134E-2</v>
       </c>
-      <c r="AB29" s="25">
-        <f>SUM(AB3:AB4)/SUM(AA3:AA4)-1</f>
-        <v>-8.5508602290000457E-2</v>
-      </c>
-      <c r="AC29" s="25">
-        <f>SUM(AC3:AC4)/SUM(AB3:AB4)-1</f>
-        <v>-1.4271991811717344E-3</v>
-      </c>
-      <c r="AD29" s="25">
-        <f>SUM(AD3:AD4)/SUM(AC3:AC4)-1</f>
-        <v>4.9213918555561786E-2</v>
-      </c>
-      <c r="AE29" s="25">
-        <f>SUM(AE3:AE4)/SUM(AD3:AD4)-1</f>
-        <v>2.7814863505230214E-2</v>
-      </c>
-      <c r="AF29" s="25">
-        <f>SUM(AF3:AF4)/SUM(AE3:AE4)-1</f>
-        <v>3.920762032030245E-2</v>
-      </c>
-      <c r="AG29" s="25">
-        <f>SUM(AG3:AG4)/SUM(AF3:AF4)-1</f>
-        <v>4.4807399662653014E-2</v>
-      </c>
-      <c r="AH29" s="25">
-        <f>SUM(AH3:AH4)/SUM(AG3:AG4)-1</f>
-        <v>4.7515044237328441E-2</v>
-      </c>
-      <c r="AI29" s="25">
-        <f>SUM(AI3:AI4)/SUM(AH3:AH4)-1</f>
-        <v>4.8813880632864626E-2</v>
-      </c>
-      <c r="AJ29" s="25">
-        <f>SUM(AJ3:AJ4)/SUM(AI3:AI4)-1</f>
-        <v>4.9434542491743283E-2</v>
-      </c>
-      <c r="AK29" s="25">
-        <f>SUM(AK3:AK4)/SUM(AJ3:AJ4)-1</f>
+      <c r="AF33" s="25">
+        <f t="shared" si="132"/>
+        <v>-9.5319440366808283E-2</v>
+      </c>
+      <c r="AG33" s="25">
+        <f t="shared" si="132"/>
+        <v>1.0823189934478838E-2</v>
+      </c>
+      <c r="AH33" s="25">
+        <f t="shared" si="132"/>
+        <v>5.5889016519643953E-2</v>
+      </c>
+      <c r="AI33" s="25">
+        <f t="shared" si="132"/>
+        <v>3.0852595510650449E-2</v>
+      </c>
+      <c r="AJ33" s="25">
+        <f t="shared" si="132"/>
+        <v>4.071283102320522E-2</v>
+      </c>
+      <c r="AK33" s="25">
+        <f t="shared" si="132"/>
+        <v>4.5538073184096417E-2</v>
+      </c>
+      <c r="AL33" s="25">
+        <f t="shared" si="132"/>
+        <v>4.7866205482926416E-2</v>
+      </c>
+      <c r="AM33" s="25">
+        <f t="shared" si="132"/>
+        <v>4.8981838279587464E-2</v>
+      </c>
+      <c r="AN33" s="25">
+        <f t="shared" si="132"/>
+        <v>4.9514690491647473E-2</v>
+      </c>
+      <c r="AO33" s="25">
+        <f t="shared" si="132"/>
         <v>-0.5</v>
       </c>
-      <c r="AL29" s="25">
-        <f>SUM(AL3:AL4)/SUM(AK3:AK4)-1</f>
-        <v>-0.79985304878215291</v>
-      </c>
-      <c r="AM29" s="25">
-        <f>SUM(AM3:AM4)/SUM(AL3:AL4)-1</f>
-        <v>-0.79963289169044793</v>
-      </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AP33" s="25">
+        <f t="shared" si="132"/>
+        <v>-0.79987388729301201</v>
+      </c>
+      <c r="AQ33" s="25">
+        <f t="shared" si="132"/>
+        <v>-0.79968491691243537</v>
+      </c>
+      <c r="AS33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AP29" s="25">
+      <c r="AT33" s="25">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="AO30" t="s">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AS34" t="s">
         <v>106</v>
       </c>
-      <c r="AP30" s="1">
-        <f>NPV(AP29,AA23:CX23)+Main!K5-Main!K6</f>
-        <v>12996.908966913921</v>
-      </c>
-    </row>
-    <row r="31" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="AP31" s="20">
-        <f>+AP30/Main!K3</f>
-        <v>210.46429533987495</v>
-      </c>
-    </row>
-    <row r="32" spans="2:102" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="AT34" s="1">
+        <f>NPV(AT33,AE25:DB25)+Main!K5-Main!K6</f>
+        <v>19342.774482845078</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AT35" s="20">
+        <f>+AT34/Main!K3</f>
+        <v>313.22550706583445</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>110</v>
       </c>
-      <c r="AA32" s="1">
-        <f>+R26</f>
+      <c r="AE36" s="1">
+        <f>+R28</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="1">
-        <f>+AA32+AB23</f>
-        <v>1907.1106732800004</v>
-      </c>
-      <c r="AC32" s="1">
-        <f>+AB32+AC23</f>
-        <v>3952.4814049518009</v>
-      </c>
-      <c r="AD32" s="1">
-        <f>+AC32+AD23</f>
-        <v>6094.4504239346916</v>
-      </c>
-      <c r="AE32" s="1">
-        <f>+AD32+AE23</f>
-        <v>8322.8786213290987</v>
-      </c>
-      <c r="AF32" s="1">
-        <f>+AE32+AF23</f>
-        <v>10416.223943556475</v>
-      </c>
-      <c r="AG32" s="1">
-        <f>+AF32+AG23</f>
-        <v>12445.232409734912</v>
-      </c>
-      <c r="AH32" s="1">
-        <f>+AG32+AH23</f>
-        <v>14459.8549562603</v>
-      </c>
-      <c r="AI32" s="1">
-        <f>+AH32+AI23</f>
-        <v>16496.093150049663</v>
-      </c>
-      <c r="AJ32" s="1">
-        <f>+AI32+AJ23</f>
-        <v>18580.528286895271</v>
-      </c>
-      <c r="AK32" s="1">
-        <f>+AJ32+AK23</f>
-        <v>19957.850124975914</v>
-      </c>
-      <c r="AL32" s="1">
-        <f>+AK32+AL23</f>
-        <v>20767.465761268515</v>
-      </c>
-      <c r="AM32" s="1">
-        <f>+AL32+AM23</f>
-        <v>21458.138869763443</v>
+      <c r="AF36" s="1">
+        <f t="shared" ref="AF36:AQ36" si="133">+AE36+AF25</f>
+        <v>1203.5992980000001</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="133"/>
+        <v>3859.0542342750005</v>
+      </c>
+      <c r="AH36" s="1">
+        <f t="shared" si="133"/>
+        <v>6668.3927577251998</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="133"/>
+        <v>9599.4155645818864</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="133"/>
+        <v>12419.712662182323</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="133"/>
+        <v>15201.878412944256</v>
+      </c>
+      <c r="AL36" s="1">
+        <f t="shared" si="133"/>
+        <v>17992.237891072884</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="133"/>
+        <v>20827.947124107792</v>
+      </c>
+      <c r="AN36" s="1">
+        <f t="shared" si="133"/>
+        <v>23736.708241201548</v>
+      </c>
+      <c r="AO36" s="1">
+        <f t="shared" si="133"/>
+        <v>25953.770629512041</v>
+      </c>
+      <c r="AP36" s="1">
+        <f t="shared" si="133"/>
+        <v>27621.290055633835</v>
+      </c>
+      <c r="AQ36" s="1">
+        <f t="shared" si="133"/>
+        <v>29195.012836783495</v>
       </c>
     </row>
   </sheetData>
@@ -4742,6 +5352,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4753,18 +5364,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -4772,7 +5383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -4780,7 +5391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -4788,127 +5399,127 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>104</v>
       </c>
